--- a/Evolution modell.xlsx
+++ b/Evolution modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00923148-9506-5044-9413-1A3A92A402AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC78B7B-AFE1-8E47-91A3-CBC2971ECD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="500" windowWidth="26740" windowHeight="26740" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
+    <workbookView xWindow="12160" yWindow="4420" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -406,18 +406,6 @@
   </si>
   <si>
     <t>North America</t>
-  </si>
-  <si>
-    <t>Asia har vokst solid de siste årene</t>
-  </si>
-  <si>
-    <t>Europa har kympet bra de seneste årene</t>
-  </si>
-  <si>
-    <t>Trigger blir nok at Asia får tilbake veksten sin</t>
-  </si>
-  <si>
-    <t>De er utsatt for hacking som er problematisk</t>
   </si>
   <si>
     <t>Cash flow EUR million</t>
@@ -912,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -943,9 +931,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -994,7 +980,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1006,6 +991,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1638,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC13775-938B-2A4A-A0CC-9B13753DF355}">
   <dimension ref="A3:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G31" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1653,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1680,12 +1666,12 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1695,158 +1681,158 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>133</v>
+      <c r="A43" s="55" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1859,11 +1845,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB789C83-AC26-2D4C-BECF-527C3F0DF123}">
   <dimension ref="A3:DY109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1873,9 +1859,9 @@
     <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
     <col min="4" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="26" width="10.83203125" style="1"/>
+    <col min="15" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="26" width="10.83203125" style="1"/>
     <col min="27" max="27" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="10.83203125" style="1"/>
@@ -1933,35 +1919,35 @@
       <c r="P3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>101</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>100</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>72</v>
@@ -2007,58 +1993,60 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24">
-        <v>875</v>
+      <c r="B4" s="76">
+        <v>635.20000000000005</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>264.5</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>278.5</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>310.39999999999998</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>334.947</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>360.10399999999998</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>371.8</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="25">
         <v>385.8</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="25">
         <v>405.6</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="25">
         <v>431.3</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="25">
         <v>438.1</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="25">
         <v>446.9</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="25">
         <v>459.4</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="25">
         <v>448.7</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="2">
         <v>453.7</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="5">
+        <v>431.7</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="V4" s="2">
@@ -2137,7 +2125,7 @@
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="18">
@@ -2146,49 +2134,51 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>62.3</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>65.5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>68.099999999999994</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>72.533000000000001</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>69.47</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <v>69.275000000000006</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <v>66.8</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="25">
         <v>69.8</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="25">
         <v>70.099999999999994</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="25">
         <v>70.3</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="25">
         <v>72.5</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="25">
         <v>74.400000000000006</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="25">
         <v>72.3</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="5">
+        <v>75.5</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="V5" s="2">
@@ -2267,45 +2257,47 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="76">
         <f>B4*B5</f>
-        <v>178444.61074999999</v>
+        <v>129540.59056960001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27">
+        <v>159</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25">
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <v>0</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="25">
         <v>0</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="25">
         <v>59.65</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="25">
         <v>91.408000000000001</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="25">
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="V6" s="2">
@@ -2375,118 +2367,118 @@
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="5">
         <v>5464.1</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <f t="shared" ref="D7:M7" si="2">SUM(D4:D6)</f>
         <v>326.8</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f t="shared" si="2"/>
         <v>378.5</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <f t="shared" si="2"/>
         <v>407.48</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <f t="shared" si="2"/>
         <v>429.57399999999996</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="27">
         <f t="shared" si="2"/>
         <v>441.07500000000005</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <f t="shared" si="2"/>
         <v>452.6</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <f t="shared" si="2"/>
         <v>475.40000000000003</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f t="shared" si="2"/>
         <v>501.4</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="27">
         <f t="shared" si="2"/>
         <v>508.40000000000003</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <f>SUM(N4:N6)</f>
         <v>579.04999999999995</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="27">
         <f>SUM(O4:O6)</f>
         <v>625.20799999999997</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="27">
         <f>SUM(P4:P5)</f>
         <v>521</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="26">
         <f>SUM(Q4:Q5)</f>
         <v>524.29999999999995</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="15">
         <f>SUM(R4:R5)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="28">
+        <v>507.2</v>
+      </c>
+      <c r="S7" s="26">
         <f>SUM(S4:S5)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="28">
+      <c r="T7" s="26"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="26">
         <f t="shared" ref="V7:W7" si="3">SUM(V4:V6)</f>
         <v>76.423999999999992</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="26">
         <f t="shared" si="3"/>
         <v>115.526</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="26">
         <f t="shared" ref="X7:Y7" si="4">SUM(X4:X6)</f>
         <v>178.45</v>
       </c>
-      <c r="Y7" s="28">
+      <c r="Y7" s="26">
         <f t="shared" si="4"/>
         <v>245.483</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="26">
         <f t="shared" ref="Z7:AD7" si="5">SUM(Z4:Z6)</f>
         <v>365.75200000000001</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AA7" s="26">
         <f t="shared" si="5"/>
         <v>560.81899999999996</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="26">
         <f>SUM(AB4:AB6)</f>
         <v>1068.777</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="26">
         <f t="shared" si="5"/>
         <v>1456</v>
       </c>
-      <c r="AD7" s="28">
+      <c r="AD7" s="26">
         <f t="shared" si="5"/>
         <v>1798</v>
       </c>
-      <c r="AE7" s="28">
+      <c r="AE7" s="26">
         <f>SUM(AE4:AE6)</f>
         <v>2214</v>
       </c>
@@ -2494,100 +2486,102 @@
         <f>SUM(AF4:AF5)</f>
         <v>2287.0600000000004</v>
       </c>
-      <c r="AG7" s="28">
+      <c r="AG7" s="26">
         <f>SUM(AG4:AG5)</f>
         <v>2503.1379999999999</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AH7" s="26">
         <f t="shared" ref="AH7:AP7" si="6">SUM(AH4:AH5)</f>
         <v>2740.0661200000004</v>
       </c>
-      <c r="AI7" s="28">
+      <c r="AI7" s="26">
         <f t="shared" si="6"/>
         <v>2999.8839112000005</v>
       </c>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="26">
         <f t="shared" si="6"/>
         <v>3284.8321522720007</v>
       </c>
-      <c r="AK7" s="28">
+      <c r="AK7" s="26">
         <f t="shared" si="6"/>
         <v>3597.3728084483209</v>
       </c>
-      <c r="AL7" s="28">
+      <c r="AL7" s="26">
         <f t="shared" si="6"/>
         <v>3940.2109766992207</v>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="26">
         <f t="shared" si="6"/>
         <v>4316.3190150195742</v>
       </c>
-      <c r="AN7" s="28">
+      <c r="AN7" s="26">
         <f t="shared" si="6"/>
         <v>4728.9630736109893</v>
       </c>
-      <c r="AO7" s="28">
+      <c r="AO7" s="26">
         <f t="shared" si="6"/>
         <v>5181.7322674869138</v>
       </c>
-      <c r="AP7" s="28">
+      <c r="AP7" s="26">
         <f t="shared" si="6"/>
         <v>5678.5707539413197</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>-63.468000000000004</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>-68.337000000000003</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <v>-76.254999999999995</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>-81.537999999999997</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <v>-82.933000000000007</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>-87.47</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="25">
         <v>-91.037000000000006</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="25">
         <v>-93.86</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="25">
         <v>-106.771</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="25">
         <v>-111.425</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="25">
         <v>-110.593</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="25">
         <v>-109.04600000000001</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="25">
         <v>-119.949</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="2">
         <v>-123.56</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="5">
+        <v>-117.54600000000001</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -2667,59 +2661,61 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="15">
         <f>B6-B7+B8</f>
-        <v>172980.51074999999</v>
+        <v>124076.49056960001</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>-33.621000000000002</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>-37.402999999999999</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <v>-41.262</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>-46.412999999999997</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <v>-46.482999999999997</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="25">
         <v>-41.911999999999999</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="25">
         <v>-43.006</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="25">
         <v>-44.487000000000002</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="25">
         <v>-48.893999999999998</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="25">
         <v>-51.218000000000004</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="25">
         <v>-53.179000000000002</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="25">
         <v>-61.241999999999997</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="25">
         <v>-59.018999999999998</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="2">
         <v>-55.442</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="5">
+        <v>-52.69</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="V9" s="2">
@@ -2798,112 +2794,112 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <f t="shared" ref="D10:M10" si="9">SUM(D7:D9)</f>
         <v>229.71099999999998</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <f t="shared" si="9"/>
         <v>238.26000000000002</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <f t="shared" si="9"/>
         <v>260.983</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <f t="shared" si="9"/>
         <v>279.529</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="27">
         <f t="shared" si="9"/>
         <v>300.15799999999996</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="27">
         <f t="shared" si="9"/>
         <v>311.69300000000004</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <f t="shared" si="9"/>
         <v>318.55700000000002</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <f t="shared" si="9"/>
         <v>337.053</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <f t="shared" si="9"/>
         <v>345.73499999999996</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <f t="shared" si="9"/>
         <v>345.75700000000001</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <f>SUM(N7:N9)</f>
         <v>415.27799999999991</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="27">
         <f>SUM(O7:O9)</f>
         <v>454.9199999999999</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="27">
         <f t="shared" ref="P10:S10" si="10">SUM(P7:P9)</f>
         <v>342.03199999999998</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="26">
         <f t="shared" si="10"/>
         <v>345.29799999999994</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="15">
+        <f t="shared" si="10"/>
+        <v>336.964</v>
+      </c>
+      <c r="S10" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S10" s="28">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="28"/>
-      <c r="V10" s="28">
+      <c r="T10" s="26"/>
+      <c r="V10" s="26">
         <f t="shared" ref="V10:W10" si="11">SUM(V7:V9)</f>
         <v>27.087999999999994</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="26">
         <f t="shared" si="11"/>
         <v>44.707999999999991</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="26">
         <f t="shared" ref="X10:Y10" si="12">SUM(X7:X9)</f>
         <v>80.700999999999993</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="26">
         <f t="shared" si="12"/>
         <v>107.746</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="26">
         <f t="shared" ref="Z10:AA10" si="13">SUM(Z7:Z9)</f>
         <v>182.94800000000004</v>
       </c>
-      <c r="AA10" s="28">
+      <c r="AA10" s="26">
         <f t="shared" si="13"/>
         <v>331.89799999999997</v>
       </c>
-      <c r="AB10" s="28">
+      <c r="AB10" s="26">
         <f t="shared" ref="AB10:AC10" si="14">SUM(AB7:AB9)</f>
         <v>734.65000000000009</v>
       </c>
-      <c r="AC10" s="28">
+      <c r="AC10" s="26">
         <f t="shared" si="14"/>
         <v>1007</v>
       </c>
-      <c r="AD10" s="28">
+      <c r="AD10" s="26">
         <f>SUM(AD7:AD9)</f>
         <v>1267</v>
       </c>
-      <c r="AE10" s="28">
+      <c r="AE10" s="26">
         <f>SUM(AE7:AE9)</f>
         <v>1561</v>
       </c>
@@ -2911,43 +2907,43 @@
         <f>SUM(AF7:AF9)</f>
         <v>1524.6000000000004</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="26">
         <f t="shared" ref="AG10:AO10" si="15">SUM(AG7:AG9)</f>
         <v>1687.1812</v>
       </c>
-      <c r="AH10" s="28">
+      <c r="AH10" s="26">
         <f t="shared" si="15"/>
         <v>1861.4577760000002</v>
       </c>
-      <c r="AI10" s="28">
+      <c r="AI10" s="26">
         <f t="shared" si="15"/>
         <v>2053.7956496800002</v>
       </c>
-      <c r="AJ10" s="28">
+      <c r="AJ10" s="26">
         <f t="shared" si="15"/>
         <v>2266.0621923304006</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="26">
         <f t="shared" si="15"/>
         <v>2500.3169895863925</v>
       </c>
-      <c r="AL10" s="28">
+      <c r="AL10" s="26">
         <f t="shared" si="15"/>
         <v>2758.8315318545883</v>
       </c>
-      <c r="AM10" s="28">
+      <c r="AM10" s="26">
         <f t="shared" si="15"/>
         <v>3044.1109128804587</v>
       </c>
-      <c r="AN10" s="28">
+      <c r="AN10" s="26">
         <f t="shared" si="15"/>
         <v>3358.9177404743477</v>
       </c>
-      <c r="AO10" s="28">
+      <c r="AO10" s="26">
         <f t="shared" si="15"/>
         <v>3706.2984840750969</v>
       </c>
-      <c r="AP10" s="28">
+      <c r="AP10" s="26">
         <f>SUM(AP7:AP8)</f>
         <v>4244.3968782530064</v>
       </c>
@@ -2956,55 +2952,57 @@
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>11.18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>-22.593</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>-23.638000000000002</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <v>-24.622</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>-29.524999999999999</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>-28.678000000000001</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>-30.178000000000001</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <v>-31.462</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="25">
         <v>-34.365000000000002</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="25">
         <v>-34.174999999999997</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="25">
         <v>-34.637999999999998</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="25">
         <v>-36.078000000000003</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="25">
         <v>-37.331000000000003</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="25">
         <v>-38.540999999999997</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="2">
         <v>-38.884</v>
       </c>
-      <c r="R11" s="2"/>
+      <c r="R11" s="5">
+        <v>-40.271999999999998</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="V11" s="2">
@@ -3085,63 +3083,66 @@
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <f t="shared" ref="D12:O12" si="17">D8+D11+D9</f>
         <v>-119.68200000000002</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <f t="shared" si="17"/>
         <v>-129.37800000000001</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <f t="shared" si="17"/>
         <v>-142.13900000000001</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <f t="shared" si="17"/>
         <v>-157.476</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="25">
         <f t="shared" si="17"/>
         <v>-158.09399999999999</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="25">
         <f t="shared" si="17"/>
         <v>-159.56</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="25">
         <f t="shared" si="17"/>
         <v>-165.505</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="25">
         <f t="shared" si="17"/>
         <v>-172.71199999999999</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="25">
         <f t="shared" si="17"/>
         <v>-189.84</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="25">
         <f t="shared" si="17"/>
         <v>-197.28100000000001</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="25">
         <f t="shared" si="17"/>
         <v>-199.85</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="25">
         <f t="shared" si="17"/>
         <v>-207.619</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="25">
         <f>P8+P11+P9</f>
         <v>-217.50900000000001</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="25">
         <f>Q8+Q11+Q9</f>
         <v>-217.88600000000002</v>
       </c>
-      <c r="R12" s="2"/>
+      <c r="R12" s="65">
+        <f>R8+R11+R9</f>
+        <v>-210.50800000000001</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="V12" s="2">
@@ -3231,108 +3232,108 @@
       <c r="C13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <f t="shared" ref="D13:S13" si="21">D7+D12</f>
         <v>207.11799999999999</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <f t="shared" si="21"/>
         <v>214.62199999999999</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <f t="shared" si="21"/>
         <v>236.36099999999999</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <f t="shared" si="21"/>
         <v>250.00400000000002</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <f t="shared" si="21"/>
         <v>271.47999999999996</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="27">
         <f t="shared" si="21"/>
         <v>281.51500000000004</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <f t="shared" si="21"/>
         <v>287.09500000000003</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <f t="shared" si="21"/>
         <v>302.68800000000005</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <f t="shared" si="21"/>
         <v>311.55999999999995</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <f t="shared" si="21"/>
         <v>311.11900000000003</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <f t="shared" si="21"/>
         <v>379.19999999999993</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="27">
         <f t="shared" si="21"/>
         <v>417.58899999999994</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="27">
         <f t="shared" si="21"/>
         <v>303.49099999999999</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="26">
         <f t="shared" si="21"/>
         <v>306.41399999999993</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="15">
+        <f t="shared" si="21"/>
+        <v>296.69200000000001</v>
+      </c>
+      <c r="S13" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S13" s="28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="28"/>
-      <c r="V13" s="28">
+      <c r="T13" s="26"/>
+      <c r="V13" s="26">
         <f>V7+V12</f>
         <v>21.187999999999995</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="26">
         <f>W7+W12</f>
         <v>35.007999999999981</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="26">
         <f>X7+X12</f>
         <v>66.946999999999989</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="Y13" s="26">
         <f>Y7+Y12</f>
         <v>89.548999999999978</v>
       </c>
-      <c r="Z13" s="28">
+      <c r="Z13" s="26">
         <f t="shared" ref="Z13" si="22">Z7+Z12</f>
         <v>157.47200000000001</v>
       </c>
-      <c r="AA13" s="28">
+      <c r="AA13" s="26">
         <f t="shared" ref="AA13:AB13" si="23">AA7+AA12</f>
         <v>299.38499999999999</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AB13" s="26">
         <f t="shared" si="23"/>
         <v>654.00400000000002</v>
       </c>
-      <c r="AC13" s="28">
+      <c r="AC13" s="26">
         <f t="shared" ref="AC13:AP13" si="24">AC7+AC12</f>
         <v>907</v>
       </c>
-      <c r="AD13" s="28">
+      <c r="AD13" s="26">
         <f t="shared" si="24"/>
         <v>1142</v>
       </c>
-      <c r="AE13" s="28">
+      <c r="AE13" s="26">
         <f t="shared" si="24"/>
         <v>1419</v>
       </c>
@@ -3340,43 +3341,43 @@
         <f t="shared" si="24"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AG13" s="26">
         <f t="shared" si="24"/>
         <v>1509.1132</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AH13" s="26">
         <f t="shared" si="24"/>
         <v>1665.5829760000004</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AI13" s="26">
         <f t="shared" si="24"/>
         <v>1838.3333696800005</v>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AJ13" s="26">
         <f t="shared" si="24"/>
         <v>2029.0536843304005</v>
       </c>
-      <c r="AK13" s="28">
+      <c r="AK13" s="26">
         <f t="shared" si="24"/>
         <v>2239.6076307863927</v>
       </c>
-      <c r="AL13" s="28">
+      <c r="AL13" s="26">
         <f t="shared" si="24"/>
         <v>2472.0512371745881</v>
       </c>
-      <c r="AM13" s="28">
+      <c r="AM13" s="26">
         <f t="shared" si="24"/>
         <v>2728.6525887324583</v>
       </c>
-      <c r="AN13" s="28">
+      <c r="AN13" s="26">
         <f t="shared" si="24"/>
         <v>3011.9135839115474</v>
       </c>
-      <c r="AO13" s="28">
+      <c r="AO13" s="26">
         <f t="shared" si="24"/>
         <v>3324.5939118560168</v>
       </c>
-      <c r="AP13" s="28">
+      <c r="AP13" s="26">
         <f t="shared" si="24"/>
         <v>3611.801334992716</v>
       </c>
@@ -3385,50 +3386,50 @@
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>4.3109999999999999</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>2.4129999999999998</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>1.341</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <v>-9.5340000000000007</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="25">
         <v>-1.425</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="25">
         <v>1.4930000000000001</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="25">
         <v>5.36</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="25">
         <v>0.44900000000000001</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="25">
         <v>5.8769999999999998</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="25">
         <v>6.7919999999999998</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="25">
         <v>-1.0089999999999999</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="25">
         <v>7.7110000000000003</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="25">
         <v>-1.2</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="2">
         <v>-11.879</v>
       </c>
-      <c r="R14" s="2">
-        <v>0</v>
+      <c r="R14" s="5">
+        <v>0.77600000000000002</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -3506,65 +3507,65 @@
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <f t="shared" ref="D15:S15" si="25">SUM(D13:D14)</f>
         <v>211.429</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <f t="shared" si="25"/>
         <v>217.035</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <f t="shared" si="25"/>
         <v>237.702</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <f t="shared" si="25"/>
         <v>240.47000000000003</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <f t="shared" si="25"/>
         <v>270.05499999999995</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <f t="shared" si="25"/>
         <v>283.00800000000004</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="25">
         <f t="shared" si="25"/>
         <v>292.45500000000004</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="25">
         <f t="shared" si="25"/>
         <v>303.13700000000006</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="25">
         <f t="shared" si="25"/>
         <v>317.43699999999995</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="25">
         <f t="shared" si="25"/>
         <v>317.911</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="25">
         <f t="shared" si="25"/>
         <v>378.19099999999992</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="25">
         <f t="shared" si="25"/>
         <v>425.29999999999995</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="25">
         <f t="shared" si="25"/>
         <v>302.291</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="2">
         <f t="shared" si="25"/>
         <v>294.53499999999991</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>297.46800000000002</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="25"/>
@@ -3660,49 +3661,51 @@
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>-13.707000000000001</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>-16.12</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <v>-16.437000000000001</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <v>-16.968</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="25">
         <v>-18.905000000000001</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="25">
         <v>-18.919</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="25">
         <v>-19.736999999999998</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="25">
         <v>-20.187999999999999</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="25">
         <v>-48.331000000000003</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="25">
         <v>-48.777999999999999</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="25">
         <v>-49.558999999999997</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="25">
         <v>-48.241</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="25">
         <v>-47.52</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="2">
         <v>-46.186999999999998</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="5">
+        <v>-45</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="V16" s="2">
@@ -3784,108 +3787,108 @@
       <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <f t="shared" ref="D17:S17" si="29">SUM(D15:D16)</f>
         <v>197.72200000000001</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="27">
         <f t="shared" si="29"/>
         <v>200.91499999999999</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <f t="shared" si="29"/>
         <v>221.26499999999999</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f t="shared" si="29"/>
         <v>223.50200000000004</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="27">
         <f t="shared" si="29"/>
         <v>251.14999999999995</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <f t="shared" si="29"/>
         <v>264.08900000000006</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <f t="shared" si="29"/>
         <v>272.71800000000002</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <f t="shared" si="29"/>
         <v>282.94900000000007</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <f t="shared" si="29"/>
         <v>269.10599999999994</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <f t="shared" si="29"/>
         <v>269.13299999999998</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <f t="shared" si="29"/>
         <v>328.63199999999995</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="27">
         <f t="shared" si="29"/>
         <v>377.05899999999997</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="27">
         <f t="shared" si="29"/>
         <v>254.77099999999999</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="26">
         <f t="shared" si="29"/>
         <v>248.3479999999999</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="15">
+        <f t="shared" si="29"/>
+        <v>252.46800000000002</v>
+      </c>
+      <c r="S17" s="26">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S17" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="28"/>
-      <c r="V17" s="28">
+      <c r="T17" s="26"/>
+      <c r="V17" s="26">
         <f t="shared" ref="V17:AC17" si="30">SUM(V15:V16)</f>
         <v>19.943999999999996</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="26">
         <f t="shared" si="30"/>
         <v>31.863999999999983</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="26">
         <f t="shared" si="30"/>
         <v>62.222999999999985</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="26">
         <f t="shared" si="30"/>
         <v>83.548999999999978</v>
       </c>
-      <c r="Z17" s="28">
+      <c r="Z17" s="26">
         <f t="shared" si="30"/>
         <v>149.72600000000003</v>
       </c>
-      <c r="AA17" s="28">
+      <c r="AA17" s="26">
         <f t="shared" si="30"/>
         <v>284.43200000000002</v>
       </c>
-      <c r="AB17" s="28">
+      <c r="AB17" s="26">
         <f t="shared" si="30"/>
         <v>605.49099999999999</v>
       </c>
-      <c r="AC17" s="28">
+      <c r="AC17" s="26">
         <f t="shared" si="30"/>
         <v>843</v>
       </c>
-      <c r="AD17" s="28">
+      <c r="AD17" s="26">
         <f t="shared" ref="AD17:AP17" si="31">SUM(AD15:AD16)</f>
         <v>1070</v>
       </c>
-      <c r="AE17" s="28">
+      <c r="AE17" s="26">
         <f t="shared" si="31"/>
         <v>1243</v>
       </c>
@@ -3893,391 +3896,391 @@
         <f>SUM(AF15:AF16)</f>
         <v>1163.1400000000006</v>
       </c>
-      <c r="AG17" s="28">
+      <c r="AG17" s="26">
         <f t="shared" si="31"/>
         <v>1282.74622</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AH17" s="26">
         <f t="shared" si="31"/>
         <v>1415.7455296000003</v>
       </c>
-      <c r="AI17" s="28">
+      <c r="AI17" s="26">
         <f t="shared" si="31"/>
         <v>1562.5833642280004</v>
       </c>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="26">
         <f t="shared" si="31"/>
         <v>1724.6956316808405</v>
       </c>
-      <c r="AK17" s="28">
+      <c r="AK17" s="26">
         <f t="shared" si="31"/>
         <v>1903.6664861684339</v>
       </c>
-      <c r="AL17" s="28">
+      <c r="AL17" s="26">
         <f t="shared" si="31"/>
         <v>2101.2435515983998</v>
       </c>
-      <c r="AM17" s="28">
+      <c r="AM17" s="26">
         <f t="shared" si="31"/>
         <v>2319.3547004225898</v>
       </c>
-      <c r="AN17" s="28">
+      <c r="AN17" s="26">
         <f t="shared" si="31"/>
         <v>2560.1265463248155</v>
       </c>
-      <c r="AO17" s="28">
+      <c r="AO17" s="26">
         <f t="shared" si="31"/>
         <v>2825.9048250776141</v>
       </c>
-      <c r="AP17" s="28">
+      <c r="AP17" s="26">
         <f t="shared" si="31"/>
         <v>3070.0311347438087</v>
       </c>
-      <c r="AQ17" s="28">
+      <c r="AQ17" s="26">
         <f>AP17*(1+$AS$22)</f>
         <v>3039.3308233963708</v>
       </c>
-      <c r="AR17" s="28">
+      <c r="AR17" s="26">
         <f t="shared" ref="AR17:BV17" si="32">AQ17*(1+$AS$22)</f>
         <v>3008.9375151624072</v>
       </c>
-      <c r="AS17" s="28">
+      <c r="AS17" s="26">
         <f t="shared" si="32"/>
         <v>2978.848140010783</v>
       </c>
-      <c r="AT17" s="28">
+      <c r="AT17" s="26">
         <f t="shared" si="32"/>
         <v>2949.0596586106753</v>
       </c>
-      <c r="AU17" s="28">
+      <c r="AU17" s="26">
         <f t="shared" si="32"/>
         <v>2919.5690620245687</v>
       </c>
-      <c r="AV17" s="28">
+      <c r="AV17" s="26">
         <f t="shared" si="32"/>
         <v>2890.3733714043228</v>
       </c>
-      <c r="AW17" s="28">
+      <c r="AW17" s="26">
         <f t="shared" si="32"/>
         <v>2861.4696376902798</v>
       </c>
-      <c r="AX17" s="28">
+      <c r="AX17" s="26">
         <f t="shared" si="32"/>
         <v>2832.8549413133769</v>
       </c>
-      <c r="AY17" s="28">
+      <c r="AY17" s="26">
         <f t="shared" si="32"/>
         <v>2804.5263919002432</v>
       </c>
-      <c r="AZ17" s="28">
+      <c r="AZ17" s="26">
         <f t="shared" si="32"/>
         <v>2776.4811279812407</v>
       </c>
-      <c r="BA17" s="28">
+      <c r="BA17" s="26">
         <f t="shared" si="32"/>
         <v>2748.7163167014282</v>
       </c>
-      <c r="BB17" s="28">
+      <c r="BB17" s="26">
         <f t="shared" si="32"/>
         <v>2721.2291535344139</v>
       </c>
-      <c r="BC17" s="28">
+      <c r="BC17" s="26">
         <f t="shared" si="32"/>
         <v>2694.0168619990695</v>
       </c>
-      <c r="BD17" s="28">
+      <c r="BD17" s="26">
         <f t="shared" si="32"/>
         <v>2667.0766933790787</v>
       </c>
-      <c r="BE17" s="28">
+      <c r="BE17" s="26">
         <f t="shared" si="32"/>
         <v>2640.4059264452881</v>
       </c>
-      <c r="BF17" s="28">
+      <c r="BF17" s="26">
         <f t="shared" si="32"/>
         <v>2614.0018671808352</v>
       </c>
-      <c r="BG17" s="28">
+      <c r="BG17" s="26">
         <f t="shared" si="32"/>
         <v>2587.8618485090269</v>
       </c>
-      <c r="BH17" s="28">
+      <c r="BH17" s="26">
         <f t="shared" si="32"/>
         <v>2561.9832300239368</v>
       </c>
-      <c r="BI17" s="28">
+      <c r="BI17" s="26">
         <f t="shared" si="32"/>
         <v>2536.3633977236973</v>
       </c>
-      <c r="BJ17" s="28">
+      <c r="BJ17" s="26">
         <f t="shared" si="32"/>
         <v>2510.9997637464603</v>
       </c>
-      <c r="BK17" s="28">
+      <c r="BK17" s="26">
         <f t="shared" si="32"/>
         <v>2485.8897661089959</v>
       </c>
-      <c r="BL17" s="28">
+      <c r="BL17" s="26">
         <f t="shared" si="32"/>
         <v>2461.030868447906</v>
       </c>
-      <c r="BM17" s="28">
+      <c r="BM17" s="26">
         <f t="shared" si="32"/>
         <v>2436.4205597634268</v>
       </c>
-      <c r="BN17" s="28">
+      <c r="BN17" s="26">
         <f t="shared" si="32"/>
         <v>2412.0563541657925</v>
       </c>
-      <c r="BO17" s="28">
+      <c r="BO17" s="26">
         <f t="shared" si="32"/>
         <v>2387.9357906241344</v>
       </c>
-      <c r="BP17" s="28">
+      <c r="BP17" s="26">
         <f t="shared" si="32"/>
         <v>2364.0564327178931</v>
       </c>
-      <c r="BQ17" s="28">
+      <c r="BQ17" s="26">
         <f t="shared" si="32"/>
         <v>2340.415868390714</v>
       </c>
-      <c r="BR17" s="28">
+      <c r="BR17" s="26">
         <f t="shared" si="32"/>
         <v>2317.0117097068069</v>
       </c>
-      <c r="BS17" s="28">
+      <c r="BS17" s="26">
         <f t="shared" si="32"/>
         <v>2293.8415926097387</v>
       </c>
-      <c r="BT17" s="28">
+      <c r="BT17" s="26">
         <f t="shared" si="32"/>
         <v>2270.903176683641</v>
       </c>
-      <c r="BU17" s="28">
+      <c r="BU17" s="26">
         <f t="shared" si="32"/>
         <v>2248.1941449168048</v>
       </c>
-      <c r="BV17" s="28">
+      <c r="BV17" s="26">
         <f t="shared" si="32"/>
         <v>2225.7122034676368</v>
       </c>
-      <c r="BW17" s="28">
+      <c r="BW17" s="26">
         <f t="shared" ref="BW17:DB17" si="33">BV17*(1+$AS$22)</f>
         <v>2203.4550814329605</v>
       </c>
-      <c r="BX17" s="28">
+      <c r="BX17" s="26">
         <f t="shared" si="33"/>
         <v>2181.4205306186309</v>
       </c>
-      <c r="BY17" s="28">
+      <c r="BY17" s="26">
         <f t="shared" si="33"/>
         <v>2159.6063253124444</v>
       </c>
-      <c r="BZ17" s="28">
+      <c r="BZ17" s="26">
         <f t="shared" si="33"/>
         <v>2138.0102620593198</v>
       </c>
-      <c r="CA17" s="28">
+      <c r="CA17" s="26">
         <f t="shared" si="33"/>
         <v>2116.6301594387264</v>
       </c>
-      <c r="CB17" s="28">
+      <c r="CB17" s="26">
         <f t="shared" si="33"/>
         <v>2095.4638578443391</v>
       </c>
-      <c r="CC17" s="28">
+      <c r="CC17" s="26">
         <f t="shared" si="33"/>
         <v>2074.5092192658958</v>
       </c>
-      <c r="CD17" s="28">
+      <c r="CD17" s="26">
         <f t="shared" si="33"/>
         <v>2053.764127073237</v>
       </c>
-      <c r="CE17" s="28">
+      <c r="CE17" s="26">
         <f t="shared" si="33"/>
         <v>2033.2264858025046</v>
       </c>
-      <c r="CF17" s="28">
+      <c r="CF17" s="26">
         <f t="shared" si="33"/>
         <v>2012.8942209444795</v>
       </c>
-      <c r="CG17" s="28">
+      <c r="CG17" s="26">
         <f t="shared" si="33"/>
         <v>1992.7652787350346</v>
       </c>
-      <c r="CH17" s="28">
+      <c r="CH17" s="26">
         <f t="shared" si="33"/>
         <v>1972.8376259476843</v>
       </c>
-      <c r="CI17" s="28">
+      <c r="CI17" s="26">
         <f t="shared" si="33"/>
         <v>1953.1092496882075</v>
       </c>
-      <c r="CJ17" s="28">
+      <c r="CJ17" s="26">
         <f t="shared" si="33"/>
         <v>1933.5781571913253</v>
       </c>
-      <c r="CK17" s="28">
+      <c r="CK17" s="26">
         <f t="shared" si="33"/>
         <v>1914.2423756194121</v>
       </c>
-      <c r="CL17" s="28">
+      <c r="CL17" s="26">
         <f t="shared" si="33"/>
         <v>1895.0999518632179</v>
       </c>
-      <c r="CM17" s="28">
+      <c r="CM17" s="26">
         <f t="shared" si="33"/>
         <v>1876.1489523445857</v>
       </c>
-      <c r="CN17" s="28">
+      <c r="CN17" s="26">
         <f t="shared" si="33"/>
         <v>1857.3874628211399</v>
       </c>
-      <c r="CO17" s="28">
+      <c r="CO17" s="26">
         <f t="shared" si="33"/>
         <v>1838.8135881929286</v>
       </c>
-      <c r="CP17" s="28">
+      <c r="CP17" s="26">
         <f t="shared" si="33"/>
         <v>1820.4254523109994</v>
       </c>
-      <c r="CQ17" s="28">
+      <c r="CQ17" s="26">
         <f t="shared" si="33"/>
         <v>1802.2211977878894</v>
       </c>
-      <c r="CR17" s="28">
+      <c r="CR17" s="26">
         <f t="shared" si="33"/>
         <v>1784.1989858100105</v>
       </c>
-      <c r="CS17" s="28">
+      <c r="CS17" s="26">
         <f t="shared" si="33"/>
         <v>1766.3569959519104</v>
       </c>
-      <c r="CT17" s="28">
+      <c r="CT17" s="26">
         <f t="shared" si="33"/>
         <v>1748.6934259923914</v>
       </c>
-      <c r="CU17" s="28">
+      <c r="CU17" s="26">
         <f t="shared" si="33"/>
         <v>1731.2064917324676</v>
       </c>
-      <c r="CV17" s="28">
+      <c r="CV17" s="26">
         <f t="shared" si="33"/>
         <v>1713.8944268151429</v>
       </c>
-      <c r="CW17" s="28">
+      <c r="CW17" s="26">
         <f t="shared" si="33"/>
         <v>1696.7554825469915</v>
       </c>
-      <c r="CX17" s="28">
+      <c r="CX17" s="26">
         <f t="shared" si="33"/>
         <v>1679.7879277215216</v>
       </c>
-      <c r="CY17" s="28">
+      <c r="CY17" s="26">
         <f t="shared" si="33"/>
         <v>1662.9900484443062</v>
       </c>
-      <c r="CZ17" s="28">
+      <c r="CZ17" s="26">
         <f t="shared" si="33"/>
         <v>1646.3601479598631</v>
       </c>
-      <c r="DA17" s="28">
+      <c r="DA17" s="26">
         <f t="shared" si="33"/>
         <v>1629.8965464802645</v>
       </c>
-      <c r="DB17" s="28">
+      <c r="DB17" s="26">
         <f t="shared" si="33"/>
         <v>1613.5975810154619</v>
       </c>
-      <c r="DC17" s="28">
+      <c r="DC17" s="26">
         <f t="shared" ref="DC17:DY17" si="34">DB17*(1+$AS$22)</f>
         <v>1597.4616052053073</v>
       </c>
-      <c r="DD17" s="28">
+      <c r="DD17" s="26">
         <f t="shared" si="34"/>
         <v>1581.4869891532542</v>
       </c>
-      <c r="DE17" s="28">
+      <c r="DE17" s="26">
         <f t="shared" si="34"/>
         <v>1565.6721192617217</v>
       </c>
-      <c r="DF17" s="28">
+      <c r="DF17" s="26">
         <f t="shared" si="34"/>
         <v>1550.0153980691045</v>
       </c>
-      <c r="DG17" s="28">
+      <c r="DG17" s="26">
         <f t="shared" si="34"/>
         <v>1534.5152440884135</v>
       </c>
-      <c r="DH17" s="28">
+      <c r="DH17" s="26">
         <f t="shared" si="34"/>
         <v>1519.1700916475293</v>
       </c>
-      <c r="DI17" s="28">
+      <c r="DI17" s="26">
         <f t="shared" si="34"/>
         <v>1503.9783907310539</v>
       </c>
-      <c r="DJ17" s="28">
+      <c r="DJ17" s="26">
         <f t="shared" si="34"/>
         <v>1488.9386068237434</v>
       </c>
-      <c r="DK17" s="28">
+      <c r="DK17" s="26">
         <f t="shared" si="34"/>
         <v>1474.049220755506</v>
       </c>
-      <c r="DL17" s="28">
+      <c r="DL17" s="26">
         <f t="shared" si="34"/>
         <v>1459.308728547951</v>
       </c>
-      <c r="DM17" s="28">
+      <c r="DM17" s="26">
         <f t="shared" si="34"/>
         <v>1444.7156412624715</v>
       </c>
-      <c r="DN17" s="28">
+      <c r="DN17" s="26">
         <f t="shared" si="34"/>
         <v>1430.2684848498468</v>
       </c>
-      <c r="DO17" s="28">
+      <c r="DO17" s="26">
         <f t="shared" si="34"/>
         <v>1415.9658000013483</v>
       </c>
-      <c r="DP17" s="28">
+      <c r="DP17" s="26">
         <f t="shared" si="34"/>
         <v>1401.8061420013348</v>
       </c>
-      <c r="DQ17" s="28">
+      <c r="DQ17" s="26">
         <f t="shared" si="34"/>
         <v>1387.7880805813215</v>
       </c>
-      <c r="DR17" s="28">
+      <c r="DR17" s="26">
         <f t="shared" si="34"/>
         <v>1373.9101997755083</v>
       </c>
-      <c r="DS17" s="28">
+      <c r="DS17" s="26">
         <f t="shared" si="34"/>
         <v>1360.1710977777532</v>
       </c>
-      <c r="DT17" s="28">
+      <c r="DT17" s="26">
         <f t="shared" si="34"/>
         <v>1346.5693867999755</v>
       </c>
-      <c r="DU17" s="28">
+      <c r="DU17" s="26">
         <f t="shared" si="34"/>
         <v>1333.1036929319757</v>
       </c>
-      <c r="DV17" s="28">
+      <c r="DV17" s="26">
         <f t="shared" si="34"/>
         <v>1319.772656002656</v>
       </c>
-      <c r="DW17" s="28">
+      <c r="DW17" s="26">
         <f t="shared" si="34"/>
         <v>1306.5749294426296</v>
       </c>
-      <c r="DX17" s="28">
+      <c r="DX17" s="26">
         <f t="shared" si="34"/>
         <v>1293.5091801482033</v>
       </c>
-      <c r="DY17" s="28">
+      <c r="DY17" s="26">
         <f t="shared" si="34"/>
         <v>1280.5740883467213</v>
       </c>
@@ -4338,13 +4341,13 @@
         <f t="shared" si="35"/>
         <v>13.853088460697512</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18" s="16">
         <f>(Q17*$B$11)/Q19</f>
         <v>13.614668998906703</v>
       </c>
-      <c r="R18" s="16" t="e">
+      <c r="R18" s="18">
         <f t="shared" ref="R18" si="36">(R17*$B$11)/R19</f>
-        <v>#DIV/0!</v>
+        <v>13.940910774068358</v>
       </c>
       <c r="S18" s="16" t="e">
         <f t="shared" ref="S18" si="37">(S17*$B$11)/S19</f>
@@ -4479,10 +4482,12 @@
       <c r="P19" s="16">
         <v>205.61045200000001</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="16">
         <v>203.93669800000001</v>
       </c>
-      <c r="R19" s="16"/>
+      <c r="R19" s="18">
+        <v>202.46828099999999</v>
+      </c>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="V19" s="16">
@@ -4550,7 +4555,7 @@
       </c>
     </row>
     <row r="21" spans="3:129" x14ac:dyDescent="0.25">
-      <c r="O21" s="27"/>
+      <c r="O21" s="25"/>
       <c r="AR21" s="1" t="s">
         <v>90</v>
       </c>
@@ -4559,8 +4564,8 @@
       </c>
     </row>
     <row r="22" spans="3:129" x14ac:dyDescent="0.25">
-      <c r="Q22" s="68"/>
-      <c r="R22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="66"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="6"/>
@@ -4582,55 +4587,55 @@
       <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33">
         <f t="shared" ref="H23:M23" si="41">(H7-D7)/D7</f>
         <v>0.3144859241126069</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="33">
         <f t="shared" si="41"/>
         <v>0.28219476744186062</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <f t="shared" si="41"/>
         <v>0.19577278731836201</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <f t="shared" si="41"/>
         <v>0.16668302738784729</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="33">
         <f t="shared" si="41"/>
         <v>0.1672028567836974</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="33">
         <f t="shared" si="41"/>
         <v>0.15263844017457345</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23" s="33">
         <f>(N7-J7)/J7</f>
         <v>0.27938577110030915</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23" s="33">
         <f>(O7-K7)/K7</f>
         <v>0.31511989903239362</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23" s="33">
         <f>(P7-L7)/L7</f>
         <v>3.9090546469884371E-2</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="33">
         <f t="shared" ref="Q23:S23" si="42">(Q7-M7)/M7</f>
         <v>3.127458693941762E-2</v>
       </c>
-      <c r="R23" s="35">
-        <f t="shared" si="42"/>
-        <v>-1</v>
-      </c>
-      <c r="S23" s="35">
+      <c r="R23" s="34">
+        <f>(R7-N7)/N7</f>
+        <v>-0.12408254900267675</v>
+      </c>
+      <c r="S23" s="33">
         <f t="shared" si="42"/>
         <v>-1</v>
       </c>
@@ -4726,55 +4731,55 @@
       <c r="C24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31">
         <f t="shared" ref="H24:P25" si="51">(H4-D4)/D4</f>
         <v>0.36145179584120979</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f t="shared" si="51"/>
         <v>0.33500897666068225</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="31">
         <f t="shared" si="51"/>
         <v>0.24291237113402075</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <f t="shared" si="51"/>
         <v>0.21093784986878528</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="31">
         <f t="shared" si="51"/>
         <v>0.19770955057427864</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="31">
         <f t="shared" si="51"/>
         <v>0.17832167832167833</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="31">
         <f t="shared" si="51"/>
         <v>0.15837221358216683</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="31">
         <f t="shared" si="51"/>
         <v>0.13264299802761328</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="31">
         <f t="shared" si="51"/>
         <v>4.0343148620449749E-2</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="31">
         <f t="shared" ref="Q24:Q25" si="52">(Q4-M4)/M4</f>
         <v>3.5608308605341164E-2</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="32">
         <f t="shared" ref="R24:R25" si="53">(R4-N4)/N4</f>
-        <v>-1</v>
-      </c>
-      <c r="S24" s="33">
+        <v>-3.4012083240098433E-2</v>
+      </c>
+      <c r="S24" s="31">
         <f t="shared" ref="S24:S25" si="54">(S4-O4)/O4</f>
         <v>-1</v>
       </c>
@@ -4855,55 +4860,55 @@
       <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31">
         <f t="shared" si="51"/>
         <v>0.11508828250401287</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="35">
         <f t="shared" si="51"/>
         <v>5.7633587786259627E-2</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="35">
         <f t="shared" si="51"/>
         <v>-1.9089574155653412E-2</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <f t="shared" si="51"/>
         <v>-3.7679401100188935E-2</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="35">
         <f t="shared" si="51"/>
         <v>9.0686627321145165E-3</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="35">
         <f t="shared" si="51"/>
         <v>1.4796102490075661E-2</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="35">
         <f t="shared" si="51"/>
         <v>8.5329341317365318E-2</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="35">
         <f t="shared" si="51"/>
         <v>6.5902578796561723E-2</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="35">
         <f t="shared" si="51"/>
         <v>3.138373751783171E-2</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="35">
         <f t="shared" si="52"/>
         <v>4.2674253200568587E-3</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="73">
         <f t="shared" si="53"/>
-        <v>-1</v>
-      </c>
-      <c r="S25" s="37">
+        <v>4.1379310344827586E-2</v>
+      </c>
+      <c r="S25" s="35">
         <f t="shared" si="54"/>
         <v>-1</v>
       </c>
@@ -4913,230 +4918,230 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31">
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29">
         <f>(AA5-Z5)/Z5</f>
         <v>273.13846153846151</v>
       </c>
-      <c r="AB25" s="31">
+      <c r="AB25" s="29">
         <f>(AB5-AA5)/AA5</f>
         <v>11.881699309725574</v>
       </c>
-      <c r="AC25" s="31">
+      <c r="AC25" s="29">
         <f t="shared" ref="AC25" si="57">(AC5-AB5)/AB5</f>
         <v>0.167557582807279</v>
       </c>
-      <c r="AD25" s="31">
+      <c r="AD25" s="29">
         <f t="shared" ref="AD25:AP25" si="58">(AD5-AC5)/AC5</f>
         <v>2.6119402985074626E-2</v>
       </c>
-      <c r="AE25" s="31">
+      <c r="AE25" s="29">
         <f t="shared" si="58"/>
         <v>4.363636363636364E-2</v>
       </c>
-      <c r="AF25" s="32">
+      <c r="AF25" s="30">
         <f t="shared" si="58"/>
         <v>0.10000000000000016</v>
       </c>
-      <c r="AG25" s="31">
+      <c r="AG25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000012E-2</v>
       </c>
-      <c r="AH25" s="31">
+      <c r="AH25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000067E-2</v>
       </c>
-      <c r="AI25" s="31">
+      <c r="AI25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000116E-2</v>
       </c>
-      <c r="AJ25" s="31">
+      <c r="AJ25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000081E-2</v>
       </c>
-      <c r="AK25" s="31">
+      <c r="AK25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000019E-2</v>
       </c>
-      <c r="AL25" s="31">
+      <c r="AL25" s="29">
         <f t="shared" si="58"/>
         <v>5.9999999999999984E-2</v>
       </c>
-      <c r="AM25" s="31">
+      <c r="AM25" s="29">
         <f t="shared" si="58"/>
         <v>0.06</v>
       </c>
-      <c r="AN25" s="31">
+      <c r="AN25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000095E-2</v>
       </c>
-      <c r="AO25" s="31">
+      <c r="AO25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000039E-2</v>
       </c>
-      <c r="AP25" s="31">
+      <c r="AP25" s="29">
         <f t="shared" si="58"/>
         <v>6.0000000000000109E-2</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AS25" s="62">
+      <c r="AS25" s="60">
         <f>AS24/AP19</f>
         <v>1168.4412279125486</v>
       </c>
     </row>
     <row r="26" spans="3:129" x14ac:dyDescent="0.25">
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <f t="shared" ref="D26:O26" si="59">D10/D7</f>
         <v>0.7029100367197062</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <f t="shared" si="59"/>
         <v>0.69261627906976753</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="37">
         <f t="shared" si="59"/>
         <v>0.68951915455746371</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="37">
         <f t="shared" si="59"/>
         <v>0.68599440463335615</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="37">
         <f t="shared" si="59"/>
         <v>0.69873409470778025</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="33">
         <f t="shared" si="59"/>
         <v>0.70666666666666667</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <f t="shared" si="59"/>
         <v>0.7038378258948299</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <f t="shared" si="59"/>
         <v>0.70898822044594023</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="33">
         <f t="shared" si="59"/>
         <v>0.68953928998803349</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="33">
         <f t="shared" si="59"/>
         <v>0.68008851298190398</v>
       </c>
-      <c r="N26" s="35">
+      <c r="N26" s="33">
         <f t="shared" si="59"/>
         <v>0.71717122873672379</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="33">
         <f t="shared" si="59"/>
         <v>0.72762984478765458</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="33">
         <f t="shared" ref="P26:S26" si="60">P10/P7</f>
         <v>0.65649136276391551</v>
       </c>
-      <c r="Q26" s="69">
+      <c r="Q26" s="33">
         <f t="shared" si="60"/>
         <v>0.65858859431623107</v>
       </c>
-      <c r="R26" s="35" t="e">
+      <c r="R26" s="34">
+        <f t="shared" si="60"/>
+        <v>0.66436119873817034</v>
+      </c>
+      <c r="S26" s="33" t="e">
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="35" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="35">
+      <c r="V26" s="33">
         <f t="shared" ref="V26:Y26" si="61">V10/V7</f>
         <v>0.35444363027321257</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26" s="33">
         <f t="shared" si="61"/>
         <v>0.38699513529421942</v>
       </c>
-      <c r="X26" s="35">
+      <c r="X26" s="33">
         <f t="shared" si="61"/>
         <v>0.452233118520594</v>
       </c>
-      <c r="Y26" s="35">
+      <c r="Y26" s="33">
         <f t="shared" si="61"/>
         <v>0.43891430363813377</v>
       </c>
-      <c r="Z26" s="35">
+      <c r="Z26" s="33">
         <f t="shared" ref="Z26:AB26" si="62">Z10/Z7</f>
         <v>0.50019685469935926</v>
       </c>
-      <c r="AA26" s="35">
+      <c r="AA26" s="33">
         <f t="shared" si="62"/>
         <v>0.59180947863749267</v>
       </c>
-      <c r="AB26" s="35">
+      <c r="AB26" s="33">
         <f t="shared" si="62"/>
         <v>0.68737444761629418</v>
       </c>
-      <c r="AC26" s="35">
+      <c r="AC26" s="33">
         <f t="shared" ref="AC26:AP26" si="63">AC10/AC7</f>
         <v>0.69162087912087911</v>
       </c>
-      <c r="AD26" s="35">
+      <c r="AD26" s="33">
         <f t="shared" si="63"/>
         <v>0.70467185761957729</v>
       </c>
-      <c r="AE26" s="35">
+      <c r="AE26" s="33">
         <f t="shared" si="63"/>
         <v>0.70505871725383917</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AF26" s="34">
         <f t="shared" si="63"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="AG26" s="35">
+      <c r="AG26" s="33">
         <f t="shared" si="63"/>
         <v>0.67402644200998907</v>
       </c>
-      <c r="AH26" s="35">
+      <c r="AH26" s="33">
         <f t="shared" si="63"/>
         <v>0.67934775822125049</v>
       </c>
-      <c r="AI26" s="35">
+      <c r="AI26" s="33">
         <f t="shared" si="63"/>
         <v>0.68462504232653787</v>
       </c>
-      <c r="AJ26" s="35">
+      <c r="AJ26" s="33">
         <f t="shared" si="63"/>
         <v>0.68985631145964232</v>
       </c>
-      <c r="AK26" s="35">
+      <c r="AK26" s="33">
         <f t="shared" si="63"/>
         <v>0.69503972001858516</v>
       </c>
-      <c r="AL26" s="35">
+      <c r="AL26" s="33">
         <f t="shared" si="63"/>
         <v>0.70017355623066324</v>
       </c>
-      <c r="AM26" s="35">
+      <c r="AM26" s="33">
         <f t="shared" si="63"/>
         <v>0.70525623854210273</v>
       </c>
-      <c r="AN26" s="35">
+      <c r="AN26" s="33">
         <f t="shared" si="63"/>
         <v>0.71028631185938007</v>
       </c>
-      <c r="AO26" s="35">
+      <c r="AO26" s="33">
         <f t="shared" si="63"/>
         <v>0.71526244366782255</v>
       </c>
-      <c r="AP26" s="35">
+      <c r="AP26" s="33">
         <f t="shared" si="63"/>
         <v>0.74744104849043258</v>
       </c>
@@ -5146,182 +5151,182 @@
       <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <f t="shared" ref="D27:O27" si="64">D13/D7</f>
         <v>0.63377600979192161</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <f t="shared" si="64"/>
         <v>0.62390116279069763</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="31">
         <f t="shared" si="64"/>
         <v>0.62446763540290617</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="31">
         <f t="shared" si="64"/>
         <v>0.61353686070481994</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="31">
         <f t="shared" si="64"/>
         <v>0.63197493330601939</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <f t="shared" si="64"/>
         <v>0.63824746358329087</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="31">
         <f t="shared" si="64"/>
         <v>0.63432390631904556</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <f t="shared" si="64"/>
         <v>0.63670172486327303</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="31">
         <f t="shared" si="64"/>
         <v>0.62138013562026317</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="31">
         <f t="shared" si="64"/>
         <v>0.61195712037765537</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="31">
         <f t="shared" si="64"/>
         <v>0.65486572834815637</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="31">
         <f t="shared" si="64"/>
         <v>0.66792011618533342</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="31">
         <f t="shared" ref="P27:S27" si="65">P13/P7</f>
         <v>0.58251631477927057</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="31">
         <f t="shared" si="65"/>
         <v>0.58442494754911301</v>
       </c>
-      <c r="R27" s="33" t="e">
+      <c r="R27" s="32">
+        <f t="shared" si="65"/>
+        <v>0.58496056782334382</v>
+      </c>
+      <c r="S27" s="31" t="e">
         <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="33" t="e">
-        <f t="shared" si="65"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="33">
+      <c r="V27" s="31">
         <f t="shared" ref="V27:Y27" si="66">V13/V7</f>
         <v>0.27724275096828216</v>
       </c>
-      <c r="W27" s="33">
+      <c r="W27" s="31">
         <f t="shared" si="66"/>
         <v>0.3030313522497099</v>
       </c>
-      <c r="X27" s="33">
+      <c r="X27" s="31">
         <f t="shared" si="66"/>
         <v>0.37515830764920144</v>
       </c>
-      <c r="Y27" s="33">
+      <c r="Y27" s="31">
         <f t="shared" si="66"/>
         <v>0.36478697099188123</v>
       </c>
-      <c r="Z27" s="33">
+      <c r="Z27" s="31">
         <f t="shared" ref="Z27:AB27" si="67">Z13/Z7</f>
         <v>0.43054310024278747</v>
       </c>
-      <c r="AA27" s="33">
+      <c r="AA27" s="31">
         <f t="shared" si="67"/>
         <v>0.53383533724784649</v>
       </c>
-      <c r="AB27" s="33">
+      <c r="AB27" s="31">
         <f t="shared" si="67"/>
         <v>0.61191810826767412</v>
       </c>
-      <c r="AC27" s="33">
+      <c r="AC27" s="31">
         <f t="shared" ref="AC27:AP27" si="68">AC13/AC7</f>
         <v>0.62293956043956045</v>
       </c>
-      <c r="AD27" s="33">
+      <c r="AD27" s="31">
         <f t="shared" si="68"/>
         <v>0.63515016685205783</v>
       </c>
-      <c r="AE27" s="33">
+      <c r="AE27" s="31">
         <f t="shared" si="68"/>
         <v>0.64092140921409213</v>
       </c>
-      <c r="AF27" s="34">
+      <c r="AF27" s="32">
         <f t="shared" si="68"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="AG27" s="33">
+      <c r="AG27" s="31">
         <f t="shared" si="68"/>
         <v>0.60288853431173195</v>
       </c>
-      <c r="AH27" s="33">
+      <c r="AH27" s="31">
         <f t="shared" si="68"/>
         <v>0.60786232997910283</v>
       </c>
-      <c r="AI27" s="33">
+      <c r="AI27" s="31">
         <f t="shared" si="68"/>
         <v>0.61280150302370817</v>
       </c>
-      <c r="AJ27" s="33">
+      <c r="AJ27" s="31">
         <f t="shared" si="68"/>
         <v>0.61770391614286191</v>
       </c>
-      <c r="AK27" s="33">
+      <c r="AK27" s="31">
         <f t="shared" si="68"/>
         <v>0.62256756528729584</v>
       </c>
-      <c r="AL27" s="33">
+      <c r="AL27" s="31">
         <f t="shared" si="68"/>
         <v>0.62739057674659493</v>
       </c>
-      <c r="AM27" s="33">
+      <c r="AM27" s="31">
         <f t="shared" si="68"/>
         <v>0.63217120403693894</v>
       </c>
-      <c r="AN27" s="33">
+      <c r="AN27" s="31">
         <f t="shared" si="68"/>
         <v>0.63690782461781414</v>
       </c>
-      <c r="AO27" s="33">
+      <c r="AO27" s="31">
         <f t="shared" si="68"/>
         <v>0.64159893646307786</v>
       </c>
-      <c r="AP27" s="33">
+      <c r="AP27" s="31">
         <f t="shared" si="68"/>
         <v>0.63604056222877503</v>
       </c>
       <c r="AR27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AS27" s="35">
+      <c r="AS27" s="33">
         <f>(AS25-B4)/B4</f>
-        <v>0.33536140332862696</v>
+        <v>0.83948556031572497</v>
       </c>
     </row>
     <row r="28" spans="3:129" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
+        <v>178</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="31"/>
       <c r="V28" s="10">
         <v>0.45700000000000002</v>
       </c>
@@ -5334,36 +5339,36 @@
       <c r="Y28" s="10">
         <v>0.51400000000000001</v>
       </c>
-      <c r="Z28" s="33">
+      <c r="Z28" s="31">
         <v>0.53300000000000003</v>
       </c>
-      <c r="AA28" s="33">
+      <c r="AA28" s="31">
         <v>0.10440000000000001</v>
       </c>
-      <c r="AB28" s="33">
+      <c r="AB28" s="31">
         <v>0.18970000000000001</v>
       </c>
-      <c r="AC28" s="33">
+      <c r="AC28" s="31">
         <v>0.2437</v>
       </c>
-      <c r="AD28" s="33">
+      <c r="AD28" s="31">
         <v>0.26729999999999998</v>
       </c>
-      <c r="AE28" s="33">
+      <c r="AE28" s="31">
         <f>AE17/O56</f>
         <v>0.31295358442634197</v>
       </c>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
     </row>
     <row r="30" spans="3:129" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
@@ -5408,15 +5413,17 @@
       <c r="P30" s="2">
         <v>22223</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="2">
         <v>22248</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="5">
+        <v>21652</v>
+      </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="3:129" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H31" s="10">
         <f>(H30-D30)/D30</f>
@@ -5454,13 +5461,13 @@
         <f>(P30-L30)/L30</f>
         <v>8.2095729658664851E-2</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <f t="shared" ref="Q31:S31" si="70">(Q30-M30)/M30</f>
         <v>5.2362707535121331E-2</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="11">
         <f t="shared" si="70"/>
-        <v>-1</v>
+        <v>4.2364721740804932E-2</v>
       </c>
       <c r="S31" s="10">
         <f t="shared" si="70"/>
@@ -5469,7 +5476,7 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
@@ -5515,10 +5522,12 @@
       <c r="P35" s="2">
         <v>2366.1680000000001</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="2">
         <v>2318.0729999999999</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="5">
+        <v>2336.1999999999998</v>
+      </c>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
@@ -5564,10 +5573,12 @@
       <c r="P36" s="2">
         <v>709.8</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="2">
         <v>687.35</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="5">
+        <v>681.53899999999999</v>
+      </c>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
@@ -5613,10 +5624,12 @@
       <c r="P37" s="2">
         <v>19.875</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="2">
         <v>19.233000000000001</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="5">
+        <v>19.192</v>
+      </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
@@ -5662,10 +5675,12 @@
       <c r="P38" s="2">
         <v>83.45</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="2">
         <v>80.519000000000005</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="5">
+        <v>77.290000000000006</v>
+      </c>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
@@ -5711,10 +5726,12 @@
       <c r="P39" s="2">
         <v>151.79300000000001</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="2">
         <v>150.83600000000001</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="5">
+        <v>154.89400000000001</v>
+      </c>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -5760,10 +5777,12 @@
       <c r="P40" s="2">
         <v>101.6</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="2">
         <v>101.548</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="5">
+        <v>103.2</v>
+      </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
@@ -5809,10 +5828,12 @@
       <c r="P41" s="2">
         <v>10.6</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="2">
         <v>10.554</v>
       </c>
-      <c r="R41" s="2"/>
+      <c r="R41" s="5">
+        <v>10.1</v>
+      </c>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
@@ -5858,77 +5879,79 @@
       <c r="P42" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="2">
         <v>11.2</v>
       </c>
-      <c r="R42" s="2"/>
+      <c r="R42" s="5">
+        <v>10.9</v>
+      </c>
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="28">
         <f t="shared" ref="D43:M43" si="71">SUM(D35:D42)</f>
         <v>3082.3049999999994</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="28">
         <f t="shared" si="71"/>
         <v>3142.6180000000004</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="28">
         <f t="shared" si="71"/>
         <v>3316.114</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="28">
         <f t="shared" si="71"/>
         <v>3259.9959999999996</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="28">
         <f>SUM(H35:H42)</f>
         <v>3245.23</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="28">
         <f>SUM(I35:I42)</f>
         <v>3142.6960000000004</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="28">
         <f>SUM(J35:J42)</f>
         <v>3174.3550000000005</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="28">
         <f>SUM(K35:K42)</f>
         <v>3251.2200000000003</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="28">
         <f>SUM(L35:L42)</f>
         <v>3187.8780000000002</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="28">
         <f t="shared" si="71"/>
         <v>3230.5630000000001</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="28">
         <f>SUM(N35:N42)</f>
         <v>3346.2799999999997</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="28">
         <f>SUM(O35:O42)</f>
         <v>3340.8779999999997</v>
       </c>
-      <c r="P43" s="30">
+      <c r="P43" s="28">
         <f>SUM(P35:P42)</f>
         <v>3451.9859999999994</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="28">
         <f t="shared" ref="Q43:S43" si="72">SUM(Q35:Q42)</f>
         <v>3379.3130000000001</v>
       </c>
-      <c r="R43" s="30">
+      <c r="R43" s="14">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="30">
+        <v>3393.3149999999996</v>
+      </c>
+      <c r="S43" s="28">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -5976,10 +5999,12 @@
       <c r="P44" s="2">
         <v>390.73500000000001</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="2">
         <v>425.37900000000002</v>
       </c>
-      <c r="R44" s="2"/>
+      <c r="R44" s="5">
+        <v>398.31200000000001</v>
+      </c>
       <c r="S44" s="2"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
@@ -6025,10 +6050,12 @@
       <c r="P45" s="2">
         <v>820.28700000000003</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="2">
         <v>576.22199999999998</v>
       </c>
-      <c r="R45" s="2"/>
+      <c r="R45" s="5">
+        <v>658.14300000000003</v>
+      </c>
       <c r="S45" s="2"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
@@ -6074,10 +6101,12 @@
       <c r="P46" s="2">
         <v>26.5</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="2">
         <v>27.03</v>
       </c>
-      <c r="R46" s="2"/>
+      <c r="R46" s="5">
+        <v>28.695</v>
+      </c>
       <c r="S46" s="2"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
@@ -6123,10 +6152,12 @@
       <c r="P47" s="2">
         <v>35.799999999999997</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="2">
         <v>40.573999999999998</v>
       </c>
-      <c r="R47" s="2"/>
+      <c r="R47" s="5">
+        <v>38.610999999999997</v>
+      </c>
       <c r="S47" s="2"/>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
@@ -6172,77 +6203,79 @@
       <c r="P48" s="2">
         <v>969.2</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="2">
         <v>505.255</v>
       </c>
-      <c r="R48" s="2"/>
+      <c r="R48" s="5">
+        <v>656.37800000000004</v>
+      </c>
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C49" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="28">
         <f t="shared" ref="D49:M49" si="73">SUM(D44:D48)</f>
         <v>927.798</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <f t="shared" si="73"/>
         <v>1142.9949999999999</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="28">
         <f t="shared" si="73"/>
         <v>886.10699999999997</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="28">
         <f t="shared" si="73"/>
         <v>1109.375</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="28">
         <f>SUM(H44:H48)</f>
         <v>1411.029</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="28">
         <f t="shared" si="73"/>
         <v>1142.9949999999999</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="28">
         <f t="shared" si="73"/>
         <v>1500.816</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="28">
         <f t="shared" si="73"/>
         <v>1722.2640000000001</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="28">
         <f>SUM(L44:L48)</f>
         <v>1851.5450000000001</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="28">
         <f t="shared" si="73"/>
         <v>1569.1010000000001</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="28">
         <f>SUM(N44:N48)</f>
         <v>1641.84</v>
       </c>
-      <c r="O49" s="30">
+      <c r="O49" s="28">
         <f>SUM(O44:O48)</f>
         <v>2005.8940000000002</v>
       </c>
-      <c r="P49" s="30">
+      <c r="P49" s="28">
         <f>SUM(P44:P48)</f>
         <v>2242.5219999999999</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="28">
         <f t="shared" ref="Q49:S49" si="74">SUM(Q44:Q48)</f>
         <v>1574.46</v>
       </c>
-      <c r="R49" s="30">
+      <c r="R49" s="14">
         <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="30">
+        <v>1780.1390000000001</v>
+      </c>
+      <c r="S49" s="28">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -6251,67 +6284,67 @@
       <c r="C50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="26">
         <f t="shared" ref="D50:M50" si="75">D43+D49</f>
         <v>4010.1029999999992</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="26">
         <f t="shared" si="75"/>
         <v>4285.6130000000003</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="26">
         <f t="shared" si="75"/>
         <v>4202.2209999999995</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="26">
         <f t="shared" si="75"/>
         <v>4369.3709999999992</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="26">
         <f t="shared" si="75"/>
         <v>4656.259</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="26">
         <f t="shared" si="75"/>
         <v>4285.6910000000007</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="26">
         <f t="shared" si="75"/>
         <v>4675.1710000000003</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="26">
         <f t="shared" si="75"/>
         <v>4973.4840000000004</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="26">
         <f>L43+L49</f>
         <v>5039.4230000000007</v>
       </c>
-      <c r="M50" s="28">
+      <c r="M50" s="26">
         <f t="shared" si="75"/>
         <v>4799.6640000000007</v>
       </c>
-      <c r="N50" s="28">
+      <c r="N50" s="26">
         <f>N43+N49</f>
         <v>4988.12</v>
       </c>
-      <c r="O50" s="28">
+      <c r="O50" s="26">
         <f>O43+O49</f>
         <v>5346.7719999999999</v>
       </c>
-      <c r="P50" s="28">
+      <c r="P50" s="26">
         <f>P43+P49</f>
         <v>5694.5079999999998</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="26">
         <f t="shared" ref="Q50:S50" si="76">Q43+Q49</f>
         <v>4953.7730000000001</v>
       </c>
-      <c r="R50" s="28">
+      <c r="R50" s="15">
         <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="28">
+        <v>5173.4539999999997</v>
+      </c>
+      <c r="S50" s="26">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
@@ -6330,8 +6363,8 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="5"/>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
@@ -6377,10 +6410,12 @@
       <c r="P52" s="2">
         <v>1</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q52" s="2">
         <v>0.65</v>
       </c>
-      <c r="R52" s="2"/>
+      <c r="R52" s="5">
+        <v>0.65</v>
+      </c>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
@@ -6426,10 +6461,12 @@
       <c r="P53" s="2">
         <v>2429.0529999999999</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="Q53" s="2">
         <v>2430.89</v>
       </c>
-      <c r="R53" s="2"/>
+      <c r="R53" s="5">
+        <v>2432.527</v>
+      </c>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
@@ -6475,10 +6512,12 @@
       <c r="P54" s="2">
         <v>-155.15299999999999</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q54" s="2">
         <v>-223.9</v>
       </c>
-      <c r="R54" s="2"/>
+      <c r="R54" s="5">
+        <v>-200.16120000000001</v>
+      </c>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
@@ -6524,77 +6563,79 @@
       <c r="P55" s="2">
         <v>1910.4190000000001</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q55" s="2">
         <v>1521.22</v>
       </c>
-      <c r="R55" s="2"/>
+      <c r="R55" s="5">
+        <v>1587.1220000000001</v>
+      </c>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C56" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="28">
         <f t="shared" ref="D56:M56" si="77">SUM(D52:D55)</f>
         <v>3293.2839999999997</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <f t="shared" si="77"/>
         <v>3417.0349999999999</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="28">
         <f t="shared" si="77"/>
         <v>3306.3269999999998</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="28">
         <f t="shared" si="77"/>
         <v>3460.2810000000004</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="28">
         <f t="shared" si="77"/>
         <v>3676.6289999999999</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="28">
         <f t="shared" si="77"/>
         <v>3417.0349999999999</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="28">
         <f t="shared" si="77"/>
         <v>3749.7950000000001</v>
       </c>
-      <c r="K56" s="30">
+      <c r="K56" s="28">
         <f t="shared" si="77"/>
         <v>4006.2150000000001</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="28">
         <f t="shared" si="77"/>
         <v>3933.2830000000004</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="28">
         <f t="shared" si="77"/>
         <v>3678.8269999999998</v>
       </c>
-      <c r="N56" s="30">
+      <c r="N56" s="28">
         <f>SUM(N52:N55)</f>
         <v>3768.2130000000006</v>
       </c>
-      <c r="O56" s="30">
+      <c r="O56" s="28">
         <f>SUM(O52:O55)</f>
         <v>3971.835</v>
       </c>
-      <c r="P56" s="30">
+      <c r="P56" s="28">
         <f>SUM(P52:P55)</f>
         <v>4185.3190000000004</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="Q56" s="28">
         <f t="shared" ref="Q56:S56" si="78">SUM(Q52:Q55)</f>
         <v>3728.8599999999997</v>
       </c>
-      <c r="R56" s="30">
+      <c r="R56" s="14">
         <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="30">
+        <v>3820.1378000000004</v>
+      </c>
+      <c r="S56" s="28">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
@@ -6642,10 +6683,12 @@
       <c r="P57" s="2">
         <v>63.9</v>
       </c>
-      <c r="Q57" s="5">
+      <c r="Q57" s="2">
         <v>62</v>
       </c>
-      <c r="R57" s="2"/>
+      <c r="R57" s="5">
+        <v>61.6</v>
+      </c>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
@@ -6691,10 +6734,12 @@
       <c r="P58" s="2">
         <v>76.289000000000001</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="Q58" s="2">
         <v>73.72</v>
       </c>
-      <c r="R58" s="2"/>
+      <c r="R58" s="5">
+        <v>1.67</v>
+      </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
@@ -6738,10 +6783,12 @@
       <c r="P59" s="2">
         <v>2</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q59" s="2">
         <v>1.6519999999999999</v>
       </c>
-      <c r="R59" s="2"/>
+      <c r="R59" s="5">
+        <v>70.7</v>
+      </c>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
@@ -6787,73 +6834,78 @@
       <c r="P60" s="2">
         <v>129.79900000000001</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="Q60" s="2">
         <v>118.23399999999999</v>
       </c>
-      <c r="R60" s="2"/>
+      <c r="R60" s="5">
+        <v>16.899999999999999</v>
+      </c>
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="28">
         <f t="shared" ref="D61:M61" si="79">SUM(D57:D60)</f>
         <v>336.964</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <f t="shared" si="79"/>
         <v>479.57099999999997</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="28">
         <f t="shared" si="79"/>
         <v>477.78499999999997</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="28">
         <f t="shared" si="79"/>
         <v>483.197</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="28">
         <f>SUM(H57:H60)</f>
         <v>482.447</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="28">
         <f t="shared" si="79"/>
         <v>479.57099999999997</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="28">
         <f t="shared" si="79"/>
         <v>412.09899999999999</v>
       </c>
-      <c r="K61" s="30">
+      <c r="K61" s="28">
         <f>SUM(K57:K60)</f>
         <v>405.94600000000003</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="28">
         <f>SUM(L57:L60)</f>
         <v>404.01900000000001</v>
       </c>
-      <c r="M61" s="30">
+      <c r="M61" s="28">
         <f t="shared" si="79"/>
         <v>405.26499999999999</v>
       </c>
-      <c r="N61" s="30">
+      <c r="N61" s="28">
         <f>SUM(N57:N60)</f>
         <v>364.197</v>
       </c>
-      <c r="O61" s="30">
+      <c r="O61" s="28">
         <f>SUM(O57:O60)</f>
         <v>271.84900000000005</v>
       </c>
-      <c r="P61" s="30">
+      <c r="P61" s="28">
         <f>SUM(P57:P60)</f>
         <v>271.988</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q61" s="28">
         <f>SUM(Q57:Q60)</f>
         <v>255.60599999999999</v>
       </c>
-      <c r="R61" s="2"/>
+      <c r="R61" s="14">
+        <f>SUM(R57:R60)</f>
+        <v>150.87</v>
+      </c>
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
@@ -6899,10 +6951,12 @@
       <c r="P62" s="2">
         <v>17.79</v>
       </c>
-      <c r="Q62" s="5">
+      <c r="Q62" s="2">
         <v>13.695</v>
       </c>
-      <c r="R62" s="2"/>
+      <c r="R62" s="5">
+        <v>12.74</v>
+      </c>
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
@@ -6948,15 +7002,17 @@
       <c r="P63" s="2">
         <v>0</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="Q63" s="2">
         <v>0</v>
       </c>
-      <c r="R63" s="2"/>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D64" s="2">
         <v>258.53199999999998</v>
@@ -6997,10 +7053,12 @@
       <c r="P64" s="2">
         <v>1094.2570000000001</v>
       </c>
-      <c r="Q64" s="5">
+      <c r="Q64" s="2">
         <v>833.45500000000004</v>
       </c>
-      <c r="R64" s="2"/>
+      <c r="R64" s="5">
+        <v>960.6</v>
+      </c>
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="3:31" x14ac:dyDescent="0.25">
@@ -7046,10 +7104,12 @@
       <c r="P65" s="2">
         <v>58.35</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="1">
         <v>47</v>
       </c>
-      <c r="R65" s="2"/>
+      <c r="R65" s="5">
+        <v>16.600000000000001</v>
+      </c>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="3:31" x14ac:dyDescent="0.25">
@@ -7095,10 +7155,12 @@
       <c r="P66" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="Q66" s="5">
+      <c r="Q66" s="2">
         <v>16.164000000000001</v>
       </c>
-      <c r="R66" s="2"/>
+      <c r="R66" s="5">
+        <v>155.5</v>
+      </c>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="3:31" x14ac:dyDescent="0.25">
@@ -7144,77 +7206,79 @@
       <c r="P67" s="2">
         <v>51.029000000000003</v>
       </c>
-      <c r="Q67" s="5">
+      <c r="Q67" s="2">
         <v>58.959000000000003</v>
       </c>
-      <c r="R67" s="2"/>
+      <c r="R67" s="5">
+        <v>57.564</v>
+      </c>
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C68" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="28">
         <f t="shared" ref="D68:M68" si="80">SUM(D62:D67)</f>
         <v>379.85499999999996</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <f t="shared" si="80"/>
         <v>389.08499999999998</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="28">
         <f t="shared" si="80"/>
         <v>418.10899999999992</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="28">
         <f t="shared" si="80"/>
         <v>425.89299999999997</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H68" s="28">
         <f t="shared" si="80"/>
         <v>497.18299999999999</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="28">
         <f t="shared" si="80"/>
         <v>389.08499999999998</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J68" s="28">
         <f t="shared" si="80"/>
         <v>513.27700000000004</v>
       </c>
-      <c r="K68" s="30">
+      <c r="K68" s="28">
         <f t="shared" si="80"/>
         <v>561.32299999999998</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L68" s="28">
         <f t="shared" si="80"/>
         <v>702.12100000000009</v>
       </c>
-      <c r="M68" s="30">
+      <c r="M68" s="28">
         <f t="shared" si="80"/>
         <v>715.67200000000003</v>
       </c>
-      <c r="N68" s="30">
+      <c r="N68" s="28">
         <f>SUM(N62:N67)</f>
         <v>855.71</v>
       </c>
-      <c r="O68" s="30">
+      <c r="O68" s="28">
         <f>SUM(O62:O67)</f>
         <v>1103.0880000000002</v>
       </c>
-      <c r="P68" s="30">
+      <c r="P68" s="28">
         <f>SUM(P62:P67)</f>
         <v>1238.0259999999998</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="28">
         <f>SUM(Q62:Q67)</f>
         <v>969.27300000000014</v>
       </c>
-      <c r="R68" s="30">
+      <c r="R68" s="14">
         <f t="shared" ref="R68:S68" si="81">SUM(R62:R67)</f>
-        <v>0</v>
-      </c>
-      <c r="S68" s="30">
+        <v>1203.0040000000001</v>
+      </c>
+      <c r="S68" s="28">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
@@ -7223,67 +7287,67 @@
       <c r="C69" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="26">
         <f t="shared" ref="D69:M69" si="82">D56+D61+D68</f>
         <v>4010.1029999999996</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="26">
         <f t="shared" si="82"/>
         <v>4285.6909999999998</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="26">
         <f t="shared" si="82"/>
         <v>4202.2209999999995</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="26">
         <f t="shared" si="82"/>
         <v>4369.3710000000001</v>
       </c>
-      <c r="H69" s="28">
+      <c r="H69" s="26">
         <f t="shared" si="82"/>
         <v>4656.259</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="26">
         <f t="shared" si="82"/>
         <v>4285.6909999999998</v>
       </c>
-      <c r="J69" s="28">
+      <c r="J69" s="26">
         <f t="shared" si="82"/>
         <v>4675.1710000000003</v>
       </c>
-      <c r="K69" s="28">
+      <c r="K69" s="26">
         <f t="shared" si="82"/>
         <v>4973.4840000000004</v>
       </c>
-      <c r="L69" s="28">
+      <c r="L69" s="26">
         <f t="shared" si="82"/>
         <v>5039.4230000000007</v>
       </c>
-      <c r="M69" s="28">
+      <c r="M69" s="26">
         <f t="shared" si="82"/>
         <v>4799.7639999999992</v>
       </c>
-      <c r="N69" s="28">
+      <c r="N69" s="26">
         <f>N56+N61+N68</f>
         <v>4988.1200000000008</v>
       </c>
-      <c r="O69" s="28">
+      <c r="O69" s="26">
         <f>O56+O61+O68</f>
         <v>5346.7720000000008</v>
       </c>
-      <c r="P69" s="28">
+      <c r="P69" s="26">
         <f>P56+P61+P68</f>
         <v>5695.3330000000005</v>
       </c>
-      <c r="Q69" s="15">
+      <c r="Q69" s="26">
         <f t="shared" ref="Q69:S69" si="83">Q56+Q61+Q68</f>
         <v>4953.7389999999996</v>
       </c>
-      <c r="R69" s="28">
+      <c r="R69" s="15">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="28">
+        <v>5174.0118000000002</v>
+      </c>
+      <c r="S69" s="26">
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
@@ -7304,7 +7368,7 @@
     </row>
     <row r="71" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C71" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7321,7 +7385,7 @@
     </row>
     <row r="72" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ref="D72:S72" si="84">D13</f>
@@ -7375,13 +7439,13 @@
         <f t="shared" si="84"/>
         <v>303.49099999999999</v>
       </c>
-      <c r="Q72" s="5">
+      <c r="Q72" s="2">
         <f t="shared" si="84"/>
         <v>306.41399999999993</v>
       </c>
-      <c r="R72" s="2">
+      <c r="R72" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>296.69200000000001</v>
       </c>
       <c r="S72" s="2">
         <f t="shared" si="84"/>
@@ -7414,7 +7478,7 @@
     </row>
     <row r="73" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2">
         <v>207</v>
@@ -7434,7 +7498,7 @@
       <c r="I73" s="2">
         <v>282</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J73" s="25">
         <v>287.137</v>
       </c>
       <c r="K73" s="2">
@@ -7455,10 +7519,12 @@
       <c r="P73" s="2">
         <v>303.39999999999998</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="Q73" s="2">
         <v>306</v>
       </c>
-      <c r="R73" s="2"/>
+      <c r="R73" s="5">
+        <v>296.60000000000002</v>
+      </c>
       <c r="S73" s="2"/>
       <c r="Z73" s="2">
         <v>157</v>
@@ -7484,7 +7550,7 @@
     </row>
     <row r="74" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2">
         <v>22.593</v>
@@ -7525,10 +7591,12 @@
       <c r="P74" s="2">
         <v>38.5</v>
       </c>
-      <c r="Q74" s="5">
+      <c r="Q74" s="2">
         <v>38.884</v>
       </c>
-      <c r="R74" s="2"/>
+      <c r="R74" s="5">
+        <v>40.271999999999998</v>
+      </c>
       <c r="S74" s="2"/>
       <c r="Z74" s="2">
         <v>25.475999999999999</v>
@@ -7595,10 +7663,12 @@
       <c r="P75" s="2">
         <v>-3.4</v>
       </c>
-      <c r="Q75" s="5">
+      <c r="Q75" s="2">
         <v>-10</v>
       </c>
-      <c r="R75" s="2"/>
+      <c r="R75" s="5">
+        <v>-0.56699999999999995</v>
+      </c>
       <c r="S75" s="2"/>
       <c r="Z75" s="2">
         <v>1.2</v>
@@ -7626,7 +7696,7 @@
     </row>
     <row r="76" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -7667,10 +7737,12 @@
       <c r="P76" s="2">
         <v>4.7</v>
       </c>
-      <c r="Q76" s="5">
+      <c r="Q76" s="2">
         <v>3</v>
       </c>
-      <c r="R76" s="2"/>
+      <c r="R76" s="5">
+        <v>2.5</v>
+      </c>
       <c r="S76" s="2"/>
       <c r="Z76" s="2">
         <v>2.3E-2</v>
@@ -7696,7 +7768,7 @@
     </row>
     <row r="77" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -7737,10 +7809,12 @@
       <c r="P77" s="2">
         <v>0</v>
       </c>
-      <c r="Q77" s="5">
+      <c r="Q77" s="2">
         <v>-0.33400000000000002</v>
       </c>
-      <c r="R77" s="2"/>
+      <c r="R77" s="5">
+        <v>-0.108</v>
+      </c>
       <c r="S77" s="2"/>
       <c r="Z77" s="2">
         <v>-0.245</v>
@@ -7807,10 +7881,12 @@
       <c r="P78" s="2">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="Q78" s="5">
+      <c r="Q78" s="2">
         <v>-65.718999999999994</v>
       </c>
-      <c r="R78" s="2"/>
+      <c r="R78" s="5">
+        <v>-2</v>
+      </c>
       <c r="S78" s="2"/>
       <c r="Z78" s="2">
         <v>-5.2930000000000001</v>
@@ -7836,7 +7912,7 @@
     </row>
     <row r="79" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D79" s="2">
         <f>-33.464+6-5</f>
@@ -7890,11 +7966,14 @@
         <f>18+1.9+2.3</f>
         <v>22.2</v>
       </c>
-      <c r="Q79" s="5">
+      <c r="Q79" s="2">
         <f>-35.2-3.7-7.8</f>
         <v>-46.7</v>
       </c>
-      <c r="R79" s="2"/>
+      <c r="R79" s="5">
+        <f>27.1-1+9</f>
+        <v>35.1</v>
+      </c>
       <c r="S79" s="2"/>
       <c r="Z79" s="2">
         <f>-17.276+1.358+13</f>
@@ -7925,91 +8004,91 @@
       <c r="C80" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="26">
         <f t="shared" ref="D80:N80" si="89">SUM(D73:D79)</f>
         <v>194.92899999999997</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="26">
         <f t="shared" si="89"/>
         <v>187.58199999999999</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="26">
         <f t="shared" si="89"/>
         <v>237.21099999999996</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="26">
         <f t="shared" si="89"/>
         <v>260.64299999999997</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H80" s="26">
         <f>SUM(H73:H79)</f>
         <v>276.94600000000003</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="26">
         <f>SUM(I73:I79)</f>
         <v>234.23899999999998</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="26">
         <f>SUM(J73:J79)</f>
         <v>342.86600000000004</v>
       </c>
-      <c r="K80" s="28">
+      <c r="K80" s="26">
         <f>SUM(K73:K79)</f>
         <v>314.41500000000002</v>
       </c>
-      <c r="L80" s="28">
+      <c r="L80" s="26">
         <f t="shared" si="89"/>
         <v>302.15100000000007</v>
       </c>
-      <c r="M80" s="28">
+      <c r="M80" s="26">
         <f t="shared" si="89"/>
         <v>312.64400000000001</v>
       </c>
-      <c r="N80" s="28">
+      <c r="N80" s="26">
         <f t="shared" si="89"/>
         <v>356.85599999999994</v>
       </c>
-      <c r="O80" s="28">
+      <c r="O80" s="26">
         <f>SUM(O73:O79)</f>
         <v>329.50600000000009</v>
       </c>
-      <c r="P80" s="28">
+      <c r="P80" s="26">
         <f>SUM(P73:P79)</f>
         <v>361.29999999999995</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="26">
         <f t="shared" ref="Q80:S80" si="90">SUM(Q73:Q79)</f>
         <v>225.13100000000003</v>
       </c>
-      <c r="R80" s="28">
+      <c r="R80" s="15">
+        <f t="shared" si="90"/>
+        <v>371.79700000000003</v>
+      </c>
+      <c r="S80" s="26">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="S80" s="28">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="28">
+      <c r="Z80" s="26">
         <f t="shared" ref="Z80" si="91">SUM(Z73:Z79)</f>
         <v>175.24299999999997</v>
       </c>
-      <c r="AA80" s="28">
+      <c r="AA80" s="26">
         <f t="shared" ref="AA80:AB80" si="92">SUM(AA73:AA79)</f>
         <v>315.63599999999997</v>
       </c>
-      <c r="AB80" s="28">
+      <c r="AB80" s="26">
         <f t="shared" si="92"/>
         <v>598.87000000000012</v>
       </c>
-      <c r="AC80" s="28">
+      <c r="AC80" s="26">
         <f t="shared" ref="AC80:AD80" si="93">SUM(AC73:AC79)</f>
         <v>880.36500000000012</v>
       </c>
-      <c r="AD80" s="28">
+      <c r="AD80" s="26">
         <f t="shared" si="93"/>
         <v>1168.4660000000001</v>
       </c>
-      <c r="AE80" s="28">
+      <c r="AE80" s="26">
         <f>SUM(AE73:AE79)</f>
         <v>1301.1570000000002</v>
       </c>
@@ -8028,8 +8107,8 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="5"/>
       <c r="S81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
@@ -8037,7 +8116,7 @@
     </row>
     <row r="82" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D82" s="2">
         <f>-7.135-14.016-74</f>
@@ -8091,11 +8170,14 @@
         <f>-16.635-16.974</f>
         <v>-33.609000000000002</v>
       </c>
-      <c r="Q82" s="5">
+      <c r="Q82" s="2">
         <f>-18.6-14.4-11.1-0.06</f>
         <v>-44.160000000000004</v>
       </c>
-      <c r="R82" s="2"/>
+      <c r="R82" s="5">
+        <f>-15.863-13.893+0.598</f>
+        <v>-29.158000000000001</v>
+      </c>
       <c r="S82" s="2"/>
       <c r="Z82" s="2">
         <f>-11.158-18.95-11.812</f>
@@ -8127,7 +8209,7 @@
     </row>
     <row r="83" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D83" s="2">
         <v>-1</v>
@@ -8168,10 +8250,12 @@
       <c r="P83" s="2">
         <v>0.42699999999999999</v>
       </c>
-      <c r="Q83" s="5">
+      <c r="Q83" s="2">
         <v>-1</v>
       </c>
-      <c r="R83" s="2"/>
+      <c r="R83" s="5">
+        <v>-1.2</v>
+      </c>
       <c r="S83" s="2"/>
       <c r="Z83" s="2">
         <v>-1</v>
@@ -8199,91 +8283,91 @@
       <c r="C84" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D84" s="26">
         <f t="shared" ref="D84:N84" si="94">SUM(D82:D83)</f>
         <v>-96.150999999999996</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="26">
         <f t="shared" si="94"/>
         <v>-26.824999999999996</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="26">
         <f t="shared" si="94"/>
         <v>-206.95000000000002</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="26">
         <f t="shared" si="94"/>
         <v>-42.263999999999996</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="26">
         <f t="shared" si="94"/>
         <v>-22.140999999999998</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="26">
         <f t="shared" si="94"/>
         <v>-21.777999999999999</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="26">
         <f t="shared" si="94"/>
         <v>-66.693999999999988</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="26">
         <f t="shared" si="94"/>
         <v>-29.193000000000001</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="26">
         <f t="shared" si="94"/>
         <v>-42.661000000000001</v>
       </c>
-      <c r="M84" s="28">
+      <c r="M84" s="26">
         <f t="shared" si="94"/>
         <v>-35.373000000000005</v>
       </c>
-      <c r="N84" s="28">
+      <c r="N84" s="26">
         <f t="shared" si="94"/>
         <v>-132.393</v>
       </c>
-      <c r="O84" s="28">
+      <c r="O84" s="26">
         <f>SUM(O82:O83)</f>
         <v>-37.497</v>
       </c>
-      <c r="P84" s="28">
+      <c r="P84" s="26">
         <f>SUM(P82:P83)</f>
         <v>-33.182000000000002</v>
       </c>
-      <c r="Q84" s="15">
+      <c r="Q84" s="26">
         <f t="shared" ref="Q84:S84" si="95">SUM(Q82:Q83)</f>
         <v>-45.160000000000004</v>
       </c>
-      <c r="R84" s="28">
+      <c r="R84" s="15">
+        <f t="shared" si="95"/>
+        <v>-30.358000000000001</v>
+      </c>
+      <c r="S84" s="26">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="S84" s="28">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="28">
+      <c r="Z84" s="26">
         <f t="shared" ref="Z84" si="96">SUM(Z82:Z83)</f>
         <v>-42.919999999999995</v>
       </c>
-      <c r="AA84" s="28">
+      <c r="AA84" s="26">
         <f t="shared" ref="AA84" si="97">SUM(AA82:AA83)</f>
         <v>6.8139999999999974</v>
       </c>
-      <c r="AB84" s="28">
+      <c r="AB84" s="26">
         <f t="shared" ref="AB84" si="98">SUM(AB82:AB83)</f>
         <v>-154.922</v>
       </c>
-      <c r="AC84" s="28">
+      <c r="AC84" s="26">
         <f t="shared" ref="AC84:AD84" si="99">SUM(AC82:AC83)</f>
         <v>-372.19</v>
       </c>
-      <c r="AD84" s="28">
+      <c r="AD84" s="26">
         <f t="shared" si="99"/>
         <v>-139.80600000000001</v>
       </c>
-      <c r="AE84" s="28">
+      <c r="AE84" s="26">
         <f>SUM(AE82:AE83)</f>
         <v>-247.92400000000001</v>
       </c>
@@ -8302,8 +8386,8 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="5"/>
       <c r="S85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
@@ -8311,7 +8395,7 @@
     </row>
     <row r="86" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D86" s="2">
         <v>-3.48</v>
@@ -8352,10 +8436,12 @@
       <c r="P86" s="2">
         <v>-5</v>
       </c>
-      <c r="Q86" s="5">
+      <c r="Q86" s="2">
         <v>-5</v>
       </c>
-      <c r="R86" s="2"/>
+      <c r="R86" s="5">
+        <v>-5</v>
+      </c>
       <c r="S86" s="2"/>
       <c r="Z86" s="2">
         <v>-0.95</v>
@@ -8382,7 +8468,7 @@
     </row>
     <row r="87" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D87" s="2">
         <v>-75.590999999999994</v>
@@ -8423,10 +8509,12 @@
       <c r="P87" s="2">
         <v>-154</v>
       </c>
-      <c r="Q87" s="5">
+      <c r="Q87" s="2">
         <v>-65.381</v>
       </c>
-      <c r="R87" s="2"/>
+      <c r="R87" s="5">
+        <v>-187</v>
+      </c>
       <c r="S87" s="2"/>
       <c r="Z87" s="2">
         <v>-3.5</v>
@@ -8434,7 +8522,7 @@
       <c r="AA87" s="2">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="AB87" s="27">
+      <c r="AB87" s="25">
         <v>-123.315</v>
       </c>
       <c r="AC87" s="2">
@@ -8446,13 +8534,12 @@
         <v>-115.758</v>
       </c>
       <c r="AE87" s="2">
-        <f>SUM(L87:O87)</f>
-        <v>-677.98800000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D88" s="2">
         <v>-1</v>
@@ -8484,7 +8571,7 @@
       <c r="M88" s="2">
         <v>-0.126</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N88" s="25">
         <v>0.09</v>
       </c>
       <c r="O88" s="2">
@@ -8493,10 +8580,12 @@
       <c r="P88" s="2">
         <v>0</v>
       </c>
-      <c r="Q88" s="5">
+      <c r="Q88" s="2">
         <v>1.8</v>
       </c>
-      <c r="R88" s="2"/>
+      <c r="R88" s="5">
+        <v>1.6</v>
+      </c>
       <c r="S88" s="2"/>
       <c r="Z88" s="1">
         <v>0</v>
@@ -8524,7 +8613,7 @@
     </row>
     <row r="89" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
@@ -8565,10 +8654,12 @@
       <c r="P89" s="2">
         <v>0</v>
       </c>
-      <c r="Q89" s="5">
+      <c r="Q89" s="2">
         <v>0</v>
       </c>
-      <c r="R89" s="2"/>
+      <c r="R89" s="5">
+        <v>0</v>
+      </c>
       <c r="S89" s="2"/>
       <c r="Z89" s="2">
         <v>11.72</v>
@@ -8594,7 +8685,7 @@
     </row>
     <row r="90" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -8635,10 +8726,12 @@
       <c r="P90" s="2">
         <v>0</v>
       </c>
-      <c r="Q90" s="5">
+      <c r="Q90" s="2">
         <v>-572.49400000000003</v>
       </c>
-      <c r="R90" s="2"/>
+      <c r="R90" s="5">
+        <v>0</v>
+      </c>
       <c r="S90" s="2"/>
       <c r="Z90" s="2">
         <v>-43.164000000000001</v>
@@ -8666,93 +8759,93 @@
       <c r="C91" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="26">
         <f t="shared" ref="D91:M91" si="100">SUM(D86:D90)</f>
         <v>-80.070999999999998</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="26">
         <f t="shared" si="100"/>
         <v>-306.88799999999998</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="26">
         <f t="shared" si="100"/>
         <v>-5.1660000000000004</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="26">
         <f t="shared" si="100"/>
         <v>-2.2989999999999999</v>
       </c>
-      <c r="H91" s="28">
+      <c r="H91" s="26">
         <f>SUM(H86:H90)</f>
         <v>-27.887</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="26">
         <f t="shared" si="100"/>
         <v>-429.18100000000004</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="26">
         <f t="shared" si="100"/>
         <v>-5.2409999999999997</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="26">
         <f t="shared" si="100"/>
         <v>-112.071</v>
       </c>
-      <c r="L91" s="28">
+      <c r="L91" s="26">
         <f t="shared" si="100"/>
         <v>-270.76200000000006</v>
       </c>
-      <c r="M91" s="28">
+      <c r="M91" s="26">
         <f t="shared" si="100"/>
         <v>-562.79</v>
       </c>
-      <c r="N91" s="28">
+      <c r="N91" s="26">
         <f>SUM(N86:N90)</f>
         <v>-248.22</v>
       </c>
-      <c r="O91" s="28">
+      <c r="O91" s="26">
         <f>SUM(O86:O90)</f>
         <v>-156.126</v>
       </c>
-      <c r="P91" s="28">
+      <c r="P91" s="26">
         <f>SUM(P86:P90)</f>
         <v>-159</v>
       </c>
-      <c r="Q91" s="15">
+      <c r="Q91" s="26">
         <f t="shared" ref="Q91:S91" si="101">SUM(Q86:Q90)</f>
         <v>-641.07500000000005</v>
       </c>
-      <c r="R91" s="28">
+      <c r="R91" s="15">
+        <f t="shared" si="101"/>
+        <v>-190.4</v>
+      </c>
+      <c r="S91" s="26">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="S91" s="28">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="28">
+      <c r="Z91" s="26">
         <f>SUM(Z86:Z90)</f>
         <v>-35.893999999999998</v>
       </c>
-      <c r="AA91" s="28">
+      <c r="AA91" s="26">
         <f t="shared" ref="AA91" si="102">SUM(AA86:AA90)</f>
         <v>-279.089</v>
       </c>
-      <c r="AB91" s="28">
+      <c r="AB91" s="26">
         <f>SUM(AB86:AB90)</f>
         <v>-248.59700000000001</v>
       </c>
-      <c r="AC91" s="28">
+      <c r="AC91" s="26">
         <f>SUM(AC86:AC90)</f>
         <v>-394.42399999999998</v>
       </c>
-      <c r="AD91" s="28">
+      <c r="AD91" s="26">
         <f>SUM(AD86:AD90)</f>
         <v>-574.38000000000011</v>
       </c>
-      <c r="AE91" s="28">
+      <c r="AE91" s="26">
         <f>SUM(AE86:AE90)</f>
-        <v>-1237.8980000000001</v>
+        <v>-559.91</v>
       </c>
     </row>
     <row r="92" spans="3:34" x14ac:dyDescent="0.25">
@@ -8769,8 +8862,8 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="5"/>
       <c r="S92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
@@ -8778,7 +8871,7 @@
     </row>
     <row r="93" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -8819,10 +8912,12 @@
       <c r="P93" s="2">
         <v>-1.2</v>
       </c>
-      <c r="Q93" s="5">
+      <c r="Q93" s="2">
         <v>-3</v>
       </c>
-      <c r="R93" s="2"/>
+      <c r="R93" s="5">
+        <v>0</v>
+      </c>
       <c r="S93" s="2"/>
       <c r="Z93" s="2">
         <v>0</v>
@@ -8858,8 +8953,8 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="5"/>
       <c r="S94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
@@ -8867,95 +8962,95 @@
     </row>
     <row r="95" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D95" s="28">
+        <v>157</v>
+      </c>
+      <c r="D95" s="26">
         <f t="shared" ref="D95:N95" si="103">D80+D84+D91+D93</f>
         <v>18.706999999999979</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="26">
         <f t="shared" si="103"/>
         <v>-144.13099999999997</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="26">
         <f t="shared" si="103"/>
         <v>25.094999999999938</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="26">
         <f t="shared" si="103"/>
         <v>216.07999999999996</v>
       </c>
-      <c r="H95" s="28">
+      <c r="H95" s="26">
         <f>H80+H84+H91+H93</f>
         <v>226.91800000000003</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="26">
         <f t="shared" si="103"/>
         <v>-216.72000000000006</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="26">
         <f t="shared" si="103"/>
         <v>271.67900000000003</v>
       </c>
-      <c r="K95" s="28">
+      <c r="K95" s="26">
         <f t="shared" si="103"/>
         <v>172.53000000000003</v>
       </c>
-      <c r="L95" s="28">
+      <c r="L95" s="26">
         <f t="shared" si="103"/>
         <v>-11.271999999999991</v>
       </c>
-      <c r="M95" s="28">
+      <c r="M95" s="26">
         <f t="shared" si="103"/>
         <v>-285.51899999999995</v>
       </c>
-      <c r="N95" s="28">
+      <c r="N95" s="26">
         <f t="shared" si="103"/>
         <v>-24.757000000000062</v>
       </c>
-      <c r="O95" s="28">
+      <c r="O95" s="26">
         <f>O80+O84+O91+O93</f>
         <v>137.74300000000008</v>
       </c>
-      <c r="P95" s="28">
+      <c r="P95" s="26">
         <f>P80+P84+P91+P93</f>
         <v>167.91799999999995</v>
       </c>
-      <c r="Q95" s="15">
+      <c r="Q95" s="26">
         <f t="shared" ref="Q95:S95" si="104">Q80+Q84+Q91+Q93</f>
         <v>-464.10400000000004</v>
       </c>
-      <c r="R95" s="28">
+      <c r="R95" s="15">
+        <f t="shared" si="104"/>
+        <v>151.03900000000002</v>
+      </c>
+      <c r="S95" s="26">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="S95" s="28">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="28">
+      <c r="Z95" s="26">
         <f t="shared" ref="Z95:AB95" si="105">Z80+Z84+Z91+Z93</f>
         <v>96.428999999999974</v>
       </c>
-      <c r="AA95" s="28">
+      <c r="AA95" s="26">
         <f t="shared" si="105"/>
         <v>43.36099999999999</v>
       </c>
-      <c r="AB95" s="28">
+      <c r="AB95" s="26">
         <f t="shared" si="105"/>
         <v>195.35100000000008</v>
       </c>
-      <c r="AC95" s="28">
+      <c r="AC95" s="26">
         <f t="shared" ref="AC95:AD95" si="106">AC80+AC84+AC91+AC93</f>
         <v>113.75100000000015</v>
       </c>
-      <c r="AD95" s="28">
+      <c r="AD95" s="26">
         <f t="shared" si="106"/>
         <v>454.28</v>
       </c>
-      <c r="AE95" s="28">
+      <c r="AE95" s="26">
         <f>AE80+AE84+AE91+AE93</f>
-        <v>-183.80499999999995</v>
+        <v>494.18300000000022</v>
       </c>
     </row>
     <row r="96" spans="3:34" x14ac:dyDescent="0.25">
@@ -8972,8 +9067,8 @@
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="5"/>
       <c r="S96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
@@ -8981,7 +9076,7 @@
     </row>
     <row r="97" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ref="D97:O97" si="107">D80+D82</f>
@@ -9035,13 +9130,13 @@
         <f>P80+P82</f>
         <v>327.69099999999997</v>
       </c>
-      <c r="Q97" s="5">
+      <c r="Q97" s="2">
         <f t="shared" ref="Q97:S97" si="108">Q80+Q82</f>
         <v>180.97100000000003</v>
       </c>
-      <c r="R97" s="2">
+      <c r="R97" s="5">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>342.63900000000001</v>
       </c>
       <c r="S97" s="2">
         <f t="shared" si="108"/>
@@ -9255,7 +9350,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9269,127 +9364,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="72">
         <v>2022</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="75">
+      <c r="O4" s="72">
         <v>2023</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="72">
         <v>2024</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="67">
         <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="47">
         <v>152.4</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="47">
         <v>151.9</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="47">
         <v>159.19999999999999</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="47">
         <v>170</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="68">
         <f>SUM(F5:I5)</f>
         <v>633.5</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="47">
         <v>173.7</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="47">
         <v>175.2</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="47">
         <v>175.1</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="47">
         <v>185.8</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="68">
         <f>SUM(K5:N5)</f>
         <v>709.8</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="47">
         <v>191</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="47">
         <v>191.3</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="47">
         <v>194.9</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="47">
         <v>201.8</v>
       </c>
-      <c r="T5" s="71">
+      <c r="T5" s="68">
         <f>SUM(P5:S5)</f>
         <v>779</v>
       </c>
@@ -9399,100 +9491,100 @@
       <c r="V5" s="1">
         <v>180.2</v>
       </c>
-      <c r="Y5" s="71">
+      <c r="W5" s="1">
+        <v>182.2</v>
+      </c>
+      <c r="Y5" s="68">
         <f>SUM(U5:X5)</f>
-        <v>369.9</v>
+        <v>552.09999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <f t="shared" ref="F6:R6" si="0">F5/F15</f>
         <v>0.46619761394921994</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="48">
         <f t="shared" si="0"/>
         <v>0.44156976744186049</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
         <v>0.42060766182298542</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="48">
         <f t="shared" si="0"/>
         <v>0.41717791411042948</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="69">
         <f t="shared" si="0"/>
         <v>0.43482737318964931</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="48">
         <f t="shared" si="0"/>
         <v>0.40432960893854741</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="48">
         <f t="shared" si="0"/>
         <v>0.3971888460666515</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="48">
         <f t="shared" si="0"/>
         <v>0.38687582854617764</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="48">
         <f t="shared" si="0"/>
         <v>0.3909110035766884</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="69">
         <f>O5/O15</f>
         <v>0.3946402757700434</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="48">
         <f t="shared" si="0"/>
         <v>0.38085742771684938</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="48">
         <f t="shared" si="0"/>
         <v>0.37627852084972463</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="48">
         <f t="shared" si="0"/>
         <v>0.37516843118383064</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="48">
         <f>S5/S15</f>
         <v>0.37804421131509924</v>
       </c>
-      <c r="T6" s="72">
+      <c r="T6" s="69">
         <f>T5/T15</f>
         <v>0.3775688251260178</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="48">
         <f>U5/U15</f>
         <v>0.3641773852946823</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="48">
         <f>V5/V15</f>
         <v>0.34369635704749191</v>
       </c>
-      <c r="W6" s="50" t="e">
-        <f t="shared" ref="W6:X6" si="1">W5/W15</f>
+      <c r="W6" s="48">
+        <f>W5/W15</f>
+        <v>0.35922712933753947</v>
+      </c>
+      <c r="X6" s="48" t="e">
+        <f t="shared" ref="X6" si="1">X5/X15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X6" s="50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="72">
+      <c r="Y6" s="69">
         <f>Y5/Y15</f>
-        <v>0.3539035591274397</v>
+        <v>0.35564287554753926</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E7" s="4" t="s">
         <v>112</v>
       </c>
@@ -9508,7 +9600,7 @@
       <c r="I7" s="1">
         <v>136.19999999999999</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="68">
         <f>SUM(F7:I7)</f>
         <v>478.3</v>
       </c>
@@ -9524,7 +9616,7 @@
       <c r="N7" s="1">
         <v>181.7</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="68">
         <f>SUM(K7:N7)</f>
         <v>672.3</v>
       </c>
@@ -9540,7 +9632,7 @@
       <c r="S7" s="1">
         <v>202.2</v>
       </c>
-      <c r="T7" s="71">
+      <c r="T7" s="68">
         <f>SUM(P7:S7)</f>
         <v>802.7</v>
       </c>
@@ -9550,103 +9642,100 @@
       <c r="V7" s="1">
         <v>209.1</v>
       </c>
-      <c r="Y7" s="71">
+      <c r="W7" s="1">
+        <v>189.1</v>
+      </c>
+      <c r="Y7" s="68">
         <f>SUM(U7:X7)</f>
-        <v>411</v>
+        <v>600.1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="48">
         <f t="shared" ref="F8:R8" si="2">F7/F15</f>
         <v>0.31630468033037623</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="48">
         <f t="shared" si="2"/>
         <v>0.3223837209302326</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="48">
         <f t="shared" si="2"/>
         <v>0.33764861294583881</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="48">
         <f t="shared" si="2"/>
         <v>0.33423312883435585</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="69">
         <f>J7/J15</f>
         <v>0.32829981467499492</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="48">
         <f t="shared" si="2"/>
         <v>0.35847299813780259</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="48">
         <f t="shared" si="2"/>
         <v>0.37293130809340286</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="48">
         <f t="shared" si="2"/>
         <v>0.38024745912505525</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="48">
         <f t="shared" si="2"/>
         <v>0.38228487271197131</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="69">
         <f t="shared" si="2"/>
         <v>0.37379072612031583</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="48">
         <f t="shared" si="2"/>
         <v>0.39401794616151542</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="48">
         <f t="shared" si="2"/>
         <v>0.3947678992918961</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="48">
         <f t="shared" si="2"/>
         <v>0.38922040423484117</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="48">
         <f>S7/S15</f>
         <v>0.37879355563881595</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="69">
         <f>T7/T15</f>
         <v>0.38905583559519191</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="48">
         <f t="shared" ref="U8:X8" si="3">U7/U15</f>
         <v>0.387598387406412</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="48">
         <f t="shared" si="3"/>
         <v>0.39881747091359909</v>
       </c>
-      <c r="W8" s="50" t="e">
+      <c r="W8" s="48">
+        <f t="shared" si="3"/>
+        <v>0.37283123028391169</v>
+      </c>
+      <c r="X8" s="48" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="50" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="72">
+      <c r="Y8" s="69">
         <f>Y7/Y15</f>
-        <v>0.39322617680826633</v>
+        <v>0.38656274156145326</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E9" s="4" t="s">
         <v>121</v>
       </c>
@@ -9662,7 +9751,7 @@
       <c r="I9" s="1">
         <v>56.2</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="68">
         <f>SUM(F9:I9)</f>
         <v>189.3</v>
       </c>
@@ -9678,7 +9767,7 @@
       <c r="N9" s="1">
         <v>59.1</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="68">
         <f>SUM(K9:N9)</f>
         <v>226.6</v>
       </c>
@@ -9694,7 +9783,7 @@
       <c r="S9" s="1">
         <v>70.599999999999994</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="68">
         <f>SUM(P9:S9)</f>
         <v>257.70000000000005</v>
       </c>
@@ -9704,94 +9793,97 @@
       <c r="V9" s="1">
         <v>74</v>
       </c>
-      <c r="Y9" s="71">
+      <c r="W9" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="Y9" s="68">
         <f>SUM(U9:X9)</f>
-        <v>145.5</v>
+        <v>219.7</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f t="shared" ref="F10:R10" si="4">F9/F15</f>
         <v>0.1125726521872132</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="48">
         <f t="shared" si="4"/>
         <v>0.13401162790697674</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="4"/>
         <v>0.13262879788639367</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="48">
         <f t="shared" si="4"/>
         <v>0.13791411042944787</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="69">
         <f>J9/J15</f>
         <v>0.12993342027592836</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <f t="shared" si="4"/>
         <v>0.13337988826815642</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="48">
         <f t="shared" si="4"/>
         <v>0.12582180911357968</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="48">
         <f t="shared" si="4"/>
         <v>0.12085726911179852</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="48">
         <f t="shared" si="4"/>
         <v>0.12434252051335996</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="69">
         <f t="shared" si="4"/>
         <v>0.12598687868342046</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="48">
         <f t="shared" si="4"/>
         <v>0.1238285144566301</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="48">
         <f t="shared" si="4"/>
         <v>0.11841070023603462</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="48">
         <f t="shared" si="4"/>
         <v>0.12473532242540904</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="48">
         <f>S9/S15</f>
         <v>0.13225927313600597</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T10" s="69">
         <f>T9/T15</f>
         <v>0.12490306320279179</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="48">
         <f>U9/U15</f>
         <v>0.13726243040890768</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="48">
         <f t="shared" ref="V10:X10" si="5">V9/V15</f>
         <v>0.14114056837688346</v>
       </c>
-      <c r="W10" s="50" t="e">
+      <c r="W10" s="48">
+        <f t="shared" si="5"/>
+        <v>0.1462933753943218</v>
+      </c>
+      <c r="X10" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="50" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="72">
+      <c r="Y10" s="69">
         <f>Y9/Y15</f>
-        <v>0.13920780711825487</v>
+        <v>0.14152280340118525</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -9810,7 +9902,7 @@
       <c r="I11" s="1">
         <v>26.9</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="68">
         <f>SUM(F11:I11)</f>
         <v>88.299999999999983</v>
       </c>
@@ -9826,7 +9918,7 @@
       <c r="N11" s="1">
         <v>32.1</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="68">
         <f>SUM(K11:N11)</f>
         <v>127.79999999999998</v>
       </c>
@@ -9842,7 +9934,7 @@
       <c r="S11" s="1">
         <v>38.5</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="68">
         <f>SUM(P11:S11)</f>
         <v>145.5</v>
       </c>
@@ -9852,94 +9944,97 @@
       <c r="V11" s="1">
         <v>37.6</v>
       </c>
-      <c r="Y11" s="71">
+      <c r="W11" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Y11" s="68">
         <f>SUM(U11:X11)</f>
-        <v>73.800000000000011</v>
+        <v>113.60000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="48">
         <f t="shared" ref="F12:R12" si="6">F11/F15</f>
         <v>5.2615478739675738E-2</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="48">
         <f t="shared" si="6"/>
         <v>5.63953488372093E-2</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="48">
         <f t="shared" si="6"/>
         <v>6.5521796565389701E-2</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="48">
         <f t="shared" si="6"/>
         <v>6.6012269938650309E-2</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="69">
         <f t="shared" si="6"/>
         <v>6.0608140572448344E-2</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="48">
         <f t="shared" si="6"/>
         <v>6.9832402234636867E-2</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="48">
         <f t="shared" si="6"/>
         <v>7.0958966220811603E-2</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="48">
         <f t="shared" si="6"/>
         <v>7.6005302695536903E-2</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="48">
         <f t="shared" si="6"/>
         <v>6.7536292867662523E-2</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="69">
         <f t="shared" si="6"/>
         <v>7.1055265206271548E-2</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="48">
         <f t="shared" si="6"/>
         <v>6.580259222333E-2</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="48">
         <f t="shared" si="6"/>
         <v>7.1990558615263572E-2</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="48">
         <f t="shared" si="6"/>
         <v>7.1992300288739167E-2</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12" s="48">
         <f>S11/S15</f>
         <v>7.2124391157736972E-2</v>
       </c>
-      <c r="T12" s="72">
+      <c r="T12" s="69">
         <f>T11/T15</f>
         <v>7.052151996898022E-2</v>
       </c>
-      <c r="U12" s="50">
+      <c r="U12" s="48">
         <f>U11/U15</f>
         <v>6.9495104626607809E-2</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="48">
         <f t="shared" ref="V12:X12" si="7">V11/V15</f>
         <v>7.1714667175281341E-2</v>
       </c>
-      <c r="W12" s="50" t="e">
+      <c r="W12" s="48">
+        <f t="shared" si="7"/>
+        <v>7.8470031545741337E-2</v>
+      </c>
+      <c r="X12" s="48" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="50" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="69">
         <f>Y11/Y15</f>
-        <v>7.0608495981630312E-2</v>
+        <v>7.3177016232929673E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -9958,7 +10053,7 @@
       <c r="I13" s="1">
         <v>18.2</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="68">
         <f>SUM(F13:I13)</f>
         <v>67.5</v>
       </c>
@@ -9974,7 +10069,7 @@
       <c r="N13" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="O13" s="71">
+      <c r="O13" s="68">
         <f>SUM(K13:N13)</f>
         <v>62.1</v>
       </c>
@@ -9990,7 +10085,7 @@
       <c r="S13" s="1">
         <v>20.7</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="68">
         <f>SUM(P13:S13)</f>
         <v>78.300000000000011</v>
       </c>
@@ -10000,102 +10095,105 @@
       <c r="V13" s="1">
         <v>23.4</v>
       </c>
-      <c r="Y13" s="71">
+      <c r="W13" s="1">
+        <v>21.9</v>
+      </c>
+      <c r="Y13" s="68">
         <f>SUM(U13:X13)</f>
-        <v>45</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="52" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="43">
         <f t="shared" ref="F14:R14" si="8">F13/F15</f>
         <v>5.2309574793514835E-2</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="43">
         <f t="shared" si="8"/>
         <v>4.5639534883720925E-2</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="43">
         <f t="shared" si="8"/>
         <v>4.3593130779392336E-2</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="43">
         <f t="shared" si="8"/>
         <v>4.4662576687116567E-2</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="70">
         <f>J13/J15</f>
         <v>4.6331251286979208E-2</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="43">
         <f t="shared" si="8"/>
         <v>3.398510242085661E-2</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="43">
         <f t="shared" si="8"/>
         <v>3.3099070505554294E-2</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="43">
         <f t="shared" si="8"/>
         <v>3.6014140521431731E-2</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="43">
         <f t="shared" si="8"/>
         <v>3.4925310330317691E-2</v>
       </c>
-      <c r="O14" s="73">
+      <c r="O14" s="70">
         <f>O13/O15</f>
         <v>3.4526854219948853E-2</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="43">
         <f t="shared" si="8"/>
         <v>3.5493519441674976E-2</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="43">
         <f t="shared" si="8"/>
         <v>3.8552321007081038E-2</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="43">
         <f t="shared" si="8"/>
         <v>3.8883541867179981E-2</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="43">
         <f>S13/S15</f>
         <v>3.8778568752341695E-2</v>
       </c>
-      <c r="T14" s="73">
+      <c r="T14" s="70">
         <f>T13/T15</f>
         <v>3.7950756107018223E-2</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U14" s="43">
         <f>U13/U15</f>
         <v>4.1466692263390288E-2</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="43">
         <f t="shared" ref="V14:X14" si="9">V13/V15</f>
         <v>4.4630936486744231E-2</v>
       </c>
-      <c r="W14" s="45" t="e">
+      <c r="W14" s="43">
+        <f t="shared" si="9"/>
+        <v>4.3178233438485807E-2</v>
+      </c>
+      <c r="X14" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="45" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="73">
+      <c r="Y14" s="70">
         <f>Y13/Y15</f>
-        <v>4.3053960964408722E-2</v>
+        <v>4.3094563256892558E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="38" t="s">
         <v>116</v>
       </c>
       <c r="F15" s="6">
@@ -10114,7 +10212,7 @@
         <f>I5+I7+I9+I11+I13</f>
         <v>407.49999999999994</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="71">
         <f>J5+J7+J9+J11+J13</f>
         <v>1456.8999999999999</v>
       </c>
@@ -10134,7 +10232,7 @@
         <f t="shared" si="10"/>
         <v>475.30000000000007</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="71">
         <f t="shared" si="10"/>
         <v>1798.5999999999997</v>
       </c>
@@ -10154,7 +10252,7 @@
         <f>S5+S7+S9+S11+S13</f>
         <v>533.80000000000007</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="71">
         <f t="shared" ref="T15:Y15" si="11">T5+T7+T9+T11+T13</f>
         <v>2063.2000000000003</v>
       </c>
@@ -10168,15 +10266,15 @@
       </c>
       <c r="W15" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>507.19999999999993</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="74">
+      <c r="Y15" s="71">
         <f t="shared" si="11"/>
-        <v>1045.2</v>
+        <v>1552.3999999999999</v>
       </c>
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.25">
@@ -10228,415 +10326,415 @@
       <c r="X17" s="10"/>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="J20" s="61"/>
-      <c r="O20" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="T20" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y20" s="63" t="s">
-        <v>168</v>
+      <c r="J20" s="59"/>
+      <c r="O20" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="T20" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y20" s="61" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29">
         <f t="shared" ref="G21:R21" si="12">(G5-F5)/F5</f>
         <v>-3.2808398950131233E-3</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <f t="shared" si="12"/>
         <v>4.8057932850559468E-2</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="29">
         <f t="shared" si="12"/>
         <v>6.7839195979899569E-2</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31">
+      <c r="J21" s="29"/>
+      <c r="K21" s="29">
         <f>(K5-I5)/I5</f>
         <v>2.1764705882352874E-2</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <f t="shared" si="12"/>
         <v>8.6355785837651123E-3</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="29">
         <f t="shared" si="12"/>
         <v>-5.7077625570773011E-4</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="29">
         <f t="shared" si="12"/>
         <v>6.1107938320959551E-2</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="62">
         <f>(O5-J5)/J5</f>
         <v>0.12044198895027618</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="29">
         <f>(P5-N5)/N5</f>
         <v>2.7987082884822326E-2</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="29">
         <f t="shared" si="12"/>
         <v>1.5706806282723108E-3</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="29">
         <f t="shared" si="12"/>
         <v>1.8818609513852558E-2</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="29">
         <f>(S5-R5)/R5</f>
         <v>3.540277065161624E-2</v>
       </c>
-      <c r="T21" s="64">
+      <c r="T21" s="62">
         <f>(T5-O5)/O5</f>
         <v>9.749225133840525E-2</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="29">
         <f>(U5-S5)/S5</f>
         <v>-5.9960356788900007E-2</v>
       </c>
-      <c r="V21" s="31">
+      <c r="V21" s="29">
         <f t="shared" ref="V21" si="13">(V5-U5)/U5</f>
         <v>-5.0079072219293627E-2</v>
       </c>
-      <c r="W21" s="31">
+      <c r="W21" s="29">
         <f>(W5-V5)/V5</f>
+        <v>1.1098779134295229E-2</v>
+      </c>
+      <c r="X21" s="29">
+        <f>(X5-W5)/W5</f>
         <v>-1</v>
       </c>
-      <c r="X21" s="31" t="e">
-        <f>(X5-W5)/W5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" s="64">
+      <c r="Y21" s="62">
         <f>(Y5-T5)/T5</f>
-        <v>-0.52516046213093714</v>
+        <v>-0.29127086007702196</v>
       </c>
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56">
+      <c r="F22" s="54"/>
+      <c r="G22" s="54">
         <f t="shared" ref="G22:R22" si="14">(G7-F7)/F7</f>
         <v>7.2533849129593805E-2</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="54">
         <f t="shared" si="14"/>
         <v>0.15238954012623976</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="54">
         <f t="shared" si="14"/>
         <v>6.5727699530516367E-2</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="56">
+      <c r="J22" s="29"/>
+      <c r="K22" s="54">
         <f>(K7-I7)/I7</f>
         <v>0.13069016152716603</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="54">
         <f t="shared" si="14"/>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="54">
         <f t="shared" si="14"/>
         <v>4.620060790273553E-2</v>
       </c>
-      <c r="N22" s="56">
+      <c r="N22" s="54">
         <f t="shared" si="14"/>
         <v>5.5781522370714667E-2</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="62">
         <f>(O7-J7)/J7</f>
         <v>0.40560317792180628</v>
       </c>
-      <c r="P22" s="56">
+      <c r="P22" s="54">
         <f>(P7-N7)/N7</f>
         <v>8.7506879471656612E-2</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="54">
         <f t="shared" si="14"/>
         <v>1.5688259109311712E-2</v>
       </c>
-      <c r="R22" s="56">
+      <c r="R22" s="54">
         <f t="shared" si="14"/>
         <v>7.4738415545590438E-3</v>
       </c>
-      <c r="S22" s="56">
+      <c r="S22" s="54">
         <f>(S7-R7)/R7</f>
         <v>0</v>
       </c>
-      <c r="T22" s="64">
+      <c r="T22" s="62">
         <f>(T7-O7)/O7</f>
         <v>0.19396102930239492</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="29">
         <f>(U7-S7)/S7</f>
         <v>-1.4836795252224676E-3</v>
       </c>
-      <c r="V22" s="56">
+      <c r="V22" s="54">
         <f t="shared" ref="V22:W22" si="15">(V7-U7)/U7</f>
         <v>3.5661218424962796E-2</v>
       </c>
-      <c r="W22" s="56">
+      <c r="W22" s="54">
         <f t="shared" si="15"/>
+        <v>-9.5648015303682457E-2</v>
+      </c>
+      <c r="X22" s="54">
+        <f>(X7-W7)/W7</f>
         <v>-1</v>
       </c>
-      <c r="X22" s="56" t="e">
-        <f>(X7-W7)/W7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="64">
+      <c r="Y22" s="62">
         <f>(Y7-T7)/T7</f>
-        <v>-0.48797807400024917</v>
+        <v>-0.25239815622274825</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54">
         <f>(G9-F9)/F9</f>
         <v>0.25271739130434795</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="54">
         <f t="shared" ref="H23:R23" si="16">(H9-G9)/G9</f>
         <v>8.8937093275488099E-2</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="54">
         <f t="shared" si="16"/>
         <v>0.1195219123505976</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54">
         <f>(K9-I9)/I9</f>
         <v>1.9572953736654703E-2</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="54">
         <f t="shared" si="16"/>
         <v>-3.1413612565444976E-2</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="54">
         <f t="shared" si="16"/>
         <v>-1.4414414414414363E-2</v>
       </c>
-      <c r="N23" s="56">
+      <c r="N23" s="54">
         <f t="shared" si="16"/>
         <v>8.0438756855575833E-2</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="63">
         <f>(O9-J9)/J9</f>
         <v>0.1970417326994188</v>
       </c>
-      <c r="P23" s="56">
+      <c r="P23" s="54">
         <f>(P9-N9)/N9</f>
         <v>5.0761421319796954E-2</v>
       </c>
-      <c r="Q23" s="56">
+      <c r="Q23" s="54">
         <f t="shared" si="16"/>
         <v>-3.0595813204508833E-2</v>
       </c>
-      <c r="R23" s="56">
+      <c r="R23" s="54">
         <f t="shared" si="16"/>
         <v>7.6411960132890269E-2</v>
       </c>
-      <c r="S23" s="56">
+      <c r="S23" s="54">
         <f>(S9-R9)/R9</f>
         <v>8.9506172839506126E-2</v>
       </c>
-      <c r="T23" s="65">
+      <c r="T23" s="63">
         <f>(T9-O9)/O9</f>
         <v>0.13724624889673456</v>
       </c>
-      <c r="U23" s="31">
+      <c r="U23" s="29">
         <f>(U9-S9)/S9</f>
         <v>1.274787535410773E-2</v>
       </c>
-      <c r="V23" s="56">
+      <c r="V23" s="54">
         <f t="shared" ref="V23:X23" si="17">(V9-U9)/U9</f>
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="W23" s="56">
+      <c r="W23" s="54">
+        <f t="shared" si="17"/>
+        <v>2.702702702702741E-3</v>
+      </c>
+      <c r="X23" s="54">
         <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="X23" s="56" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="65">
+      <c r="Y23" s="63">
         <f>(Y9-T9)/T9</f>
-        <v>-0.43538998835855658</v>
+        <v>-0.14745828482731879</v>
       </c>
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56">
+      <c r="F24" s="54"/>
+      <c r="G24" s="54">
         <f t="shared" ref="G24:R24" si="18">(G11-F11)/F11</f>
         <v>0.12790697674418602</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="54">
         <f>(H11-G11)/G11</f>
         <v>0.27835051546391765</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="54">
         <f t="shared" si="18"/>
         <v>8.4677419354838621E-2</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54">
         <f>(K11-I11)/I11</f>
         <v>0.11524163568773241</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="54">
         <f t="shared" si="18"/>
         <v>4.3333333333333356E-2</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="54">
         <f t="shared" si="18"/>
         <v>9.9041533546325805E-2</v>
       </c>
-      <c r="N24" s="56">
+      <c r="N24" s="54">
         <f t="shared" si="18"/>
         <v>-6.6860465116278994E-2</v>
       </c>
-      <c r="O24" s="65">
+      <c r="O24" s="63">
         <f>(O11-J11)/J11</f>
         <v>0.44733861834654598</v>
       </c>
-      <c r="P24" s="56">
+      <c r="P24" s="54">
         <f>(P11-N11)/N11</f>
         <v>2.8037383177570048E-2</v>
       </c>
-      <c r="Q24" s="56">
+      <c r="Q24" s="54">
         <f t="shared" si="18"/>
         <v>0.10909090909090913</v>
       </c>
-      <c r="R24" s="56">
+      <c r="R24" s="54">
         <f t="shared" si="18"/>
         <v>2.185792349726768E-2</v>
       </c>
-      <c r="S24" s="56">
+      <c r="S24" s="54">
         <f>(S11-R11)/R11</f>
         <v>2.9411764705882391E-2</v>
       </c>
-      <c r="T24" s="65">
+      <c r="T24" s="63">
         <f>(T11-O11)/O11</f>
         <v>0.13849765258215976</v>
       </c>
-      <c r="U24" s="31">
+      <c r="U24" s="29">
         <f>(U11-S11)/S11</f>
         <v>-5.9740259740259663E-2</v>
       </c>
-      <c r="V24" s="56">
+      <c r="V24" s="54">
         <f t="shared" ref="V24:X24" si="19">(V11-U11)/U11</f>
         <v>3.8674033149171227E-2</v>
       </c>
-      <c r="W24" s="56">
+      <c r="W24" s="54">
+        <f t="shared" si="19"/>
+        <v>5.8510638297872224E-2</v>
+      </c>
+      <c r="X24" s="54">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
-      <c r="X24" s="56" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="65">
+      <c r="Y24" s="63">
         <f>(Y11-T11)/T11</f>
-        <v>-0.49278350515463909</v>
+        <v>-0.21924398625429548</v>
       </c>
     </row>
     <row r="25" spans="4:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47">
+      <c r="F25" s="44"/>
+      <c r="G25" s="45">
         <f t="shared" ref="G25:R25" si="20">(G13-F13)/F13</f>
         <v>-8.1871345029239886E-2</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="45">
         <f t="shared" si="20"/>
         <v>5.0955414012738898E-2</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="45">
         <f t="shared" si="20"/>
         <v>0.10303030303030299</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45">
         <f>(K13-I13)/I13</f>
         <v>-0.19780219780219779</v>
       </c>
-      <c r="L25" s="47">
+      <c r="L25" s="45">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="45">
         <f t="shared" si="20"/>
         <v>0.11643835616438364</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="45">
         <f t="shared" si="20"/>
         <v>1.8404907975460166E-2</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O25" s="64">
         <f>(O13-J13)/J13</f>
         <v>-7.9999999999999974E-2</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="45">
         <f>(P13-N13)/N13</f>
         <v>7.2289156626505979E-2</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="45">
         <f t="shared" si="20"/>
         <v>0.10112359550561802</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="45">
         <f t="shared" si="20"/>
         <v>3.0612244897959072E-2</v>
       </c>
-      <c r="S25" s="47">
+      <c r="S25" s="45">
         <f>(S13-R13)/R13</f>
         <v>2.4752475247524754E-2</v>
       </c>
-      <c r="T25" s="66">
+      <c r="T25" s="64">
         <f>(T13-O13)/O13</f>
         <v>0.26086956521739146</v>
       </c>
-      <c r="U25" s="60">
+      <c r="U25" s="58">
         <f>(U13-S13)/S13</f>
         <v>4.347826086956532E-2</v>
       </c>
-      <c r="V25" s="47">
+      <c r="V25" s="45">
         <f t="shared" ref="V25:X25" si="21">(V13-U13)/U13</f>
         <v>8.333333333333319E-2</v>
       </c>
-      <c r="W25" s="47">
+      <c r="W25" s="45">
+        <f t="shared" si="21"/>
+        <v>-6.4102564102564111E-2</v>
+      </c>
+      <c r="X25" s="45">
         <f t="shared" si="21"/>
         <v>-1</v>
       </c>
-      <c r="X25" s="47" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="66">
+      <c r="Y25" s="64">
         <f>(Y13-T13)/T13</f>
-        <v>-0.42528735632183917</v>
+        <v>-0.14559386973180083</v>
       </c>
     </row>
   </sheetData>
@@ -10659,66 +10757,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C3" s="58"/>
-      <c r="D3" s="58">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56">
         <v>2025</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="56">
         <v>2026</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>2027</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="57">
         <f>Modell!$B$9/(Modell!AF10*Modell!$B$11)</f>
-        <v>10.148443918660618</v>
-      </c>
-      <c r="E4" s="59">
+        <v>7.2793362715273915</v>
+      </c>
+      <c r="E4" s="57">
         <f>Modell!$B$9/(Modell!AG10*Modell!$B$11)</f>
-        <v>9.1705132788286043</v>
-      </c>
-      <c r="F4" s="59">
+        <v>6.5778803601952545</v>
+      </c>
+      <c r="F4" s="57">
         <f>Modell!$B$9/(Modell!AH10*Modell!$B$11)</f>
-        <v>8.3119358375335928</v>
+        <v>5.9620348216647709</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="57">
         <f>Modell!$B$9/(Modell!AF13*Modell!$B$11)</f>
-        <v>11.306867581401619</v>
-      </c>
-      <c r="E5" s="59">
+        <v>8.1102572928753727</v>
+      </c>
+      <c r="E5" s="57">
         <f>Modell!$B$9/(Modell!AG13*Modell!$B$11)</f>
-        <v>10.252589135387577</v>
-      </c>
-      <c r="F5" s="59">
+        <v>7.3540381725974315</v>
+      </c>
+      <c r="F5" s="57">
         <f>Modell!$B$9/(Modell!AH13*Modell!$B$11)</f>
-        <v>9.2894306806303355</v>
+        <v>6.6631781421201683</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="57">
         <f>Modell!$B$4/Modell!AF18</f>
-        <v>13.835009001757404</v>
-      </c>
-      <c r="E6" s="59">
+        <v>10.043425963332918</v>
+      </c>
+      <c r="E6" s="57">
         <f>Modell!$B$4/Modell!AG18</f>
-        <v>12.545000811075564</v>
-      </c>
-      <c r="F6" s="59">
+        <v>9.1069537316516556</v>
+      </c>
+      <c r="F6" s="57">
         <f>Modell!$B$4/Modell!AH18</f>
-        <v>11.366486443966176</v>
+        <v>8.2514196448083599</v>
       </c>
     </row>
   </sheetData>
@@ -10731,10 +10829,10 @@
   <dimension ref="A3:XEL55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA33" sqref="AA33"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10752,28 +10850,28 @@
   <sheetData>
     <row r="3" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>72</v>
@@ -27162,7 +27260,7 @@
     </row>
     <row r="4" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -27243,7 +27341,7 @@
       </c>
     </row>
     <row r="5" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="74">
         <f>AA25</f>
         <v>610.26555271787743</v>
       </c>
@@ -27326,12 +27424,12 @@
       </c>
     </row>
     <row r="6" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <f>AA26</f>
-        <v>-0.30255365403671153</v>
+        <v>-3.925448249704442E-2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -27401,43 +27499,43 @@
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <f t="shared" ref="D7:L7" si="2">SUM(D4:D6)</f>
         <v>76.423999999999992</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <f t="shared" si="2"/>
         <v>115.526</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <f t="shared" si="2"/>
         <v>178.45</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" si="2"/>
         <v>245.483</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <f t="shared" si="2"/>
         <v>365.75200000000001</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f t="shared" si="2"/>
         <v>560.81899999999996</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <f>SUM(J4:J6)</f>
         <v>1068.777</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <f t="shared" si="2"/>
         <v>1456</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <f t="shared" si="2"/>
         <v>1798</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <f>SUM(M4:M6)</f>
         <v>2214</v>
       </c>
@@ -27445,43 +27543,43 @@
         <f>SUM(N4:N5)</f>
         <v>2287.0600000000004</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <f>SUM(O4:O5)</f>
         <v>2287.0600000000004</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <f t="shared" ref="P7:X7" si="3">SUM(P4:P5)</f>
         <v>2287.0600000000004</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="U7" s="28">
+      <c r="U7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="26">
         <f t="shared" si="3"/>
         <v>2287.0600000000004</v>
       </c>
@@ -27647,43 +27745,43 @@
       <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <f t="shared" ref="D10:K10" si="6">SUM(D7:D9)</f>
         <v>27.087999999999994</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <f t="shared" si="6"/>
         <v>44.707999999999991</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <f t="shared" si="6"/>
         <v>80.700999999999993</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f t="shared" si="6"/>
         <v>107.746</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <f t="shared" si="6"/>
         <v>182.94800000000004</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f t="shared" si="6"/>
         <v>331.89799999999997</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f t="shared" si="6"/>
         <v>734.65000000000009</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <f t="shared" si="6"/>
         <v>1007</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <f>SUM(L7:L9)</f>
         <v>1267</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="26">
         <f>SUM(M7:M9)</f>
         <v>1561</v>
       </c>
@@ -27691,43 +27789,43 @@
         <f>SUM(N7:N9)</f>
         <v>1524.6000000000004</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="26">
         <f t="shared" ref="O10:W10" si="7">SUM(O7:O9)</f>
         <v>1524.6000000000004</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="26">
         <f t="shared" si="7"/>
         <v>1524.6000000000004</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="26">
         <f>SUM(X7:X8)</f>
         <v>1774.6000000000004</v>
       </c>
@@ -27901,43 +27999,43 @@
       <c r="C13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <f>D7+D12</f>
         <v>21.187999999999995</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <f>E7+E12</f>
         <v>35.007999999999981</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <f>F7+F12</f>
         <v>66.946999999999989</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <f>G7+G12</f>
         <v>89.548999999999978</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <f t="shared" ref="H13:X13" si="12">H7+H12</f>
         <v>157.47200000000001</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <f t="shared" si="12"/>
         <v>299.38499999999999</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <f t="shared" si="12"/>
         <v>654.00400000000002</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <f t="shared" si="12"/>
         <v>907</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="26">
         <f t="shared" si="12"/>
         <v>1142</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="26">
         <f t="shared" si="12"/>
         <v>1419</v>
       </c>
@@ -27945,43 +28043,43 @@
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="26">
         <f t="shared" si="12"/>
         <v>1368.4000000000005</v>
       </c>
@@ -28230,43 +28328,43 @@
       <c r="C17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <f t="shared" ref="D17:X17" si="15">SUM(D15:D16)</f>
         <v>19.943999999999996</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <f t="shared" si="15"/>
         <v>31.863999999999983</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="26">
         <f t="shared" si="15"/>
         <v>62.222999999999985</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <f t="shared" si="15"/>
         <v>83.548999999999978</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="26">
         <f t="shared" si="15"/>
         <v>149.72600000000003</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <f t="shared" si="15"/>
         <v>284.43200000000002</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="26">
         <f t="shared" si="15"/>
         <v>605.49099999999999</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <f t="shared" si="15"/>
         <v>843</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="26">
         <f t="shared" si="15"/>
         <v>1070</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <f t="shared" si="15"/>
         <v>1243</v>
       </c>
@@ -28274,391 +28372,391 @@
         <f>SUM(N15:N16)</f>
         <v>1163.1400000000006</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="26">
         <f t="shared" si="15"/>
         <v>1163.1400000000006</v>
       </c>
-      <c r="Y17" s="28">
+      <c r="Y17" s="26">
         <f>X17*(1+$AA$22)</f>
         <v>1151.5086000000006</v>
       </c>
-      <c r="Z17" s="28">
+      <c r="Z17" s="26">
         <f>Y17*(1+$AA$22)</f>
         <v>1139.9935140000005</v>
       </c>
-      <c r="AA17" s="28">
+      <c r="AA17" s="26">
         <f t="shared" ref="AA17:CL17" si="16">Z17*(1+$AA$22)</f>
         <v>1128.5935788600004</v>
       </c>
-      <c r="AB17" s="28">
+      <c r="AB17" s="26">
         <f t="shared" si="16"/>
         <v>1117.3076430714004</v>
       </c>
-      <c r="AC17" s="28">
+      <c r="AC17" s="26">
         <f t="shared" si="16"/>
         <v>1106.1345666406864</v>
       </c>
-      <c r="AD17" s="28">
+      <c r="AD17" s="26">
         <f t="shared" si="16"/>
         <v>1095.0732209742796</v>
       </c>
-      <c r="AE17" s="28">
+      <c r="AE17" s="26">
         <f t="shared" si="16"/>
         <v>1084.1224887645367</v>
       </c>
-      <c r="AF17" s="28">
+      <c r="AF17" s="26">
         <f t="shared" si="16"/>
         <v>1073.2812638768912</v>
       </c>
-      <c r="AG17" s="28">
+      <c r="AG17" s="26">
         <f t="shared" si="16"/>
         <v>1062.5484512381222</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AH17" s="26">
         <f t="shared" si="16"/>
         <v>1051.9229667257409</v>
       </c>
-      <c r="AI17" s="28">
+      <c r="AI17" s="26">
         <f t="shared" si="16"/>
         <v>1041.4037370584836</v>
       </c>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="26">
         <f t="shared" si="16"/>
         <v>1030.9896996878988</v>
       </c>
-      <c r="AK17" s="28">
+      <c r="AK17" s="26">
         <f t="shared" si="16"/>
         <v>1020.6798026910197</v>
       </c>
-      <c r="AL17" s="28">
+      <c r="AL17" s="26">
         <f t="shared" si="16"/>
         <v>1010.4730046641096</v>
       </c>
-      <c r="AM17" s="28">
+      <c r="AM17" s="26">
         <f t="shared" si="16"/>
         <v>1000.3682746174685</v>
       </c>
-      <c r="AN17" s="28">
+      <c r="AN17" s="26">
         <f t="shared" si="16"/>
         <v>990.36459187129378</v>
       </c>
-      <c r="AO17" s="28">
+      <c r="AO17" s="26">
         <f t="shared" si="16"/>
         <v>980.4609459525808</v>
       </c>
-      <c r="AP17" s="28">
+      <c r="AP17" s="26">
         <f t="shared" si="16"/>
         <v>970.65633649305494</v>
       </c>
-      <c r="AQ17" s="28">
+      <c r="AQ17" s="26">
         <f t="shared" si="16"/>
         <v>960.94977312812443</v>
       </c>
-      <c r="AR17" s="28">
+      <c r="AR17" s="26">
         <f t="shared" si="16"/>
         <v>951.34027539684314</v>
       </c>
-      <c r="AS17" s="28">
+      <c r="AS17" s="26">
         <f t="shared" si="16"/>
         <v>941.82687264287472</v>
       </c>
-      <c r="AT17" s="28">
+      <c r="AT17" s="26">
         <f t="shared" si="16"/>
         <v>932.40860391644594</v>
       </c>
-      <c r="AU17" s="28">
+      <c r="AU17" s="26">
         <f t="shared" si="16"/>
         <v>923.08451787728143</v>
       </c>
-      <c r="AV17" s="28">
+      <c r="AV17" s="26">
         <f t="shared" si="16"/>
         <v>913.8536726985086</v>
       </c>
-      <c r="AW17" s="28">
+      <c r="AW17" s="26">
         <f t="shared" si="16"/>
         <v>904.71513597152352</v>
       </c>
-      <c r="AX17" s="28">
+      <c r="AX17" s="26">
         <f t="shared" si="16"/>
         <v>895.66798461180827</v>
       </c>
-      <c r="AY17" s="28">
+      <c r="AY17" s="26">
         <f t="shared" si="16"/>
         <v>886.71130476569022</v>
       </c>
-      <c r="AZ17" s="28">
+      <c r="AZ17" s="26">
         <f t="shared" si="16"/>
         <v>877.84419171803336</v>
       </c>
-      <c r="BA17" s="28">
+      <c r="BA17" s="26">
         <f t="shared" si="16"/>
         <v>869.06574980085304</v>
       </c>
-      <c r="BB17" s="28">
+      <c r="BB17" s="26">
         <f t="shared" si="16"/>
         <v>860.37509230284445</v>
       </c>
-      <c r="BC17" s="28">
+      <c r="BC17" s="26">
         <f t="shared" si="16"/>
         <v>851.77134137981602</v>
       </c>
-      <c r="BD17" s="28">
+      <c r="BD17" s="26">
         <f t="shared" si="16"/>
         <v>843.2536279660178</v>
       </c>
-      <c r="BE17" s="28">
+      <c r="BE17" s="26">
         <f t="shared" si="16"/>
         <v>834.82109168635759</v>
       </c>
-      <c r="BF17" s="28">
+      <c r="BF17" s="26">
         <f t="shared" si="16"/>
         <v>826.47288076949405</v>
       </c>
-      <c r="BG17" s="28">
+      <c r="BG17" s="26">
         <f t="shared" si="16"/>
         <v>818.2081519617991</v>
       </c>
-      <c r="BH17" s="28">
+      <c r="BH17" s="26">
         <f t="shared" si="16"/>
         <v>810.02607044218109</v>
       </c>
-      <c r="BI17" s="28">
+      <c r="BI17" s="26">
         <f t="shared" si="16"/>
         <v>801.92580973775932</v>
       </c>
-      <c r="BJ17" s="28">
+      <c r="BJ17" s="26">
         <f t="shared" si="16"/>
         <v>793.90655164038174</v>
       </c>
-      <c r="BK17" s="28">
+      <c r="BK17" s="26">
         <f t="shared" si="16"/>
         <v>785.96748612397789</v>
       </c>
-      <c r="BL17" s="28">
+      <c r="BL17" s="26">
         <f t="shared" si="16"/>
         <v>778.1078112627381</v>
       </c>
-      <c r="BM17" s="28">
+      <c r="BM17" s="26">
         <f t="shared" si="16"/>
         <v>770.32673315011073</v>
       </c>
-      <c r="BN17" s="28">
+      <c r="BN17" s="26">
         <f t="shared" si="16"/>
         <v>762.62346581860959</v>
       </c>
-      <c r="BO17" s="28">
+      <c r="BO17" s="26">
         <f t="shared" si="16"/>
         <v>754.99723116042344</v>
       </c>
-      <c r="BP17" s="28">
+      <c r="BP17" s="26">
         <f t="shared" si="16"/>
         <v>747.44725884881916</v>
       </c>
-      <c r="BQ17" s="28">
+      <c r="BQ17" s="26">
         <f t="shared" si="16"/>
         <v>739.97278626033096</v>
       </c>
-      <c r="BR17" s="28">
+      <c r="BR17" s="26">
         <f t="shared" si="16"/>
         <v>732.57305839772766</v>
       </c>
-      <c r="BS17" s="28">
+      <c r="BS17" s="26">
         <f t="shared" si="16"/>
         <v>725.24732781375042</v>
       </c>
-      <c r="BT17" s="28">
+      <c r="BT17" s="26">
         <f t="shared" si="16"/>
         <v>717.99485453561294</v>
       </c>
-      <c r="BU17" s="28">
+      <c r="BU17" s="26">
         <f t="shared" si="16"/>
         <v>710.81490599025676</v>
       </c>
-      <c r="BV17" s="28">
+      <c r="BV17" s="26">
         <f t="shared" si="16"/>
         <v>703.70675693035423</v>
       </c>
-      <c r="BW17" s="28">
+      <c r="BW17" s="26">
         <f t="shared" si="16"/>
         <v>696.6696893610507</v>
       </c>
-      <c r="BX17" s="28">
+      <c r="BX17" s="26">
         <f t="shared" si="16"/>
         <v>689.70299246744014</v>
       </c>
-      <c r="BY17" s="28">
+      <c r="BY17" s="26">
         <f t="shared" si="16"/>
         <v>682.80596254276577</v>
       </c>
-      <c r="BZ17" s="28">
+      <c r="BZ17" s="26">
         <f t="shared" si="16"/>
         <v>675.97790291733816</v>
       </c>
-      <c r="CA17" s="28">
+      <c r="CA17" s="26">
         <f t="shared" si="16"/>
         <v>669.21812388816477</v>
       </c>
-      <c r="CB17" s="28">
+      <c r="CB17" s="26">
         <f t="shared" si="16"/>
         <v>662.52594264928314</v>
       </c>
-      <c r="CC17" s="28">
+      <c r="CC17" s="26">
         <f t="shared" si="16"/>
         <v>655.90068322279035</v>
       </c>
-      <c r="CD17" s="28">
+      <c r="CD17" s="26">
         <f t="shared" si="16"/>
         <v>649.34167639056238</v>
       </c>
-      <c r="CE17" s="28">
+      <c r="CE17" s="26">
         <f t="shared" si="16"/>
         <v>642.84825962665673</v>
       </c>
-      <c r="CF17" s="28">
+      <c r="CF17" s="26">
         <f t="shared" si="16"/>
         <v>636.41977703039015</v>
       </c>
-      <c r="CG17" s="28">
+      <c r="CG17" s="26">
         <f t="shared" si="16"/>
         <v>630.05557926008623</v>
       </c>
-      <c r="CH17" s="28">
+      <c r="CH17" s="26">
         <f t="shared" si="16"/>
         <v>623.75502346748533</v>
       </c>
-      <c r="CI17" s="28">
+      <c r="CI17" s="26">
         <f t="shared" si="16"/>
         <v>617.51747323281052</v>
       </c>
-      <c r="CJ17" s="28">
+      <c r="CJ17" s="26">
         <f t="shared" si="16"/>
         <v>611.34229850048246</v>
       </c>
-      <c r="CK17" s="28">
+      <c r="CK17" s="26">
         <f t="shared" si="16"/>
         <v>605.22887551547763</v>
       </c>
-      <c r="CL17" s="28">
+      <c r="CL17" s="26">
         <f t="shared" si="16"/>
         <v>599.17658676032283</v>
       </c>
-      <c r="CM17" s="28">
+      <c r="CM17" s="26">
         <f t="shared" ref="CM17:DG17" si="17">CL17*(1+$AA$22)</f>
         <v>593.18482089271959</v>
       </c>
-      <c r="CN17" s="28">
+      <c r="CN17" s="26">
         <f t="shared" si="17"/>
         <v>587.25297268379234</v>
       </c>
-      <c r="CO17" s="28">
+      <c r="CO17" s="26">
         <f t="shared" si="17"/>
         <v>581.38044295695443</v>
       </c>
-      <c r="CP17" s="28">
+      <c r="CP17" s="26">
         <f t="shared" si="17"/>
         <v>575.56663852738484</v>
       </c>
-      <c r="CQ17" s="28">
+      <c r="CQ17" s="26">
         <f t="shared" si="17"/>
         <v>569.81097214211104</v>
       </c>
-      <c r="CR17" s="28">
+      <c r="CR17" s="26">
         <f t="shared" si="17"/>
         <v>564.11286242068991</v>
       </c>
-      <c r="CS17" s="28">
+      <c r="CS17" s="26">
         <f t="shared" si="17"/>
         <v>558.47173379648302</v>
       </c>
-      <c r="CT17" s="28">
+      <c r="CT17" s="26">
         <f t="shared" si="17"/>
         <v>552.88701645851813</v>
       </c>
-      <c r="CU17" s="28">
+      <c r="CU17" s="26">
         <f t="shared" si="17"/>
         <v>547.35814629393292</v>
       </c>
-      <c r="CV17" s="28">
+      <c r="CV17" s="26">
         <f t="shared" si="17"/>
         <v>541.88456483099355</v>
       </c>
-      <c r="CW17" s="28">
+      <c r="CW17" s="26">
         <f t="shared" si="17"/>
         <v>536.46571918268364</v>
       </c>
-      <c r="CX17" s="28">
+      <c r="CX17" s="26">
         <f t="shared" si="17"/>
         <v>531.10106199085681</v>
       </c>
-      <c r="CY17" s="28">
+      <c r="CY17" s="26">
         <f t="shared" si="17"/>
         <v>525.79005137094828</v>
       </c>
-      <c r="CZ17" s="28">
+      <c r="CZ17" s="26">
         <f t="shared" si="17"/>
         <v>520.53215085723878</v>
       </c>
-      <c r="DA17" s="28">
+      <c r="DA17" s="26">
         <f t="shared" si="17"/>
         <v>515.32682934866637</v>
       </c>
-      <c r="DB17" s="28">
+      <c r="DB17" s="26">
         <f t="shared" si="17"/>
         <v>510.17356105517968</v>
       </c>
-      <c r="DC17" s="28">
+      <c r="DC17" s="26">
         <f t="shared" si="17"/>
         <v>505.07182544462785</v>
       </c>
-      <c r="DD17" s="28">
+      <c r="DD17" s="26">
         <f t="shared" si="17"/>
         <v>500.02110719018157</v>
       </c>
-      <c r="DE17" s="28">
+      <c r="DE17" s="26">
         <f t="shared" si="17"/>
         <v>495.02089611827972</v>
       </c>
-      <c r="DF17" s="28">
+      <c r="DF17" s="26">
         <f t="shared" si="17"/>
         <v>490.07068715709693</v>
       </c>
-      <c r="DG17" s="28">
+      <c r="DG17" s="26">
         <f t="shared" si="17"/>
         <v>485.16998028552598</v>
       </c>
@@ -29025,338 +29123,338 @@
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31">
+      <c r="H25" s="29"/>
+      <c r="I25" s="29">
         <f>(I5-H5)/H5</f>
         <v>273.13846153846151</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="29">
         <f>(J5-I5)/I5</f>
         <v>11.881699309725574</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="29">
         <f t="shared" si="19"/>
         <v>0.167557582807279</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="29">
         <f t="shared" si="19"/>
         <v>2.6119402985074626E-2</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="29">
         <f t="shared" si="19"/>
         <v>4.363636363636364E-2</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="30">
         <f t="shared" si="19"/>
         <v>0.10000000000000016</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T25" s="31">
+      <c r="T25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U25" s="31">
+      <c r="U25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V25" s="31">
+      <c r="V25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W25" s="31">
+      <c r="W25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X25" s="31">
+      <c r="X25" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA25" s="78">
+      <c r="AA25" s="75">
         <f>AA24/X19</f>
         <v>610.26555271787743</v>
       </c>
     </row>
     <row r="26" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <f t="shared" ref="D26:W26" si="20">D10/D7</f>
         <v>0.35444363027321257</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <f t="shared" si="20"/>
         <v>0.38699513529421942</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <f t="shared" si="20"/>
         <v>0.452233118520594</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="33">
         <f t="shared" si="20"/>
         <v>0.43891430363813377</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="33">
         <f t="shared" si="20"/>
         <v>0.50019685469935926</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="33">
         <f t="shared" si="20"/>
         <v>0.59180947863749267</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <f t="shared" si="20"/>
         <v>0.68737444761629418</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <f t="shared" si="20"/>
         <v>0.69162087912087911</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="33">
         <f t="shared" si="20"/>
         <v>0.70467185761957729</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="33">
         <f t="shared" si="20"/>
         <v>0.70505871725383917</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="34">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26" s="33">
         <f t="shared" si="20"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="X26" s="35">
+      <c r="X26" s="33">
         <f>X10/X7</f>
         <v>0.77593067081755618</v>
       </c>
       <c r="Z26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AA26" s="35">
+      <c r="AA26" s="33">
         <f>(AA25-Modell!B4)/Modell!B4</f>
-        <v>-0.30255365403671153</v>
+        <v>-3.925448249704442E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <f t="shared" ref="D27:X27" si="21">D13/D7</f>
         <v>0.27724275096828216</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <f t="shared" si="21"/>
         <v>0.3030313522497099</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="31">
         <f t="shared" si="21"/>
         <v>0.37515830764920144</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="31">
         <f t="shared" si="21"/>
         <v>0.36478697099188123</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="31">
         <f t="shared" si="21"/>
         <v>0.43054310024278747</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <f t="shared" si="21"/>
         <v>0.53383533724784649</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="31">
         <f t="shared" si="21"/>
         <v>0.61191810826767412</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <f t="shared" si="21"/>
         <v>0.62293956043956045</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="31">
         <f t="shared" si="21"/>
         <v>0.63515016685205783</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="31">
         <f t="shared" si="21"/>
         <v>0.64092140921409213</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="32">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="V27" s="33">
+      <c r="V27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="W27" s="33">
+      <c r="W27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="X27" s="33">
+      <c r="X27" s="31">
         <f t="shared" si="21"/>
         <v>0.59832273748830389</v>
       </c>
     </row>
     <row r="28" spans="1:16366" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="31">
+        <v>178</v>
+      </c>
+      <c r="D28" s="29">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="29">
         <v>0.496</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="29">
         <v>0.51400000000000001</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="35">
         <v>0.10440000000000001</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="35">
         <v>0.18970000000000001</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <v>0.2437</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="35">
         <v>0.26729999999999998</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="35">
         <v>0.313</v>
       </c>
-      <c r="N28" s="76"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
     </row>
     <row r="29" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="N29" s="48"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>72</v>
@@ -45745,7 +45843,7 @@
     </row>
     <row r="31" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -45826,7 +45924,7 @@
       </c>
     </row>
     <row r="32" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
+      <c r="A32" s="74">
         <f>AA52</f>
         <v>756.49901002736112</v>
       </c>
@@ -45909,12 +46007,12 @@
       </c>
     </row>
     <row r="33" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="33">
         <f>AA53</f>
-        <v>-0.13542970282587299</v>
+        <v>0.19096191754937197</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -45984,43 +46082,43 @@
       <c r="C34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="26">
         <f t="shared" ref="D34:I34" si="24">SUM(D31:D33)</f>
         <v>76.423999999999992</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="26">
         <f t="shared" si="24"/>
         <v>115.526</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="26">
         <f t="shared" si="24"/>
         <v>178.45</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="26">
         <f t="shared" si="24"/>
         <v>245.483</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="26">
         <f t="shared" si="24"/>
         <v>365.75200000000001</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="26">
         <f t="shared" si="24"/>
         <v>560.81899999999996</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="26">
         <f>SUM(J31:J33)</f>
         <v>1068.777</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="26">
         <f t="shared" ref="K34:L34" si="25">SUM(K31:K33)</f>
         <v>1456</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="26">
         <f t="shared" si="25"/>
         <v>1798</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="26">
         <f>SUM(M31:M33)</f>
         <v>2214</v>
       </c>
@@ -46028,43 +46126,43 @@
         <f>SUM(N31:N32)</f>
         <v>2287.0600000000004</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="26">
         <f>SUM(O31:O32)</f>
         <v>2367.1071000000002</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="26">
         <f t="shared" ref="P34:X34" si="26">SUM(P31:P32)</f>
         <v>2449.9558484999998</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="26">
         <f t="shared" si="26"/>
         <v>2535.7043031974995</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="26">
         <f t="shared" si="26"/>
         <v>2624.4539538094118</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="26">
         <f t="shared" si="26"/>
         <v>2716.3098421927411</v>
       </c>
-      <c r="T34" s="28">
+      <c r="T34" s="26">
         <f t="shared" si="26"/>
         <v>2811.3806866694867</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U34" s="26">
         <f t="shared" si="26"/>
         <v>2909.7790107029182</v>
       </c>
-      <c r="V34" s="28">
+      <c r="V34" s="26">
         <f t="shared" si="26"/>
         <v>3011.6212760775202</v>
       </c>
-      <c r="W34" s="28">
+      <c r="W34" s="26">
         <f t="shared" si="26"/>
         <v>3117.0280207402329</v>
       </c>
-      <c r="X34" s="28">
+      <c r="X34" s="26">
         <f t="shared" si="26"/>
         <v>3226.1240014661407</v>
       </c>
@@ -46230,43 +46328,43 @@
       <c r="C37" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="26">
         <f t="shared" ref="D37:K37" si="29">SUM(D34:D36)</f>
         <v>27.087999999999994</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="26">
         <f t="shared" si="29"/>
         <v>44.707999999999991</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="26">
         <f t="shared" si="29"/>
         <v>80.700999999999993</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="26">
         <f t="shared" si="29"/>
         <v>107.746</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="26">
         <f t="shared" si="29"/>
         <v>182.94800000000004</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="26">
         <f t="shared" si="29"/>
         <v>331.89799999999997</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="26">
         <f t="shared" si="29"/>
         <v>734.65000000000009</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="26">
         <f t="shared" si="29"/>
         <v>1007</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="26">
         <f>SUM(L34:L36)</f>
         <v>1267</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="26">
         <f>SUM(M34:M36)</f>
         <v>1561</v>
       </c>
@@ -46274,43 +46372,43 @@
         <f>SUM(N34:N36)</f>
         <v>1524.6000000000004</v>
       </c>
-      <c r="O37" s="28">
+      <c r="O37" s="26">
         <f t="shared" ref="O37:W37" si="30">SUM(O34:O36)</f>
         <v>1577.9610000000002</v>
       </c>
-      <c r="P37" s="28">
+      <c r="P37" s="26">
         <f t="shared" si="30"/>
         <v>1633.1896349999997</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="26">
         <f t="shared" si="30"/>
         <v>1690.3512722249998</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="26">
         <f t="shared" si="30"/>
         <v>1749.5135667528748</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="26">
         <f t="shared" si="30"/>
         <v>1810.7465415892254</v>
       </c>
-      <c r="T37" s="28">
+      <c r="T37" s="26">
         <f t="shared" si="30"/>
         <v>1874.122670544848</v>
       </c>
-      <c r="U37" s="28">
+      <c r="U37" s="26">
         <f t="shared" si="30"/>
         <v>1939.7169640139173</v>
       </c>
-      <c r="V37" s="28">
+      <c r="V37" s="26">
         <f t="shared" si="30"/>
         <v>2007.6070577544042</v>
       </c>
-      <c r="W37" s="28">
+      <c r="W37" s="26">
         <f t="shared" si="30"/>
         <v>2077.8733047758078</v>
       </c>
-      <c r="X37" s="28">
+      <c r="X37" s="26">
         <f>SUM(X34:X35)</f>
         <v>2503.2485605982411</v>
       </c>
@@ -46484,43 +46582,43 @@
       <c r="C40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="26">
         <f>D34+D39</f>
         <v>21.187999999999995</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="26">
         <f>E34+E39</f>
         <v>35.007999999999981</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="26">
         <f>F34+F39</f>
         <v>66.946999999999989</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="26">
         <f>G34+G39</f>
         <v>89.548999999999978</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="26">
         <f t="shared" ref="H40:X40" si="34">H34+H39</f>
         <v>157.47200000000001</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="26">
         <f t="shared" si="34"/>
         <v>299.38499999999999</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="26">
         <f t="shared" si="34"/>
         <v>654.00400000000002</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="26">
         <f t="shared" si="34"/>
         <v>907</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40" s="26">
         <f t="shared" si="34"/>
         <v>1142</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="26">
         <f t="shared" si="34"/>
         <v>1419</v>
       </c>
@@ -46528,43 +46626,43 @@
         <f t="shared" si="34"/>
         <v>1368.4000000000005</v>
       </c>
-      <c r="O40" s="28">
+      <c r="O40" s="26">
         <f t="shared" si="34"/>
         <v>1416.2940000000003</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P40" s="26">
         <f t="shared" si="34"/>
         <v>1465.86429</v>
       </c>
-      <c r="Q40" s="28">
+      <c r="Q40" s="26">
         <f t="shared" si="34"/>
         <v>1517.1695401499996</v>
       </c>
-      <c r="R40" s="28">
+      <c r="R40" s="26">
         <f t="shared" si="34"/>
         <v>1570.2704740552499</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="26">
         <f t="shared" si="34"/>
         <v>1625.2299406471834</v>
       </c>
-      <c r="T40" s="28">
+      <c r="T40" s="26">
         <f t="shared" si="34"/>
         <v>1682.1129885698347</v>
       </c>
-      <c r="U40" s="28">
+      <c r="U40" s="26">
         <f t="shared" si="34"/>
         <v>1740.9869431697784</v>
       </c>
-      <c r="V40" s="28">
+      <c r="V40" s="26">
         <f t="shared" si="34"/>
         <v>1801.9214861807204</v>
       </c>
-      <c r="W40" s="28">
+      <c r="W40" s="26">
         <f t="shared" si="34"/>
         <v>1864.9887381970452</v>
       </c>
-      <c r="X40" s="28">
+      <c r="X40" s="26">
         <f t="shared" si="34"/>
         <v>1930.2633440339418</v>
       </c>
@@ -46813,43 +46911,43 @@
       <c r="C44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="26">
         <f t="shared" ref="D44:M44" si="37">SUM(D42:D43)</f>
         <v>19.943999999999996</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="26">
         <f t="shared" si="37"/>
         <v>31.863999999999983</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="26">
         <f t="shared" si="37"/>
         <v>62.222999999999985</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="26">
         <f t="shared" si="37"/>
         <v>83.548999999999978</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="26">
         <f t="shared" si="37"/>
         <v>149.72600000000003</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="26">
         <f t="shared" si="37"/>
         <v>284.43200000000002</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="26">
         <f t="shared" si="37"/>
         <v>605.49099999999999</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="26">
         <f t="shared" si="37"/>
         <v>843</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44" s="26">
         <f t="shared" si="37"/>
         <v>1070</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M44" s="26">
         <f t="shared" si="37"/>
         <v>1243</v>
       </c>
@@ -46857,391 +46955,391 @@
         <f>SUM(N42:N43)</f>
         <v>1163.1400000000006</v>
       </c>
-      <c r="O44" s="28">
+      <c r="O44" s="26">
         <f t="shared" ref="O44:X44" si="38">SUM(O42:O43)</f>
         <v>1203.8499000000002</v>
       </c>
-      <c r="P44" s="28">
+      <c r="P44" s="26">
         <f t="shared" si="38"/>
         <v>1245.9846465000001</v>
       </c>
-      <c r="Q44" s="28">
+      <c r="Q44" s="26">
         <f t="shared" si="38"/>
         <v>1289.5941091274997</v>
       </c>
-      <c r="R44" s="28">
+      <c r="R44" s="26">
         <f t="shared" si="38"/>
         <v>1334.7299029469625</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="26">
         <f t="shared" si="38"/>
         <v>1381.4454495501059</v>
       </c>
-      <c r="T44" s="28">
+      <c r="T44" s="26">
         <f t="shared" si="38"/>
         <v>1429.7960402843596</v>
       </c>
-      <c r="U44" s="28">
+      <c r="U44" s="26">
         <f t="shared" si="38"/>
         <v>1479.8389016943117</v>
       </c>
-      <c r="V44" s="28">
+      <c r="V44" s="26">
         <f t="shared" si="38"/>
         <v>1531.6332632536123</v>
       </c>
-      <c r="W44" s="28">
+      <c r="W44" s="26">
         <f t="shared" si="38"/>
         <v>1585.2404274674884</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X44" s="26">
         <f t="shared" si="38"/>
         <v>1640.7238424288505</v>
       </c>
-      <c r="Y44" s="28">
+      <c r="Y44" s="26">
         <f>X44*(1+$AA$22)</f>
         <v>1624.3166040045619</v>
       </c>
-      <c r="Z44" s="28">
+      <c r="Z44" s="26">
         <f>Y44*(1+$AA$22)</f>
         <v>1608.0734379645162</v>
       </c>
-      <c r="AA44" s="28">
+      <c r="AA44" s="26">
         <f t="shared" ref="AA44:CL44" si="39">Z44*(1+$AA$22)</f>
         <v>1591.9927035848709</v>
       </c>
-      <c r="AB44" s="28">
+      <c r="AB44" s="26">
         <f t="shared" si="39"/>
         <v>1576.0727765490221</v>
       </c>
-      <c r="AC44" s="28">
+      <c r="AC44" s="26">
         <f t="shared" si="39"/>
         <v>1560.312048783532</v>
       </c>
-      <c r="AD44" s="28">
+      <c r="AD44" s="26">
         <f t="shared" si="39"/>
         <v>1544.7089282956965</v>
       </c>
-      <c r="AE44" s="28">
+      <c r="AE44" s="26">
         <f t="shared" si="39"/>
         <v>1529.2618390127395</v>
       </c>
-      <c r="AF44" s="28">
+      <c r="AF44" s="26">
         <f t="shared" si="39"/>
         <v>1513.9692206226121</v>
       </c>
-      <c r="AG44" s="28">
+      <c r="AG44" s="26">
         <f t="shared" si="39"/>
         <v>1498.829528416386</v>
       </c>
-      <c r="AH44" s="28">
+      <c r="AH44" s="26">
         <f t="shared" si="39"/>
         <v>1483.8412331322222</v>
       </c>
-      <c r="AI44" s="28">
+      <c r="AI44" s="26">
         <f t="shared" si="39"/>
         <v>1469.0028208009001</v>
       </c>
-      <c r="AJ44" s="28">
+      <c r="AJ44" s="26">
         <f t="shared" si="39"/>
         <v>1454.3127925928911</v>
       </c>
-      <c r="AK44" s="28">
+      <c r="AK44" s="26">
         <f t="shared" si="39"/>
         <v>1439.7696646669622</v>
       </c>
-      <c r="AL44" s="28">
+      <c r="AL44" s="26">
         <f t="shared" si="39"/>
         <v>1425.3719680202926</v>
       </c>
-      <c r="AM44" s="28">
+      <c r="AM44" s="26">
         <f t="shared" si="39"/>
         <v>1411.1182483400896</v>
       </c>
-      <c r="AN44" s="28">
+      <c r="AN44" s="26">
         <f t="shared" si="39"/>
         <v>1397.0070658566888</v>
       </c>
-      <c r="AO44" s="28">
+      <c r="AO44" s="26">
         <f t="shared" si="39"/>
         <v>1383.0369951981218</v>
       </c>
-      <c r="AP44" s="28">
+      <c r="AP44" s="26">
         <f t="shared" si="39"/>
         <v>1369.2066252461404</v>
       </c>
-      <c r="AQ44" s="28">
+      <c r="AQ44" s="26">
         <f t="shared" si="39"/>
         <v>1355.514558993679</v>
       </c>
-      <c r="AR44" s="28">
+      <c r="AR44" s="26">
         <f t="shared" si="39"/>
         <v>1341.9594134037422</v>
       </c>
-      <c r="AS44" s="28">
+      <c r="AS44" s="26">
         <f t="shared" si="39"/>
         <v>1328.5398192697048</v>
       </c>
-      <c r="AT44" s="28">
+      <c r="AT44" s="26">
         <f t="shared" si="39"/>
         <v>1315.2544210770077</v>
       </c>
-      <c r="AU44" s="28">
+      <c r="AU44" s="26">
         <f t="shared" si="39"/>
         <v>1302.1018768662375</v>
       </c>
-      <c r="AV44" s="28">
+      <c r="AV44" s="26">
         <f t="shared" si="39"/>
         <v>1289.0808580975752</v>
       </c>
-      <c r="AW44" s="28">
+      <c r="AW44" s="26">
         <f t="shared" si="39"/>
         <v>1276.1900495165994</v>
       </c>
-      <c r="AX44" s="28">
+      <c r="AX44" s="26">
         <f t="shared" si="39"/>
         <v>1263.4281490214335</v>
       </c>
-      <c r="AY44" s="28">
+      <c r="AY44" s="26">
         <f t="shared" si="39"/>
         <v>1250.7938675312191</v>
       </c>
-      <c r="AZ44" s="28">
+      <c r="AZ44" s="26">
         <f t="shared" si="39"/>
         <v>1238.2859288559068</v>
       </c>
-      <c r="BA44" s="28">
+      <c r="BA44" s="26">
         <f t="shared" si="39"/>
         <v>1225.9030695673478</v>
       </c>
-      <c r="BB44" s="28">
+      <c r="BB44" s="26">
         <f t="shared" si="39"/>
         <v>1213.6440388716742</v>
       </c>
-      <c r="BC44" s="28">
+      <c r="BC44" s="26">
         <f t="shared" si="39"/>
         <v>1201.5075984829575</v>
       </c>
-      <c r="BD44" s="28">
+      <c r="BD44" s="26">
         <f t="shared" si="39"/>
         <v>1189.492522498128</v>
       </c>
-      <c r="BE44" s="28">
+      <c r="BE44" s="26">
         <f t="shared" si="39"/>
         <v>1177.5975972731467</v>
       </c>
-      <c r="BF44" s="28">
+      <c r="BF44" s="26">
         <f t="shared" si="39"/>
         <v>1165.8216213004152</v>
       </c>
-      <c r="BG44" s="28">
+      <c r="BG44" s="26">
         <f t="shared" si="39"/>
         <v>1154.1634050874111</v>
       </c>
-      <c r="BH44" s="28">
+      <c r="BH44" s="26">
         <f t="shared" si="39"/>
         <v>1142.621771036537</v>
       </c>
-      <c r="BI44" s="28">
+      <c r="BI44" s="26">
         <f t="shared" si="39"/>
         <v>1131.1955533261716</v>
       </c>
-      <c r="BJ44" s="28">
+      <c r="BJ44" s="26">
         <f t="shared" si="39"/>
         <v>1119.88359779291</v>
       </c>
-      <c r="BK44" s="28">
+      <c r="BK44" s="26">
         <f t="shared" si="39"/>
         <v>1108.6847618149809</v>
       </c>
-      <c r="BL44" s="28">
+      <c r="BL44" s="26">
         <f t="shared" si="39"/>
         <v>1097.597914196831</v>
       </c>
-      <c r="BM44" s="28">
+      <c r="BM44" s="26">
         <f t="shared" si="39"/>
         <v>1086.6219350548627</v>
       </c>
-      <c r="BN44" s="28">
+      <c r="BN44" s="26">
         <f t="shared" si="39"/>
         <v>1075.7557157043141</v>
       </c>
-      <c r="BO44" s="28">
+      <c r="BO44" s="26">
         <f t="shared" si="39"/>
         <v>1064.998158547271</v>
       </c>
-      <c r="BP44" s="28">
+      <c r="BP44" s="26">
         <f t="shared" si="39"/>
         <v>1054.3481769617983</v>
       </c>
-      <c r="BQ44" s="28">
+      <c r="BQ44" s="26">
         <f t="shared" si="39"/>
         <v>1043.8046951921804</v>
       </c>
-      <c r="BR44" s="28">
+      <c r="BR44" s="26">
         <f t="shared" si="39"/>
         <v>1033.3666482402587</v>
       </c>
-      <c r="BS44" s="28">
+      <c r="BS44" s="26">
         <f t="shared" si="39"/>
         <v>1023.0329817578561</v>
       </c>
-      <c r="BT44" s="28">
+      <c r="BT44" s="26">
         <f t="shared" si="39"/>
         <v>1012.8026519402775</v>
       </c>
-      <c r="BU44" s="28">
+      <c r="BU44" s="26">
         <f t="shared" si="39"/>
         <v>1002.6746254208748</v>
       </c>
-      <c r="BV44" s="28">
+      <c r="BV44" s="26">
         <f t="shared" si="39"/>
         <v>992.64787916666603</v>
       </c>
-      <c r="BW44" s="28">
+      <c r="BW44" s="26">
         <f t="shared" si="39"/>
         <v>982.72140037499935</v>
       </c>
-      <c r="BX44" s="28">
+      <c r="BX44" s="26">
         <f t="shared" si="39"/>
         <v>972.89418637124936</v>
       </c>
-      <c r="BY44" s="28">
+      <c r="BY44" s="26">
         <f t="shared" si="39"/>
         <v>963.16524450753684</v>
       </c>
-      <c r="BZ44" s="28">
+      <c r="BZ44" s="26">
         <f t="shared" si="39"/>
         <v>953.53359206246148</v>
       </c>
-      <c r="CA44" s="28">
+      <c r="CA44" s="26">
         <f t="shared" si="39"/>
         <v>943.9982561418368</v>
       </c>
-      <c r="CB44" s="28">
+      <c r="CB44" s="26">
         <f t="shared" si="39"/>
         <v>934.55827358041847</v>
       </c>
-      <c r="CC44" s="28">
+      <c r="CC44" s="26">
         <f t="shared" si="39"/>
         <v>925.21269084461426</v>
       </c>
-      <c r="CD44" s="28">
+      <c r="CD44" s="26">
         <f t="shared" si="39"/>
         <v>915.96056393616811</v>
       </c>
-      <c r="CE44" s="28">
+      <c r="CE44" s="26">
         <f t="shared" si="39"/>
         <v>906.80095829680647</v>
       </c>
-      <c r="CF44" s="28">
+      <c r="CF44" s="26">
         <f t="shared" si="39"/>
         <v>897.73294871383837</v>
       </c>
-      <c r="CG44" s="28">
+      <c r="CG44" s="26">
         <f t="shared" si="39"/>
         <v>888.75561922669999</v>
       </c>
-      <c r="CH44" s="28">
+      <c r="CH44" s="26">
         <f t="shared" si="39"/>
         <v>879.86806303443302</v>
       </c>
-      <c r="CI44" s="28">
+      <c r="CI44" s="26">
         <f t="shared" si="39"/>
         <v>871.06938240408863</v>
       </c>
-      <c r="CJ44" s="28">
+      <c r="CJ44" s="26">
         <f t="shared" si="39"/>
         <v>862.35868858004778</v>
       </c>
-      <c r="CK44" s="28">
+      <c r="CK44" s="26">
         <f t="shared" si="39"/>
         <v>853.73510169424731</v>
       </c>
-      <c r="CL44" s="28">
+      <c r="CL44" s="26">
         <f t="shared" si="39"/>
         <v>845.19775067730484</v>
       </c>
-      <c r="CM44" s="28">
+      <c r="CM44" s="26">
         <f t="shared" ref="CM44:DG44" si="40">CL44*(1+$AA$22)</f>
         <v>836.74577317053183</v>
       </c>
-      <c r="CN44" s="28">
+      <c r="CN44" s="26">
         <f t="shared" si="40"/>
         <v>828.37831543882646</v>
       </c>
-      <c r="CO44" s="28">
+      <c r="CO44" s="26">
         <f t="shared" si="40"/>
         <v>820.09453228443817</v>
       </c>
-      <c r="CP44" s="28">
+      <c r="CP44" s="26">
         <f t="shared" si="40"/>
         <v>811.89358696159377</v>
       </c>
-      <c r="CQ44" s="28">
+      <c r="CQ44" s="26">
         <f t="shared" si="40"/>
         <v>803.77465109197783</v>
       </c>
-      <c r="CR44" s="28">
+      <c r="CR44" s="26">
         <f t="shared" si="40"/>
         <v>795.73690458105807</v>
       </c>
-      <c r="CS44" s="28">
+      <c r="CS44" s="26">
         <f t="shared" si="40"/>
         <v>787.77953553524753</v>
       </c>
-      <c r="CT44" s="28">
+      <c r="CT44" s="26">
         <f t="shared" si="40"/>
         <v>779.901740179895</v>
       </c>
-      <c r="CU44" s="28">
+      <c r="CU44" s="26">
         <f t="shared" si="40"/>
         <v>772.10272277809599</v>
       </c>
-      <c r="CV44" s="28">
+      <c r="CV44" s="26">
         <f t="shared" si="40"/>
         <v>764.38169555031504</v>
       </c>
-      <c r="CW44" s="28">
+      <c r="CW44" s="26">
         <f t="shared" si="40"/>
         <v>756.73787859481183</v>
       </c>
-      <c r="CX44" s="28">
+      <c r="CX44" s="26">
         <f t="shared" si="40"/>
         <v>749.17049980886372</v>
       </c>
-      <c r="CY44" s="28">
+      <c r="CY44" s="26">
         <f t="shared" si="40"/>
         <v>741.67879481077512</v>
       </c>
-      <c r="CZ44" s="28">
+      <c r="CZ44" s="26">
         <f t="shared" si="40"/>
         <v>734.26200686266736</v>
       </c>
-      <c r="DA44" s="28">
+      <c r="DA44" s="26">
         <f t="shared" si="40"/>
         <v>726.91938679404063</v>
       </c>
-      <c r="DB44" s="28">
+      <c r="DB44" s="26">
         <f t="shared" si="40"/>
         <v>719.6501929261002</v>
       </c>
-      <c r="DC44" s="28">
+      <c r="DC44" s="26">
         <f t="shared" si="40"/>
         <v>712.45369099683921</v>
       </c>
-      <c r="DD44" s="28">
+      <c r="DD44" s="26">
         <f t="shared" si="40"/>
         <v>705.32915408687086</v>
       </c>
-      <c r="DE44" s="28">
+      <c r="DE44" s="26">
         <f t="shared" si="40"/>
         <v>698.27586254600214</v>
       </c>
-      <c r="DF44" s="28">
+      <c r="DF44" s="26">
         <f t="shared" si="40"/>
         <v>691.29310392054208</v>
       </c>
-      <c r="DG44" s="28">
+      <c r="DG44" s="26">
         <f t="shared" si="40"/>
         <v>684.38017288133665</v>
       </c>
@@ -47608,310 +47706,310 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31">
+      <c r="H52" s="29"/>
+      <c r="I52" s="29">
         <f>(I32-H32)/H32</f>
         <v>273.13846153846151</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="29">
         <f>(J32-I32)/I32</f>
         <v>11.881699309725574</v>
       </c>
-      <c r="K52" s="31">
+      <c r="K52" s="29">
         <f t="shared" si="62"/>
         <v>0.167557582807279</v>
       </c>
-      <c r="L52" s="31">
+      <c r="L52" s="29">
         <f t="shared" si="63"/>
         <v>2.6119402985074626E-2</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="29">
         <f t="shared" si="64"/>
         <v>4.363636363636364E-2</v>
       </c>
-      <c r="N52" s="32">
+      <c r="N52" s="30">
         <f t="shared" si="65"/>
         <v>0.10000000000000016</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="29">
         <f t="shared" si="66"/>
         <v>3.4999999999999885E-2</v>
       </c>
-      <c r="P52" s="31">
+      <c r="P52" s="29">
         <f t="shared" si="67"/>
         <v>3.4999999999999878E-2</v>
       </c>
-      <c r="Q52" s="31">
+      <c r="Q52" s="29">
         <f t="shared" si="68"/>
         <v>3.4999999999999906E-2</v>
       </c>
-      <c r="R52" s="31">
+      <c r="R52" s="29">
         <f t="shared" si="69"/>
         <v>3.4999999999999878E-2</v>
       </c>
-      <c r="S52" s="31">
+      <c r="S52" s="29">
         <f t="shared" si="70"/>
         <v>3.4999999999999865E-2</v>
       </c>
-      <c r="T52" s="31">
+      <c r="T52" s="29">
         <f t="shared" si="71"/>
         <v>3.4999999999999858E-2</v>
       </c>
-      <c r="U52" s="31">
+      <c r="U52" s="29">
         <f t="shared" si="72"/>
         <v>3.4999999999999906E-2</v>
       </c>
-      <c r="V52" s="31">
+      <c r="V52" s="29">
         <f t="shared" si="73"/>
         <v>3.4999999999999948E-2</v>
       </c>
-      <c r="W52" s="31">
+      <c r="W52" s="29">
         <f t="shared" si="74"/>
         <v>3.4999999999999899E-2</v>
       </c>
-      <c r="X52" s="31">
+      <c r="X52" s="29">
         <f t="shared" si="75"/>
         <v>3.4999999999999871E-2</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA52" s="78">
+      <c r="AA52" s="75">
         <f>AA51/X46</f>
         <v>756.49901002736112</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <f t="shared" ref="D53:W53" si="76">D37/D34</f>
         <v>0.35444363027321257</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="33">
         <f t="shared" si="76"/>
         <v>0.38699513529421942</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="33">
         <f t="shared" si="76"/>
         <v>0.452233118520594</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="33">
         <f t="shared" si="76"/>
         <v>0.43891430363813377</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="33">
         <f t="shared" si="76"/>
         <v>0.50019685469935926</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="33">
         <f t="shared" si="76"/>
         <v>0.59180947863749267</v>
       </c>
-      <c r="J53" s="35">
+      <c r="J53" s="33">
         <f t="shared" si="76"/>
         <v>0.68737444761629418</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="33">
         <f t="shared" si="76"/>
         <v>0.69162087912087911</v>
       </c>
-      <c r="L53" s="35">
+      <c r="L53" s="33">
         <f t="shared" si="76"/>
         <v>0.70467185761957729</v>
       </c>
-      <c r="M53" s="35">
+      <c r="M53" s="33">
         <f t="shared" si="76"/>
         <v>0.70505871725383917</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="34">
         <f t="shared" si="76"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="O53" s="35">
+      <c r="O53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883353</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="Q53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="R53" s="35">
+      <c r="R53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883375</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883375</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883375</v>
       </c>
-      <c r="U53" s="35">
+      <c r="U53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883375</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="33">
         <f t="shared" si="76"/>
         <v>0.66662002745883364</v>
       </c>
-      <c r="X53" s="35">
+      <c r="X53" s="33">
         <f>X37/X34</f>
         <v>0.77593067081755618</v>
       </c>
       <c r="Z53" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AA53" s="35">
+      <c r="AA53" s="33">
         <f>(AA52-Modell!B4)/Modell!B4</f>
-        <v>-0.13542970282587299</v>
+        <v>0.19096191754937197</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D54" s="31">
         <f t="shared" ref="D54:X54" si="77">D40/D34</f>
         <v>0.27724275096828216</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="31">
         <f t="shared" si="77"/>
         <v>0.3030313522497099</v>
       </c>
-      <c r="F54" s="33">
+      <c r="F54" s="31">
         <f t="shared" si="77"/>
         <v>0.37515830764920144</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="31">
         <f t="shared" si="77"/>
         <v>0.36478697099188123</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H54" s="31">
         <f t="shared" si="77"/>
         <v>0.43054310024278747</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="31">
         <f t="shared" si="77"/>
         <v>0.53383533724784649</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="31">
         <f t="shared" si="77"/>
         <v>0.61191810826767412</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="31">
         <f t="shared" si="77"/>
         <v>0.62293956043956045</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="31">
         <f t="shared" si="77"/>
         <v>0.63515016685205783</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M54" s="31">
         <f t="shared" si="77"/>
         <v>0.64092140921409213</v>
       </c>
-      <c r="N54" s="34">
+      <c r="N54" s="32">
         <f t="shared" si="77"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="P54" s="33">
+      <c r="P54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="R54" s="33">
+      <c r="R54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830389</v>
       </c>
-      <c r="S54" s="33">
+      <c r="S54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="T54" s="33">
+      <c r="T54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="U54" s="33">
+      <c r="U54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="V54" s="33">
+      <c r="V54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
-      <c r="W54" s="33">
+      <c r="W54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830367</v>
       </c>
-      <c r="X54" s="33">
+      <c r="X54" s="31">
         <f t="shared" si="77"/>
         <v>0.59832273748830378</v>
       </c>
     </row>
     <row r="55" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="54"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="31">
+        <v>178</v>
+      </c>
+      <c r="D55" s="29">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="29">
         <v>0.496</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F55" s="29">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="29">
         <v>0.51400000000000001</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="35">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="35">
         <v>0.10440000000000001</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="35">
         <v>0.18970000000000001</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="35">
         <v>0.2437</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="35">
         <v>0.26729999999999998</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="35">
         <v>0.313</v>
       </c>
-      <c r="N55" s="76"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evolution modell.xlsx
+++ b/Evolution modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC78B7B-AFE1-8E47-91A3-CBC2971ECD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A110ABC-F4E2-FD43-B9C6-DEE5DFA4DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="4420" windowWidth="29400" windowHeight="17200" activeTab="1" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
+    <workbookView xWindow="24460" yWindow="500" windowWidth="26740" windowHeight="26740" activeTab="4" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="209">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -564,9 +564,6 @@
     <t>01.07.25: EVO inngår samarbeid med Hasbro. Dette innebærer at Evo skal være levere blant annet Monopol. Nye spill vil bli lansert fra januar 26</t>
   </si>
   <si>
-    <t>03.07.25: EVO går inn i Rhode Isalnd gjennom et partnerskap med Ballys corporation</t>
-  </si>
-  <si>
     <t>07.07.25: EVO kjøper tilbake 145 000 aksjer</t>
   </si>
   <si>
@@ -607,6 +604,69 @@
   </si>
   <si>
     <t>04.08.25: EVO kjøper tilbake 173 767 aksjer</t>
+  </si>
+  <si>
+    <t>03.07.25: EVO går inn i Rhode island gjennom et partnerskap med Ballys corporation</t>
+  </si>
+  <si>
+    <t>11.08.25: EVO kjøper tilbake 169 600 aksjer</t>
+  </si>
+  <si>
+    <t>18.08.25: EVO kjøper tilbake 248 000 aksjer</t>
+  </si>
+  <si>
+    <t>25.08.25: EVO kjøper tilbake 124 500 aksjer</t>
+  </si>
+  <si>
+    <t>01.09.25: EVO kjøper tilbake 219 000 aksjer</t>
+  </si>
+  <si>
+    <t>08.09.25: EVO kjøper tilbake 377 000 aksjer</t>
+  </si>
+  <si>
+    <t>15.09.25: EVO kjøper tilbake 205 000 aksjer</t>
+  </si>
+  <si>
+    <t>22.09.25: EVO kjøper tilbake 234 500 aksjer</t>
+  </si>
+  <si>
+    <t>29.09.25: EVO kjøper tilbake 129 523 aksjer</t>
+  </si>
+  <si>
+    <t>21.10.25: EVO har gjennom rettslig oppdagelse avdekket at Playtech Software, var kunden som hyret etteretningsfirmaet Black Cube for å produsere og spre en rapport i 2021 med alvorlige, falske anklager mot EVO. EVO skal søke om erstatnign fra både Playtech og Balck Cube</t>
+  </si>
+  <si>
+    <t>27.10.25: EVO kjøper tilbake 40 000 aksjer</t>
+  </si>
+  <si>
+    <t>03.11.25: EVO kjøepr tilbake 279 000 aksjer</t>
+  </si>
+  <si>
+    <t>10.11.25: EVO kjøper tilbake 324 409 aksjer</t>
+  </si>
+  <si>
+    <t>17.11.25: EVO kjøper tilbake 191 629 aksjer</t>
+  </si>
+  <si>
+    <t>25.11.25: EVO skal kjøpe Galaxy gaming, men de har ikke fått alle regulatirosike godkjennigner enda noe de forventer skla komme Q126. Derfor flytter de "outside date" til 17.juli 26</t>
+  </si>
+  <si>
+    <t>01.12.25: EVO kjøper tilbake 76 000 aksjer</t>
+  </si>
+  <si>
+    <t>08.12.25: EVO kjøepr tilbake 142 000 aksjer</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1016,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -981,10 +1040,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -992,6 +1049,9 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,7 +1172,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>364896</xdr:colOff>
+      <xdr:colOff>301396</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
@@ -1622,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC13775-938B-2A4A-A0CC-9B13753DF355}">
-  <dimension ref="A3:O50"/>
+  <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G30:G31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1693,11 @@
     <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1686,152 +1750,233 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1845,11 +1990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB789C83-AC26-2D4C-BECF-527C3F0DF123}">
   <dimension ref="A3:DY109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1929,16 +2074,16 @@
         <v>100</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="Z3" s="7" t="s">
         <v>162</v>
@@ -1996,8 +2141,8 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76">
-        <v>635.20000000000005</v>
+      <c r="B4" s="73">
+        <v>616</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2084,44 +2229,44 @@
         <v>1971.3600000000001</v>
       </c>
       <c r="AG4" s="2">
-        <f>AF4*1.1</f>
-        <v>2168.4960000000001</v>
+        <f>AF4*1.08</f>
+        <v>2129.0688000000005</v>
       </c>
       <c r="AH4" s="2">
-        <f t="shared" ref="AH4:AP4" si="0">AG4*1.1</f>
-        <v>2385.3456000000001</v>
+        <f t="shared" ref="AH4:AP4" si="0">AG4*1.08</f>
+        <v>2299.3943040000008</v>
       </c>
       <c r="AI4" s="2">
         <f t="shared" si="0"/>
-        <v>2623.8801600000002</v>
+        <v>2483.3458483200011</v>
       </c>
       <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>2886.2681760000005</v>
+        <v>2682.0135161856015</v>
       </c>
       <c r="AK4" s="2">
         <f t="shared" si="0"/>
-        <v>3174.8949936000008</v>
+        <v>2896.5745974804499</v>
       </c>
       <c r="AL4" s="2">
         <f t="shared" si="0"/>
-        <v>3492.3844929600014</v>
+        <v>3128.3005652788861</v>
       </c>
       <c r="AM4" s="2">
         <f t="shared" si="0"/>
-        <v>3841.6229422560018</v>
+        <v>3378.5646105011974</v>
       </c>
       <c r="AN4" s="2">
         <f t="shared" si="0"/>
-        <v>4225.7852364816026</v>
+        <v>3648.8497793412935</v>
       </c>
       <c r="AO4" s="2">
         <f t="shared" si="0"/>
-        <v>4648.3637601297633</v>
+        <v>3940.7577616885974</v>
       </c>
       <c r="AP4" s="2">
         <f t="shared" si="0"/>
-        <v>5113.2001361427401</v>
+        <v>4256.0183826236853</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -2260,9 +2405,9 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <f>B4*B5</f>
-        <v>129540.59056960001</v>
+        <v>125625.005968</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
@@ -2371,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>5464.1</v>
+        <v>7229</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -2488,43 +2633,43 @@
       </c>
       <c r="AG7" s="26">
         <f>SUM(AG4:AG5)</f>
-        <v>2503.1379999999999</v>
+        <v>2463.7108000000007</v>
       </c>
       <c r="AH7" s="26">
         <f t="shared" ref="AH7:AP7" si="6">SUM(AH4:AH5)</f>
-        <v>2740.0661200000004</v>
+        <v>2654.1148240000011</v>
       </c>
       <c r="AI7" s="26">
         <f t="shared" si="6"/>
-        <v>2999.8839112000005</v>
+        <v>2859.349599520001</v>
       </c>
       <c r="AJ7" s="26">
         <f t="shared" si="6"/>
-        <v>3284.8321522720007</v>
+        <v>3080.5774924576017</v>
       </c>
       <c r="AK7" s="26">
         <f t="shared" si="6"/>
-        <v>3597.3728084483209</v>
+        <v>3319.0524123287701</v>
       </c>
       <c r="AL7" s="26">
         <f t="shared" si="6"/>
-        <v>3940.2109766992207</v>
+        <v>3576.1270490181055</v>
       </c>
       <c r="AM7" s="26">
         <f t="shared" si="6"/>
-        <v>4316.3190150195742</v>
+        <v>3853.2606832647698</v>
       </c>
       <c r="AN7" s="26">
         <f t="shared" si="6"/>
-        <v>4728.9630736109893</v>
+        <v>4152.0276164706802</v>
       </c>
       <c r="AO7" s="26">
         <f t="shared" si="6"/>
-        <v>5181.7322674869138</v>
+        <v>4474.1262690457479</v>
       </c>
       <c r="AP7" s="26">
         <f t="shared" si="6"/>
-        <v>5678.5707539413197</v>
+        <v>4821.3890004222649</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2640,24 +2785,24 @@
         <v>-752.97186623692812</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="7"/>
-        <v>-813.20961553588245</v>
+        <f>AK8*1.07</f>
+        <v>-805.67989687351314</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="7"/>
-        <v>-878.26638477875315</v>
+        <v>-870.13428862339424</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="7"/>
-        <v>-948.52769556105352</v>
+        <v>-939.7450317132658</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" si="7"/>
-        <v>-1024.4099112059378</v>
+        <v>-1014.9246342503271</v>
       </c>
       <c r="AP8" s="2">
         <f>AO8*1.4</f>
-        <v>-1434.1738756883128</v>
+        <v>-1420.8944879504579</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -2666,7 +2811,7 @@
       </c>
       <c r="B9" s="15">
         <f>B6-B7+B8</f>
-        <v>124076.49056960001</v>
+        <v>118396.005968</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -2772,7 +2917,7 @@
         <v>-344.08395262500005</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="8"/>
+        <f>AK9*1.07</f>
         <v>-368.16982930875008</v>
       </c>
       <c r="AM9" s="2">
@@ -2909,43 +3054,43 @@
       </c>
       <c r="AG10" s="26">
         <f t="shared" ref="AG10:AO10" si="15">SUM(AG7:AG9)</f>
-        <v>1687.1812</v>
+        <v>1647.7540000000008</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="15"/>
-        <v>1861.4577760000002</v>
+        <v>1775.5064800000009</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="15"/>
-        <v>2053.7956496800002</v>
+        <v>1913.2613380000007</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="15"/>
-        <v>2266.0621923304006</v>
+        <v>2061.8075325160016</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="15"/>
-        <v>2500.3169895863925</v>
+        <v>2221.9965934668417</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="15"/>
-        <v>2758.8315318545883</v>
+        <v>2402.2773228358419</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="15"/>
-        <v>3044.1109128804587</v>
+        <v>2589.1846772810131</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="15"/>
-        <v>3358.9177404743477</v>
+        <v>2790.7649471818268</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="15"/>
-        <v>3706.2984840750969</v>
+        <v>3008.1777625895415</v>
       </c>
       <c r="AP10" s="26">
         <f>SUM(AP7:AP8)</f>
-        <v>4244.3968782530064</v>
+        <v>3400.494512471807</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -2953,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="24">
-        <v>11.18</v>
+        <v>11.02</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -3139,7 +3284,7 @@
         <f>Q8+Q11+Q9</f>
         <v>-217.88600000000002</v>
       </c>
-      <c r="R12" s="65">
+      <c r="R12" s="64">
         <f>R8+R11+R9</f>
         <v>-210.50800000000001</v>
       </c>
@@ -3208,23 +3353,23 @@
       </c>
       <c r="AL12" s="2">
         <f t="shared" si="20"/>
-        <v>-1468.1597395246326</v>
+        <v>-1460.6300208622633</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="20"/>
-        <v>-1587.6664262871159</v>
+        <v>-1579.5343301317571</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="20"/>
-        <v>-1717.0494896994419</v>
+        <v>-1708.2668258516542</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="20"/>
-        <v>-1857.138355630897</v>
+        <v>-1847.6530786752865</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" si="20"/>
-        <v>-2066.7694189486037</v>
+        <v>-2053.4900312107484</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -3343,43 +3488,43 @@
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="24"/>
-        <v>1509.1132</v>
+        <v>1469.6860000000008</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="24"/>
-        <v>1665.5829760000004</v>
+        <v>1579.6316800000011</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="24"/>
-        <v>1838.3333696800005</v>
+        <v>1697.799058000001</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="24"/>
-        <v>2029.0536843304005</v>
+        <v>1824.7990245160015</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="24"/>
-        <v>2239.6076307863927</v>
+        <v>1961.2872346668419</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="24"/>
-        <v>2472.0512371745881</v>
+        <v>2115.4970281558421</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="24"/>
-        <v>2728.6525887324583</v>
+        <v>2273.7263531330127</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="24"/>
-        <v>3011.9135839115474</v>
+        <v>2443.760790619026</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="24"/>
-        <v>3324.5939118560168</v>
+        <v>2626.4731903704615</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="24"/>
-        <v>3611.801334992716</v>
+        <v>2767.8989692115165</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -3618,43 +3763,43 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="27"/>
-        <v>1509.1132</v>
+        <v>1469.6860000000008</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="27"/>
-        <v>1665.5829760000004</v>
+        <v>1579.6316800000011</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="27"/>
-        <v>1838.3333696800005</v>
+        <v>1697.799058000001</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" si="27"/>
-        <v>2029.0536843304005</v>
+        <v>1824.7990245160015</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="27"/>
-        <v>2239.6076307863927</v>
+        <v>1961.2872346668419</v>
       </c>
       <c r="AL15" s="2">
         <f t="shared" si="27"/>
-        <v>2472.0512371745881</v>
+        <v>2115.4970281558421</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="27"/>
-        <v>2728.6525887324583</v>
+        <v>2273.7263531330127</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="27"/>
-        <v>3011.9135839115474</v>
+        <v>2443.760790619026</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="27"/>
-        <v>3324.5939118560168</v>
+        <v>2626.4731903704615</v>
       </c>
       <c r="AP15" s="2">
         <f t="shared" si="27"/>
-        <v>3611.801334992716</v>
+        <v>2767.8989692115165</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -3744,43 +3889,43 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" ref="AG16:AP16" si="28">AG15*-0.15</f>
-        <v>-226.36697999999998</v>
+        <v>-220.45290000000011</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="28"/>
-        <v>-249.83744640000003</v>
+        <v>-236.94475200000016</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="28"/>
-        <v>-275.75000545200004</v>
+        <v>-254.66985870000013</v>
       </c>
       <c r="AJ16" s="2">
         <f t="shared" si="28"/>
-        <v>-304.35805264956008</v>
+        <v>-273.71985367740024</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="28"/>
-        <v>-335.94114461795891</v>
+        <v>-294.19308520002625</v>
       </c>
       <c r="AL16" s="2">
         <f t="shared" si="28"/>
-        <v>-370.80768557618819</v>
+        <v>-317.32455422337631</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="28"/>
-        <v>-409.29788830986871</v>
+        <v>-341.05895296995192</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="28"/>
-        <v>-451.78703758673208</v>
+        <v>-366.5641185928539</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="28"/>
-        <v>-498.6890867784025</v>
+        <v>-393.97097855556922</v>
       </c>
       <c r="AP16" s="2">
         <f t="shared" si="28"/>
-        <v>-541.77020024890737</v>
+        <v>-415.18484538172748</v>
       </c>
     </row>
     <row r="17" spans="3:129" x14ac:dyDescent="0.25">
@@ -3898,391 +4043,391 @@
       </c>
       <c r="AG17" s="26">
         <f t="shared" si="31"/>
-        <v>1282.74622</v>
+        <v>1249.2331000000008</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="31"/>
-        <v>1415.7455296000003</v>
+        <v>1342.686928000001</v>
       </c>
       <c r="AI17" s="26">
         <f t="shared" si="31"/>
-        <v>1562.5833642280004</v>
+        <v>1443.1291993000009</v>
       </c>
       <c r="AJ17" s="26">
         <f t="shared" si="31"/>
-        <v>1724.6956316808405</v>
+        <v>1551.0791708386014</v>
       </c>
       <c r="AK17" s="26">
         <f t="shared" si="31"/>
-        <v>1903.6664861684339</v>
+        <v>1667.0941494668157</v>
       </c>
       <c r="AL17" s="26">
         <f t="shared" si="31"/>
-        <v>2101.2435515983998</v>
+        <v>1798.1724739324659</v>
       </c>
       <c r="AM17" s="26">
         <f t="shared" si="31"/>
-        <v>2319.3547004225898</v>
+        <v>1932.6674001630608</v>
       </c>
       <c r="AN17" s="26">
         <f t="shared" si="31"/>
-        <v>2560.1265463248155</v>
+        <v>2077.1966720261721</v>
       </c>
       <c r="AO17" s="26">
         <f t="shared" si="31"/>
-        <v>2825.9048250776141</v>
+        <v>2232.5022118148922</v>
       </c>
       <c r="AP17" s="26">
         <f t="shared" si="31"/>
-        <v>3070.0311347438087</v>
+        <v>2352.7141238297891</v>
       </c>
       <c r="AQ17" s="26">
         <f>AP17*(1+$AS$22)</f>
-        <v>3039.3308233963708</v>
+        <v>2329.186982591491</v>
       </c>
       <c r="AR17" s="26">
         <f t="shared" ref="AR17:BV17" si="32">AQ17*(1+$AS$22)</f>
-        <v>3008.9375151624072</v>
+        <v>2305.895112765576</v>
       </c>
       <c r="AS17" s="26">
         <f t="shared" si="32"/>
-        <v>2978.848140010783</v>
+        <v>2282.8361616379202</v>
       </c>
       <c r="AT17" s="26">
         <f t="shared" si="32"/>
-        <v>2949.0596586106753</v>
+        <v>2260.0078000215408</v>
       </c>
       <c r="AU17" s="26">
         <f t="shared" si="32"/>
-        <v>2919.5690620245687</v>
+        <v>2237.4077220213253</v>
       </c>
       <c r="AV17" s="26">
         <f t="shared" si="32"/>
-        <v>2890.3733714043228</v>
+        <v>2215.0336448011121</v>
       </c>
       <c r="AW17" s="26">
         <f t="shared" si="32"/>
-        <v>2861.4696376902798</v>
+        <v>2192.8833083531008</v>
       </c>
       <c r="AX17" s="26">
         <f t="shared" si="32"/>
-        <v>2832.8549413133769</v>
+        <v>2170.9544752695697</v>
       </c>
       <c r="AY17" s="26">
         <f t="shared" si="32"/>
-        <v>2804.5263919002432</v>
+        <v>2149.2449305168739</v>
       </c>
       <c r="AZ17" s="26">
         <f t="shared" si="32"/>
-        <v>2776.4811279812407</v>
+        <v>2127.7524812117049</v>
       </c>
       <c r="BA17" s="26">
         <f t="shared" si="32"/>
-        <v>2748.7163167014282</v>
+        <v>2106.4749563995879</v>
       </c>
       <c r="BB17" s="26">
         <f t="shared" si="32"/>
-        <v>2721.2291535344139</v>
+        <v>2085.4102068355919</v>
       </c>
       <c r="BC17" s="26">
         <f t="shared" si="32"/>
-        <v>2694.0168619990695</v>
+        <v>2064.5561047672359</v>
       </c>
       <c r="BD17" s="26">
         <f t="shared" si="32"/>
-        <v>2667.0766933790787</v>
+        <v>2043.9105437195635</v>
       </c>
       <c r="BE17" s="26">
         <f t="shared" si="32"/>
-        <v>2640.4059264452881</v>
+        <v>2023.4714382823679</v>
       </c>
       <c r="BF17" s="26">
         <f t="shared" si="32"/>
-        <v>2614.0018671808352</v>
+        <v>2003.2367238995441</v>
       </c>
       <c r="BG17" s="26">
         <f t="shared" si="32"/>
-        <v>2587.8618485090269</v>
+        <v>1983.2043566605487</v>
       </c>
       <c r="BH17" s="26">
         <f t="shared" si="32"/>
-        <v>2561.9832300239368</v>
+        <v>1963.3723130939431</v>
       </c>
       <c r="BI17" s="26">
         <f t="shared" si="32"/>
-        <v>2536.3633977236973</v>
+        <v>1943.7385899630037</v>
       </c>
       <c r="BJ17" s="26">
         <f t="shared" si="32"/>
-        <v>2510.9997637464603</v>
+        <v>1924.3012040633737</v>
       </c>
       <c r="BK17" s="26">
         <f t="shared" si="32"/>
-        <v>2485.8897661089959</v>
+        <v>1905.0581920227398</v>
       </c>
       <c r="BL17" s="26">
         <f t="shared" si="32"/>
-        <v>2461.030868447906</v>
+        <v>1886.0076101025124</v>
       </c>
       <c r="BM17" s="26">
         <f t="shared" si="32"/>
-        <v>2436.4205597634268</v>
+        <v>1867.1475340014872</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="32"/>
-        <v>2412.0563541657925</v>
+        <v>1848.4760586614723</v>
       </c>
       <c r="BO17" s="26">
         <f t="shared" si="32"/>
-        <v>2387.9357906241344</v>
+        <v>1829.9912980748575</v>
       </c>
       <c r="BP17" s="26">
         <f t="shared" si="32"/>
-        <v>2364.0564327178931</v>
+        <v>1811.6913850941089</v>
       </c>
       <c r="BQ17" s="26">
         <f t="shared" si="32"/>
-        <v>2340.415868390714</v>
+        <v>1793.5744712431679</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="32"/>
-        <v>2317.0117097068069</v>
+        <v>1775.6387265307362</v>
       </c>
       <c r="BS17" s="26">
         <f t="shared" si="32"/>
-        <v>2293.8415926097387</v>
+        <v>1757.8823392654288</v>
       </c>
       <c r="BT17" s="26">
         <f t="shared" si="32"/>
-        <v>2270.903176683641</v>
+        <v>1740.3035158727744</v>
       </c>
       <c r="BU17" s="26">
         <f t="shared" si="32"/>
-        <v>2248.1941449168048</v>
+        <v>1722.9004807140466</v>
       </c>
       <c r="BV17" s="26">
         <f t="shared" si="32"/>
-        <v>2225.7122034676368</v>
+        <v>1705.6714759069062</v>
       </c>
       <c r="BW17" s="26">
         <f t="shared" ref="BW17:DB17" si="33">BV17*(1+$AS$22)</f>
-        <v>2203.4550814329605</v>
+        <v>1688.614761147837</v>
       </c>
       <c r="BX17" s="26">
         <f t="shared" si="33"/>
-        <v>2181.4205306186309</v>
+        <v>1671.7286135363586</v>
       </c>
       <c r="BY17" s="26">
         <f t="shared" si="33"/>
-        <v>2159.6063253124444</v>
+        <v>1655.011327400995</v>
       </c>
       <c r="BZ17" s="26">
         <f t="shared" si="33"/>
-        <v>2138.0102620593198</v>
+        <v>1638.4612141269849</v>
       </c>
       <c r="CA17" s="26">
         <f t="shared" si="33"/>
-        <v>2116.6301594387264</v>
+        <v>1622.0766019857151</v>
       </c>
       <c r="CB17" s="26">
         <f t="shared" si="33"/>
-        <v>2095.4638578443391</v>
+        <v>1605.855835965858</v>
       </c>
       <c r="CC17" s="26">
         <f t="shared" si="33"/>
-        <v>2074.5092192658958</v>
+        <v>1589.7972776061995</v>
       </c>
       <c r="CD17" s="26">
         <f t="shared" si="33"/>
-        <v>2053.764127073237</v>
+        <v>1573.8993048301375</v>
       </c>
       <c r="CE17" s="26">
         <f t="shared" si="33"/>
-        <v>2033.2264858025046</v>
+        <v>1558.1603117818361</v>
       </c>
       <c r="CF17" s="26">
         <f t="shared" si="33"/>
-        <v>2012.8942209444795</v>
+        <v>1542.5787086640178</v>
       </c>
       <c r="CG17" s="26">
         <f t="shared" si="33"/>
-        <v>1992.7652787350346</v>
+        <v>1527.1529215773776</v>
       </c>
       <c r="CH17" s="26">
         <f t="shared" si="33"/>
-        <v>1972.8376259476843</v>
+        <v>1511.8813923616037</v>
       </c>
       <c r="CI17" s="26">
         <f t="shared" si="33"/>
-        <v>1953.1092496882075</v>
+        <v>1496.7625784379877</v>
       </c>
       <c r="CJ17" s="26">
         <f t="shared" si="33"/>
-        <v>1933.5781571913253</v>
+        <v>1481.7949526536079</v>
       </c>
       <c r="CK17" s="26">
         <f t="shared" si="33"/>
-        <v>1914.2423756194121</v>
+        <v>1466.9770031270718</v>
       </c>
       <c r="CL17" s="26">
         <f t="shared" si="33"/>
-        <v>1895.0999518632179</v>
+        <v>1452.3072330958012</v>
       </c>
       <c r="CM17" s="26">
         <f t="shared" si="33"/>
-        <v>1876.1489523445857</v>
+        <v>1437.7841607648431</v>
       </c>
       <c r="CN17" s="26">
         <f t="shared" si="33"/>
-        <v>1857.3874628211399</v>
+        <v>1423.4063191571947</v>
       </c>
       <c r="CO17" s="26">
         <f t="shared" si="33"/>
-        <v>1838.8135881929286</v>
+        <v>1409.1722559656228</v>
       </c>
       <c r="CP17" s="26">
         <f t="shared" si="33"/>
-        <v>1820.4254523109994</v>
+        <v>1395.0805334059664</v>
       </c>
       <c r="CQ17" s="26">
         <f t="shared" si="33"/>
-        <v>1802.2211977878894</v>
+        <v>1381.1297280719068</v>
       </c>
       <c r="CR17" s="26">
         <f t="shared" si="33"/>
-        <v>1784.1989858100105</v>
+        <v>1367.3184307911877</v>
       </c>
       <c r="CS17" s="26">
         <f t="shared" si="33"/>
-        <v>1766.3569959519104</v>
+        <v>1353.6452464832757</v>
       </c>
       <c r="CT17" s="26">
         <f t="shared" si="33"/>
-        <v>1748.6934259923914</v>
+        <v>1340.1087940184429</v>
       </c>
       <c r="CU17" s="26">
         <f t="shared" si="33"/>
-        <v>1731.2064917324676</v>
+        <v>1326.7077060782585</v>
       </c>
       <c r="CV17" s="26">
         <f t="shared" si="33"/>
-        <v>1713.8944268151429</v>
+        <v>1313.4406290174759</v>
       </c>
       <c r="CW17" s="26">
         <f t="shared" si="33"/>
-        <v>1696.7554825469915</v>
+        <v>1300.306222727301</v>
       </c>
       <c r="CX17" s="26">
         <f t="shared" si="33"/>
-        <v>1679.7879277215216</v>
+        <v>1287.3031605000281</v>
       </c>
       <c r="CY17" s="26">
         <f t="shared" si="33"/>
-        <v>1662.9900484443062</v>
+        <v>1274.4301288950278</v>
       </c>
       <c r="CZ17" s="26">
         <f t="shared" si="33"/>
-        <v>1646.3601479598631</v>
+        <v>1261.6858276060775</v>
       </c>
       <c r="DA17" s="26">
         <f t="shared" si="33"/>
-        <v>1629.8965464802645</v>
+        <v>1249.0689693300167</v>
       </c>
       <c r="DB17" s="26">
         <f t="shared" si="33"/>
-        <v>1613.5975810154619</v>
+        <v>1236.5782796367164</v>
       </c>
       <c r="DC17" s="26">
         <f t="shared" ref="DC17:DY17" si="34">DB17*(1+$AS$22)</f>
-        <v>1597.4616052053073</v>
+        <v>1224.2124968403491</v>
       </c>
       <c r="DD17" s="26">
         <f t="shared" si="34"/>
-        <v>1581.4869891532542</v>
+        <v>1211.9703718719456</v>
       </c>
       <c r="DE17" s="26">
         <f t="shared" si="34"/>
-        <v>1565.6721192617217</v>
+        <v>1199.8506681532263</v>
       </c>
       <c r="DF17" s="26">
         <f t="shared" si="34"/>
-        <v>1550.0153980691045</v>
+        <v>1187.852161471694</v>
       </c>
       <c r="DG17" s="26">
         <f t="shared" si="34"/>
-        <v>1534.5152440884135</v>
+        <v>1175.9736398569771</v>
       </c>
       <c r="DH17" s="26">
         <f t="shared" si="34"/>
-        <v>1519.1700916475293</v>
+        <v>1164.2139034584072</v>
       </c>
       <c r="DI17" s="26">
         <f t="shared" si="34"/>
-        <v>1503.9783907310539</v>
+        <v>1152.5717644238232</v>
       </c>
       <c r="DJ17" s="26">
         <f t="shared" si="34"/>
-        <v>1488.9386068237434</v>
+        <v>1141.0460467795849</v>
       </c>
       <c r="DK17" s="26">
         <f t="shared" si="34"/>
-        <v>1474.049220755506</v>
+        <v>1129.635586311789</v>
       </c>
       <c r="DL17" s="26">
         <f t="shared" si="34"/>
-        <v>1459.308728547951</v>
+        <v>1118.3392304486711</v>
       </c>
       <c r="DM17" s="26">
         <f t="shared" si="34"/>
-        <v>1444.7156412624715</v>
+        <v>1107.1558381441844</v>
       </c>
       <c r="DN17" s="26">
         <f t="shared" si="34"/>
-        <v>1430.2684848498468</v>
+        <v>1096.0842797627424</v>
       </c>
       <c r="DO17" s="26">
         <f t="shared" si="34"/>
-        <v>1415.9658000013483</v>
+        <v>1085.1234369651149</v>
       </c>
       <c r="DP17" s="26">
         <f t="shared" si="34"/>
-        <v>1401.8061420013348</v>
+        <v>1074.2722025954638</v>
       </c>
       <c r="DQ17" s="26">
         <f t="shared" si="34"/>
-        <v>1387.7880805813215</v>
+        <v>1063.5294805695091</v>
       </c>
       <c r="DR17" s="26">
         <f t="shared" si="34"/>
-        <v>1373.9101997755083</v>
+        <v>1052.894185763814</v>
       </c>
       <c r="DS17" s="26">
         <f t="shared" si="34"/>
-        <v>1360.1710977777532</v>
+        <v>1042.3652439061759</v>
       </c>
       <c r="DT17" s="26">
         <f t="shared" si="34"/>
-        <v>1346.5693867999755</v>
+        <v>1031.9415914671142</v>
       </c>
       <c r="DU17" s="26">
         <f t="shared" si="34"/>
-        <v>1333.1036929319757</v>
+        <v>1021.6221755524431</v>
       </c>
       <c r="DV17" s="26">
         <f t="shared" si="34"/>
-        <v>1319.772656002656</v>
+        <v>1011.4059537969187</v>
       </c>
       <c r="DW17" s="26">
         <f t="shared" si="34"/>
-        <v>1306.5749294426296</v>
+        <v>1001.2918942589495</v>
       </c>
       <c r="DX17" s="26">
         <f t="shared" si="34"/>
-        <v>1293.5091801482033</v>
+        <v>991.27897531635995</v>
       </c>
       <c r="DY17" s="26">
         <f t="shared" si="34"/>
-        <v>1280.5740883467213</v>
+        <v>981.36618556319638</v>
       </c>
     </row>
     <row r="18" spans="3:129" x14ac:dyDescent="0.25">
@@ -4291,63 +4436,63 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ref="D18:P18" si="35">(D17*$B$11)/D19</f>
-        <v>10.355998814734306</v>
+        <v>10.207791318280147</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="35"/>
-        <v>10.523237180801038</v>
+        <v>10.372636290914796</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="35"/>
-        <v>11.602635019541028</v>
+        <v>11.436586575611997</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="35"/>
-        <v>11.719938228537995</v>
+        <v>11.552211026698453</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="35"/>
-        <v>13.160438731941959</v>
+        <v>12.97209613828268</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="35"/>
-        <v>13.818938777736928</v>
+        <v>13.621172212044808</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="35"/>
-        <v>14.263242904571831</v>
+        <v>14.059117782502824</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="35"/>
-        <v>14.817580235053642</v>
+        <v>14.605521841707613</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="35"/>
-        <v>14.236804756483545</v>
+        <v>14.033057997893438</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="35"/>
-        <v>14.257258779017505</v>
+        <v>14.053219297385768</v>
       </c>
       <c r="N18" s="16">
         <f t="shared" si="35"/>
-        <v>17.552659472404599</v>
+        <v>17.30145862127895</v>
       </c>
       <c r="O18" s="16">
         <f t="shared" si="35"/>
-        <v>20.407987242857345</v>
+        <v>20.1159230247127</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="35"/>
-        <v>13.853088460697512</v>
+        <v>13.654833169667851</v>
       </c>
       <c r="Q18" s="16">
         <f>(Q17*$B$11)/Q19</f>
-        <v>13.614668998906703</v>
+        <v>13.419825793197841</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" ref="R18" si="36">(R17*$B$11)/R19</f>
-        <v>13.940910774068358</v>
+        <v>13.741398634189027</v>
       </c>
       <c r="S18" s="16" t="e">
         <f t="shared" ref="S18" si="37">(S17*$B$11)/S19</f>
@@ -4356,87 +4501,87 @@
       <c r="T18" s="16"/>
       <c r="V18" s="16">
         <f t="shared" ref="V18:AA18" si="38">(V17*$B$11)/V19</f>
-        <v>6.1988207685451817</v>
+        <v>6.1101077700686863</v>
       </c>
       <c r="W18" s="16">
         <f t="shared" si="38"/>
-        <v>9.9036915848838554</v>
+        <v>9.7619571793756794</v>
       </c>
       <c r="X18" s="16">
         <f t="shared" si="38"/>
-        <v>19.33961214807395</v>
+        <v>19.062837734505806</v>
       </c>
       <c r="Y18" s="16">
         <f t="shared" si="38"/>
-        <v>25.967974147171152</v>
+        <v>25.596339454546161</v>
       </c>
       <c r="Z18" s="16">
         <f t="shared" si="38"/>
-        <v>9.2617109677495755</v>
+        <v>9.1291641202683653</v>
       </c>
       <c r="AA18" s="16">
         <f t="shared" si="38"/>
-        <v>17.289108942489779</v>
+        <v>17.041679834189388</v>
       </c>
       <c r="AB18" s="16">
         <f t="shared" ref="AB18" si="39">(AB17*$B$11)/AB19</f>
-        <v>31.674907372742531</v>
+        <v>31.221599217139776</v>
       </c>
       <c r="AC18" s="16">
         <f t="shared" ref="AC18:AP18" si="40">(AC17*$B$11)/AC19</f>
-        <v>44.192106157759618</v>
+        <v>43.559660989133356</v>
       </c>
       <c r="AD18" s="16">
         <f t="shared" si="40"/>
-        <v>56.013467056054836</v>
+        <v>55.211843198365315</v>
       </c>
       <c r="AE18" s="16">
         <f>(AE17*$B$11)/AE19</f>
-        <v>67.587711932076289</v>
+        <v>66.620445929470534</v>
       </c>
       <c r="AF18" s="18">
         <f>(AF17*$B$11)/AF19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="AG18" s="16">
         <f t="shared" si="40"/>
-        <v>69.748899436299084</v>
+        <v>66.954518255715954</v>
       </c>
       <c r="AH18" s="16">
         <f t="shared" si="40"/>
-        <v>76.980692698092994</v>
+        <v>71.963316079670932</v>
       </c>
       <c r="AI18" s="16">
         <f t="shared" si="40"/>
-        <v>84.964951159530756</v>
+        <v>77.346669984879995</v>
       </c>
       <c r="AJ18" s="16">
         <f t="shared" si="40"/>
-        <v>93.779751829891381</v>
+        <v>83.13241032436126</v>
       </c>
       <c r="AK18" s="16">
         <f t="shared" si="40"/>
-        <v>103.51123256790025</v>
+        <v>89.350406793154207</v>
       </c>
       <c r="AL18" s="16">
         <f t="shared" si="40"/>
-        <v>114.25441984277194</v>
+        <v>96.375745833853685</v>
       </c>
       <c r="AM18" s="16">
         <f t="shared" si="40"/>
-        <v>126.11414107841441</v>
+        <v>103.5842027612338</v>
       </c>
       <c r="AN18" s="16">
         <f t="shared" si="40"/>
-        <v>139.20603018717861</v>
+        <v>111.33046546548333</v>
       </c>
       <c r="AO18" s="16">
         <f t="shared" si="40"/>
-        <v>153.65763577217234</v>
+        <v>119.6542983826528</v>
       </c>
       <c r="AP18" s="16">
         <f t="shared" si="40"/>
-        <v>166.93192273336271</v>
+        <v>126.09723577964934</v>
       </c>
     </row>
     <row r="19" spans="3:129" x14ac:dyDescent="0.25">
@@ -4565,7 +4710,7 @@
     </row>
     <row r="22" spans="3:129" x14ac:dyDescent="0.25">
       <c r="Q22" s="17"/>
-      <c r="R22" s="66"/>
+      <c r="R22" s="65"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="6"/>
@@ -4681,50 +4826,50 @@
       </c>
       <c r="AG23" s="19">
         <f t="shared" si="50"/>
-        <v>9.4478500782663982E-2</v>
+        <v>7.723925039133224E-2</v>
       </c>
       <c r="AH23" s="19">
         <f t="shared" si="50"/>
-        <v>9.4652440256989628E-2</v>
+        <v>7.7283431155962104E-2</v>
       </c>
       <c r="AI23" s="19">
         <f t="shared" si="50"/>
-        <v>9.4821723207175773E-2</v>
+        <v>7.7327014515028297E-2</v>
       </c>
       <c r="AJ23" s="19">
         <f t="shared" si="50"/>
-        <v>9.4986422643940388E-2</v>
+        <v>7.7370005044062551E-2</v>
       </c>
       <c r="AK23" s="19">
         <f t="shared" si="50"/>
-        <v>9.5146613795821205E-2</v>
+        <v>7.7412407399276129E-2</v>
       </c>
       <c r="AL23" s="19">
         <f t="shared" si="50"/>
-        <v>9.530237384508905E-2</v>
+        <v>7.7454226313034433E-2</v>
       </c>
       <c r="AM23" s="19">
         <f t="shared" si="50"/>
-        <v>9.545378167425575E-2</v>
+        <v>7.7495466589408979E-2</v>
       </c>
       <c r="AN23" s="19">
         <f t="shared" si="50"/>
-        <v>9.5600917623449536E-2</v>
+        <v>7.753613309981737E-2</v>
       </c>
       <c r="AO23" s="19">
         <f t="shared" si="50"/>
-        <v>9.5743863258842141E-2</v>
+        <v>7.7576230778748784E-2</v>
       </c>
       <c r="AP23" s="19">
         <f t="shared" si="50"/>
-        <v>9.5882701152247576E-2</v>
+        <v>7.7615764619576103E-2</v>
       </c>
       <c r="AR23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AS23" s="3">
         <f>NPV(AS21,AF17:DY17)</f>
-        <v>21488.70563564706</v>
+        <v>17799.765367123691</v>
       </c>
     </row>
     <row r="24" spans="3:129" x14ac:dyDescent="0.25">
@@ -4810,50 +4955,50 @@
       </c>
       <c r="AG24" s="10">
         <f t="shared" si="56"/>
-        <v>9.9999999999999978E-2</v>
+        <v>8.0000000000000168E-2</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="56"/>
-        <v>0.1</v>
+        <v>8.0000000000000154E-2</v>
       </c>
       <c r="AI24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000002</v>
+        <v>8.0000000000000085E-2</v>
       </c>
       <c r="AJ24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000012</v>
+        <v>8.0000000000000113E-2</v>
       </c>
       <c r="AK24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000009</v>
+        <v>8.0000000000000127E-2</v>
       </c>
       <c r="AL24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000014</v>
+        <v>8.0000000000000057E-2</v>
       </c>
       <c r="AM24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000009</v>
+        <v>8.000000000000014E-2</v>
       </c>
       <c r="AN24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000017</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AO24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000009</v>
+        <v>8.0000000000000127E-2</v>
       </c>
       <c r="AP24" s="10">
         <f t="shared" si="56"/>
-        <v>0.10000000000000012</v>
+        <v>8.0000000000000029E-2</v>
       </c>
       <c r="AR24" s="22" t="s">
         <v>92</v>
       </c>
       <c r="AS24" s="23">
         <f>AS23*B11</f>
-        <v>240243.72900653412</v>
+        <v>196153.41434570306</v>
       </c>
     </row>
     <row r="25" spans="3:129" x14ac:dyDescent="0.25">
@@ -4904,7 +5049,7 @@
         <f t="shared" si="52"/>
         <v>4.2674253200568587E-3</v>
       </c>
-      <c r="R25" s="73">
+      <c r="R25" s="70">
         <f t="shared" si="53"/>
         <v>4.1379310344827586E-2</v>
       </c>
@@ -4986,9 +5131,9 @@
       <c r="AR25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AS25" s="60">
+      <c r="AS25" s="59">
         <f>AS24/AP19</f>
-        <v>1168.4412279125486</v>
+        <v>954.00507336904764</v>
       </c>
     </row>
     <row r="26" spans="3:129" x14ac:dyDescent="0.25">
@@ -5107,43 +5252,43 @@
       </c>
       <c r="AG26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67402644200998907</v>
+        <v>0.66880982946537404</v>
       </c>
       <c r="AH26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67934775822125049</v>
+        <v>0.66896370267965477</v>
       </c>
       <c r="AI26" s="33">
         <f t="shared" si="63"/>
-        <v>0.68462504232653787</v>
+        <v>0.66912466328747622</v>
       </c>
       <c r="AJ26" s="33">
         <f t="shared" si="63"/>
-        <v>0.68985631145964232</v>
+        <v>0.66929253932552335</v>
       </c>
       <c r="AK26" s="33">
         <f t="shared" si="63"/>
-        <v>0.69503972001858516</v>
+        <v>0.66946716032959741</v>
       </c>
       <c r="AL26" s="33">
         <f t="shared" si="63"/>
-        <v>0.70017355623066324</v>
+        <v>0.67175390860216599</v>
       </c>
       <c r="AM26" s="33">
         <f t="shared" si="63"/>
-        <v>0.70525623854210273</v>
+        <v>0.67194640853814824</v>
       </c>
       <c r="AN26" s="33">
         <f t="shared" si="63"/>
-        <v>0.71028631185938007</v>
+        <v>0.67214508307004994</v>
       </c>
       <c r="AO26" s="33">
         <f t="shared" si="63"/>
-        <v>0.71526244366782255</v>
+        <v>0.67234976880326913</v>
       </c>
       <c r="AP26" s="33">
         <f t="shared" si="63"/>
-        <v>0.74744104849043258</v>
+        <v>0.70529353930454197</v>
       </c>
       <c r="AS26" s="16"/>
     </row>
@@ -5261,55 +5406,55 @@
       </c>
       <c r="AG27" s="31">
         <f t="shared" si="68"/>
-        <v>0.60288853431173195</v>
+        <v>0.59653348923907801</v>
       </c>
       <c r="AH27" s="31">
         <f t="shared" si="68"/>
-        <v>0.60786232997910283</v>
+        <v>0.59516327843696959</v>
       </c>
       <c r="AI27" s="31">
         <f t="shared" si="68"/>
-        <v>0.61280150302370817</v>
+        <v>0.59377106537969704</v>
       </c>
       <c r="AJ27" s="31">
         <f t="shared" si="68"/>
-        <v>0.61770391614286191</v>
+        <v>0.59235615042432388</v>
       </c>
       <c r="AK27" s="31">
         <f t="shared" si="68"/>
-        <v>0.62256756528729584</v>
+        <v>0.59091782563648343</v>
       </c>
       <c r="AL27" s="31">
         <f t="shared" si="68"/>
-        <v>0.62739057674659493</v>
+        <v>0.59156092587277975</v>
       </c>
       <c r="AM27" s="31">
         <f t="shared" si="68"/>
-        <v>0.63217120403693894</v>
+        <v>0.5900785179181135</v>
       </c>
       <c r="AN27" s="31">
         <f t="shared" si="68"/>
-        <v>0.63690782461781414</v>
+        <v>0.58857045673898467</v>
       </c>
       <c r="AO27" s="31">
         <f t="shared" si="68"/>
-        <v>0.64159893646307786</v>
+        <v>0.58703600042352888</v>
       </c>
       <c r="AP27" s="31">
         <f t="shared" si="68"/>
-        <v>0.63604056222877503</v>
+        <v>0.57408746088919593</v>
       </c>
       <c r="AR27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="AS27" s="33">
         <f>(AS25-B4)/B4</f>
-        <v>0.83948556031572497</v>
+        <v>0.54870953469001238</v>
       </c>
     </row>
     <row r="28" spans="3:129" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -7012,7 +7157,7 @@
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="2">
         <v>258.53199999999998</v>
@@ -8068,6 +8213,7 @@
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
+      <c r="V80" s="2"/>
       <c r="Z80" s="26">
         <f t="shared" ref="Z80" si="91">SUM(Z73:Z79)</f>
         <v>175.24299999999997</v>
@@ -8534,7 +8680,7 @@
         <v>-115.758</v>
       </c>
       <c r="AE87" s="2">
-        <v>0</v>
+        <v>-677.98800000000006</v>
       </c>
     </row>
     <row r="88" spans="3:34" x14ac:dyDescent="0.25">
@@ -8587,6 +8733,7 @@
         <v>1.6</v>
       </c>
       <c r="S88" s="2"/>
+      <c r="U88" s="2"/>
       <c r="Z88" s="1">
         <v>0</v>
       </c>
@@ -8682,6 +8829,7 @@
         <f>SUM(L89:O89)</f>
         <v>77.007000000000005</v>
       </c>
+      <c r="AH89" s="2"/>
     </row>
     <row r="90" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
@@ -8733,6 +8881,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="2"/>
+      <c r="V90" s="2"/>
       <c r="Z90" s="2">
         <v>-43.164000000000001</v>
       </c>
@@ -8754,6 +8903,7 @@
         <f>SUM(L90:O90)</f>
         <v>-559.26599999999996</v>
       </c>
+      <c r="AH90" s="2"/>
     </row>
     <row r="91" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C91" s="6" t="s">
@@ -8823,6 +8973,7 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
+      <c r="V91" s="2"/>
       <c r="Z91" s="26">
         <f>SUM(Z86:Z90)</f>
         <v>-35.893999999999998</v>
@@ -8845,8 +8996,9 @@
       </c>
       <c r="AE91" s="26">
         <f>SUM(AE86:AE90)</f>
-        <v>-559.91</v>
-      </c>
+        <v>-1237.8980000000001</v>
+      </c>
+      <c r="AH91" s="2"/>
     </row>
     <row r="92" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D92" s="2"/>
@@ -9050,7 +9202,7 @@
       </c>
       <c r="AE95" s="26">
         <f>AE80+AE84+AE91+AE93</f>
-        <v>494.18300000000022</v>
+        <v>-183.80499999999995</v>
       </c>
     </row>
     <row r="96" spans="3:34" x14ac:dyDescent="0.25">
@@ -9070,6 +9222,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="5"/>
       <c r="S96" s="2"/>
+      <c r="V96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
@@ -9208,6 +9361,9 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
     </row>
     <row r="101" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D101" s="2"/>
@@ -9344,13 +9500,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482E4429-A0A3-E547-8E55-0B09D9392765}">
-  <dimension ref="A2:Y25"/>
+  <dimension ref="A2:AD25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9363,12 +9519,12 @@
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E2" s="38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="42" t="s">
         <v>110</v>
       </c>
@@ -9384,7 +9540,7 @@
       <c r="I4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="69">
         <v>2022</v>
       </c>
       <c r="K4" s="41" t="s">
@@ -9399,7 +9555,7 @@
       <c r="N4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="69">
         <v>2023</v>
       </c>
       <c r="P4" s="41" t="s">
@@ -9414,7 +9570,7 @@
       <c r="S4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="72">
+      <c r="T4" s="69">
         <v>2024</v>
       </c>
       <c r="U4" s="41" t="s">
@@ -9429,745 +9585,885 @@
       <c r="X4" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Y4" s="67">
+      <c r="Y4" s="66">
         <v>2025</v>
       </c>
+      <c r="Z4" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB4" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC4" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD4" s="66">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E5" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="74">
         <v>152.4</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="74">
         <v>151.9</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="74">
         <v>159.19999999999999</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="74">
         <v>170</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="75">
         <f>SUM(F5:I5)</f>
         <v>633.5</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="74">
         <v>173.7</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="74">
         <v>175.2</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="74">
         <v>175.1</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="74">
         <v>185.8</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="75">
         <f>SUM(K5:N5)</f>
         <v>709.8</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="74">
         <v>191</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="74">
         <v>191.3</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="74">
         <v>194.9</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="74">
         <v>201.8</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="75">
         <f>SUM(P5:S5)</f>
         <v>779</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="25">
         <v>189.7</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="25">
         <v>180.2</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="25">
         <v>182.2</v>
       </c>
-      <c r="Y5" s="68">
+      <c r="X5" s="25"/>
+      <c r="Y5" s="75">
         <f>SUM(U5:X5)</f>
         <v>552.09999999999991</v>
       </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="75">
+        <f>SUM(Z5:AC5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E6" s="51" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E6" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <f t="shared" ref="F6:R6" si="0">F5/F15</f>
         <v>0.46619761394921994</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <f t="shared" si="0"/>
         <v>0.44156976744186049</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0.42060766182298542</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <f t="shared" si="0"/>
         <v>0.41717791411042948</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="67">
         <f t="shared" si="0"/>
         <v>0.43482737318964931</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <f t="shared" si="0"/>
         <v>0.40432960893854741</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <f t="shared" si="0"/>
         <v>0.3971888460666515</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <f t="shared" si="0"/>
         <v>0.38687582854617764</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <f t="shared" si="0"/>
         <v>0.3909110035766884</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="67">
         <f>O5/O15</f>
         <v>0.3946402757700434</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="47">
         <f t="shared" si="0"/>
         <v>0.38085742771684938</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="47">
         <f t="shared" si="0"/>
         <v>0.37627852084972463</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="47">
         <f t="shared" si="0"/>
         <v>0.37516843118383064</v>
       </c>
-      <c r="S6" s="48">
+      <c r="S6" s="47">
         <f>S5/S15</f>
         <v>0.37804421131509924</v>
       </c>
-      <c r="T6" s="69">
+      <c r="T6" s="67">
         <f>T5/T15</f>
         <v>0.3775688251260178</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="47">
         <f>U5/U15</f>
         <v>0.3641773852946823</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="47">
         <f>V5/V15</f>
         <v>0.34369635704749191</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="47">
         <f>W5/W15</f>
         <v>0.35922712933753947</v>
       </c>
-      <c r="X6" s="48" t="e">
+      <c r="X6" s="47" t="e">
         <f t="shared" ref="X6" si="1">X5/X15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y6" s="69">
+      <c r="Y6" s="67">
         <f>Y5/Y15</f>
         <v>0.35564287554753926</v>
       </c>
+      <c r="Z6" s="47" t="e">
+        <f>Z5/Z15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="47" t="e">
+        <f>AA5/AA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" s="47" t="e">
+        <f>AB5/AB15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="47" t="e">
+        <f t="shared" ref="AC6" si="2">AC5/AC15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" s="67" t="e">
+        <f>AD5/AD15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="25">
         <v>103.4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="25">
         <v>110.9</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="25">
         <v>127.8</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="25">
         <v>136.19999999999999</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="75">
         <f>SUM(F7:I7)</f>
         <v>478.3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="25">
         <v>154</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="25">
         <v>164.5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="25">
         <v>172.1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="25">
         <v>181.7</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="75">
         <f>SUM(K7:N7)</f>
         <v>672.3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="25">
         <v>197.6</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="25">
         <v>200.7</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="25">
         <v>202.2</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="25">
         <v>202.2</v>
       </c>
-      <c r="T7" s="68">
+      <c r="T7" s="75">
         <f>SUM(P7:S7)</f>
         <v>802.7</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="25">
         <v>201.9</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="25">
         <v>209.1</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="25">
         <v>189.1</v>
       </c>
-      <c r="Y7" s="68">
+      <c r="X7" s="25"/>
+      <c r="Y7" s="75">
         <f>SUM(U7:X7)</f>
         <v>600.1</v>
       </c>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="75">
+        <f>SUM(Z7:AC7)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E8" s="49" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E8" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="48">
-        <f t="shared" ref="F8:R8" si="2">F7/F15</f>
+      <c r="F8" s="47">
+        <f t="shared" ref="F8:R8" si="3">F7/F15</f>
         <v>0.31630468033037623</v>
       </c>
-      <c r="G8" s="48">
-        <f t="shared" si="2"/>
+      <c r="G8" s="47">
+        <f t="shared" si="3"/>
         <v>0.3223837209302326</v>
       </c>
-      <c r="H8" s="48">
-        <f t="shared" si="2"/>
+      <c r="H8" s="47">
+        <f t="shared" si="3"/>
         <v>0.33764861294583881</v>
       </c>
-      <c r="I8" s="48">
-        <f t="shared" si="2"/>
+      <c r="I8" s="47">
+        <f t="shared" si="3"/>
         <v>0.33423312883435585</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="67">
         <f>J7/J15</f>
         <v>0.32829981467499492</v>
       </c>
-      <c r="K8" s="48">
-        <f t="shared" si="2"/>
+      <c r="K8" s="47">
+        <f t="shared" si="3"/>
         <v>0.35847299813780259</v>
       </c>
-      <c r="L8" s="48">
-        <f t="shared" si="2"/>
+      <c r="L8" s="47">
+        <f t="shared" si="3"/>
         <v>0.37293130809340286</v>
       </c>
-      <c r="M8" s="48">
-        <f t="shared" si="2"/>
+      <c r="M8" s="47">
+        <f t="shared" si="3"/>
         <v>0.38024745912505525</v>
       </c>
-      <c r="N8" s="48">
-        <f t="shared" si="2"/>
+      <c r="N8" s="47">
+        <f t="shared" si="3"/>
         <v>0.38228487271197131</v>
       </c>
-      <c r="O8" s="69">
-        <f t="shared" si="2"/>
+      <c r="O8" s="67">
+        <f t="shared" si="3"/>
         <v>0.37379072612031583</v>
       </c>
-      <c r="P8" s="48">
-        <f t="shared" si="2"/>
+      <c r="P8" s="47">
+        <f t="shared" si="3"/>
         <v>0.39401794616151542</v>
       </c>
-      <c r="Q8" s="48">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="47">
+        <f t="shared" si="3"/>
         <v>0.3947678992918961</v>
       </c>
-      <c r="R8" s="48">
-        <f t="shared" si="2"/>
+      <c r="R8" s="47">
+        <f t="shared" si="3"/>
         <v>0.38922040423484117</v>
       </c>
-      <c r="S8" s="48">
+      <c r="S8" s="47">
         <f>S7/S15</f>
         <v>0.37879355563881595</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="67">
         <f>T7/T15</f>
         <v>0.38905583559519191</v>
       </c>
-      <c r="U8" s="48">
-        <f t="shared" ref="U8:X8" si="3">U7/U15</f>
+      <c r="U8" s="47">
+        <f t="shared" ref="U8:X8" si="4">U7/U15</f>
         <v>0.387598387406412</v>
       </c>
-      <c r="V8" s="48">
-        <f t="shared" si="3"/>
+      <c r="V8" s="47">
+        <f t="shared" si="4"/>
         <v>0.39881747091359909</v>
       </c>
-      <c r="W8" s="48">
-        <f t="shared" si="3"/>
+      <c r="W8" s="47">
+        <f t="shared" si="4"/>
         <v>0.37283123028391169</v>
       </c>
-      <c r="X8" s="48" t="e">
-        <f t="shared" si="3"/>
+      <c r="X8" s="47" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="69">
+      <c r="Y8" s="67">
         <f>Y7/Y15</f>
         <v>0.38656274156145326</v>
       </c>
+      <c r="Z8" s="47" t="e">
+        <f t="shared" ref="Z8:AC8" si="5">Z7/Z15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8" s="67" t="e">
+        <f>AD7/AD15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="25">
         <v>36.799999999999997</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="25">
         <v>46.1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="25">
         <v>50.2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="25">
         <v>56.2</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="75">
         <f>SUM(F9:I9)</f>
         <v>189.3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="25">
         <v>57.3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="25">
         <v>55.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="25">
         <v>54.7</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="25">
         <v>59.1</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="75">
         <f>SUM(K9:N9)</f>
         <v>226.6</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="25">
         <v>62.1</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="25">
         <v>60.2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="25">
         <v>64.8</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="25">
         <v>70.599999999999994</v>
       </c>
-      <c r="T9" s="68">
+      <c r="T9" s="75">
         <f>SUM(P9:S9)</f>
         <v>257.70000000000005</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="25">
         <v>71.5</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="25">
         <v>74</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="25">
         <v>74.2</v>
       </c>
-      <c r="Y9" s="68">
+      <c r="X9" s="25"/>
+      <c r="Y9" s="75">
         <f>SUM(U9:X9)</f>
         <v>219.7</v>
       </c>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="75">
+        <f>SUM(Z9:AC9)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E10" s="51" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E10" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="48">
-        <f t="shared" ref="F10:R10" si="4">F9/F15</f>
+      <c r="F10" s="47">
+        <f t="shared" ref="F10:R10" si="6">F9/F15</f>
         <v>0.1125726521872132</v>
       </c>
-      <c r="G10" s="48">
-        <f t="shared" si="4"/>
+      <c r="G10" s="47">
+        <f t="shared" si="6"/>
         <v>0.13401162790697674</v>
       </c>
-      <c r="H10" s="48">
-        <f t="shared" si="4"/>
+      <c r="H10" s="47">
+        <f t="shared" si="6"/>
         <v>0.13262879788639367</v>
       </c>
-      <c r="I10" s="48">
-        <f t="shared" si="4"/>
+      <c r="I10" s="47">
+        <f t="shared" si="6"/>
         <v>0.13791411042944787</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="67">
         <f>J9/J15</f>
         <v>0.12993342027592836</v>
       </c>
-      <c r="K10" s="48">
-        <f t="shared" si="4"/>
+      <c r="K10" s="47">
+        <f t="shared" si="6"/>
         <v>0.13337988826815642</v>
       </c>
-      <c r="L10" s="48">
-        <f t="shared" si="4"/>
+      <c r="L10" s="47">
+        <f t="shared" si="6"/>
         <v>0.12582180911357968</v>
       </c>
-      <c r="M10" s="48">
-        <f t="shared" si="4"/>
+      <c r="M10" s="47">
+        <f t="shared" si="6"/>
         <v>0.12085726911179852</v>
       </c>
-      <c r="N10" s="48">
-        <f t="shared" si="4"/>
+      <c r="N10" s="47">
+        <f t="shared" si="6"/>
         <v>0.12434252051335996</v>
       </c>
-      <c r="O10" s="69">
-        <f t="shared" si="4"/>
+      <c r="O10" s="67">
+        <f t="shared" si="6"/>
         <v>0.12598687868342046</v>
       </c>
-      <c r="P10" s="48">
-        <f t="shared" si="4"/>
+      <c r="P10" s="47">
+        <f t="shared" si="6"/>
         <v>0.1238285144566301</v>
       </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="47">
+        <f t="shared" si="6"/>
         <v>0.11841070023603462</v>
       </c>
-      <c r="R10" s="48">
-        <f t="shared" si="4"/>
+      <c r="R10" s="47">
+        <f t="shared" si="6"/>
         <v>0.12473532242540904</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S10" s="47">
         <f>S9/S15</f>
         <v>0.13225927313600597</v>
       </c>
-      <c r="T10" s="69">
+      <c r="T10" s="67">
         <f>T9/T15</f>
         <v>0.12490306320279179</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="47">
         <f>U9/U15</f>
         <v>0.13726243040890768</v>
       </c>
-      <c r="V10" s="48">
-        <f t="shared" ref="V10:X10" si="5">V9/V15</f>
+      <c r="V10" s="47">
+        <f t="shared" ref="V10:X10" si="7">V9/V15</f>
         <v>0.14114056837688346</v>
       </c>
-      <c r="W10" s="48">
-        <f t="shared" si="5"/>
+      <c r="W10" s="47">
+        <f t="shared" si="7"/>
         <v>0.1462933753943218</v>
       </c>
-      <c r="X10" s="48" t="e">
-        <f t="shared" si="5"/>
+      <c r="X10" s="47" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="69">
+      <c r="Y10" s="67">
         <f>Y9/Y15</f>
         <v>0.14152280340118525</v>
       </c>
+      <c r="Z10" s="47" t="e">
+        <f>Z9/Z15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="47" t="e">
+        <f t="shared" ref="AA10:AC10" si="8">AA9/AA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="47" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="47" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10" s="67" t="e">
+        <f>AD9/AD15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="25">
         <v>17.2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="25">
         <v>19.399999999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="25">
         <v>24.8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="25">
         <v>26.9</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="75">
         <f>SUM(F11:I11)</f>
         <v>88.299999999999983</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="25">
         <v>30</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="25">
         <v>31.3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="25">
         <v>34.4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="25">
         <v>32.1</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="75">
         <f>SUM(K11:N11)</f>
         <v>127.79999999999998</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="25">
         <v>33</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="25">
         <v>36.6</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="25">
         <v>37.4</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="25">
         <v>38.5</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="75">
         <f>SUM(P11:S11)</f>
         <v>145.5</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="25">
         <v>36.200000000000003</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="25">
         <v>37.6</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="25">
         <v>39.799999999999997</v>
       </c>
-      <c r="Y11" s="68">
+      <c r="X11" s="25"/>
+      <c r="Y11" s="75">
         <f>SUM(U11:X11)</f>
         <v>113.60000000000001</v>
       </c>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="75">
+        <f>SUM(Z11:AC11)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E12" s="51" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E12" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="48">
-        <f t="shared" ref="F12:R12" si="6">F11/F15</f>
+      <c r="F12" s="47">
+        <f t="shared" ref="F12:R12" si="9">F11/F15</f>
         <v>5.2615478739675738E-2</v>
       </c>
-      <c r="G12" s="48">
-        <f t="shared" si="6"/>
+      <c r="G12" s="47">
+        <f t="shared" si="9"/>
         <v>5.63953488372093E-2</v>
       </c>
-      <c r="H12" s="48">
-        <f t="shared" si="6"/>
+      <c r="H12" s="47">
+        <f t="shared" si="9"/>
         <v>6.5521796565389701E-2</v>
       </c>
-      <c r="I12" s="48">
-        <f t="shared" si="6"/>
+      <c r="I12" s="47">
+        <f t="shared" si="9"/>
         <v>6.6012269938650309E-2</v>
       </c>
-      <c r="J12" s="69">
-        <f t="shared" si="6"/>
+      <c r="J12" s="67">
+        <f t="shared" si="9"/>
         <v>6.0608140572448344E-2</v>
       </c>
-      <c r="K12" s="48">
-        <f t="shared" si="6"/>
+      <c r="K12" s="47">
+        <f t="shared" si="9"/>
         <v>6.9832402234636867E-2</v>
       </c>
-      <c r="L12" s="48">
-        <f t="shared" si="6"/>
+      <c r="L12" s="47">
+        <f t="shared" si="9"/>
         <v>7.0958966220811603E-2</v>
       </c>
-      <c r="M12" s="48">
-        <f t="shared" si="6"/>
+      <c r="M12" s="47">
+        <f t="shared" si="9"/>
         <v>7.6005302695536903E-2</v>
       </c>
-      <c r="N12" s="48">
-        <f t="shared" si="6"/>
+      <c r="N12" s="47">
+        <f t="shared" si="9"/>
         <v>6.7536292867662523E-2</v>
       </c>
-      <c r="O12" s="69">
-        <f t="shared" si="6"/>
+      <c r="O12" s="67">
+        <f t="shared" si="9"/>
         <v>7.1055265206271548E-2</v>
       </c>
-      <c r="P12" s="48">
-        <f t="shared" si="6"/>
+      <c r="P12" s="47">
+        <f t="shared" si="9"/>
         <v>6.580259222333E-2</v>
       </c>
-      <c r="Q12" s="48">
-        <f t="shared" si="6"/>
+      <c r="Q12" s="47">
+        <f t="shared" si="9"/>
         <v>7.1990558615263572E-2</v>
       </c>
-      <c r="R12" s="48">
-        <f t="shared" si="6"/>
+      <c r="R12" s="47">
+        <f t="shared" si="9"/>
         <v>7.1992300288739167E-2</v>
       </c>
-      <c r="S12" s="48">
+      <c r="S12" s="47">
         <f>S11/S15</f>
         <v>7.2124391157736972E-2</v>
       </c>
-      <c r="T12" s="69">
+      <c r="T12" s="67">
         <f>T11/T15</f>
         <v>7.052151996898022E-2</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="47">
         <f>U11/U15</f>
         <v>6.9495104626607809E-2</v>
       </c>
-      <c r="V12" s="48">
-        <f t="shared" ref="V12:X12" si="7">V11/V15</f>
+      <c r="V12" s="47">
+        <f t="shared" ref="V12:X12" si="10">V11/V15</f>
         <v>7.1714667175281341E-2</v>
       </c>
-      <c r="W12" s="48">
-        <f t="shared" si="7"/>
+      <c r="W12" s="47">
+        <f t="shared" si="10"/>
         <v>7.8470031545741337E-2</v>
       </c>
-      <c r="X12" s="48" t="e">
-        <f t="shared" si="7"/>
+      <c r="X12" s="47" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="69">
+      <c r="Y12" s="67">
         <f>Y11/Y15</f>
         <v>7.3177016232929673E-2</v>
       </c>
+      <c r="Z12" s="47" t="e">
+        <f>Z11/Z15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="47" t="e">
+        <f t="shared" ref="AA12:AC12" si="11">AA11/AA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="47" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="47" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="67" t="e">
+        <f>AD11/AD15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="25">
         <v>17.100000000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="25">
         <v>15.7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="25">
         <v>16.5</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="25">
         <v>18.2</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="75">
         <f>SUM(F13:I13)</f>
         <v>67.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="25">
         <v>14.6</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="25">
         <v>14.6</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="25">
         <v>16.3</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="25">
         <v>16.600000000000001</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="75">
         <f>SUM(K13:N13)</f>
         <v>62.1</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="25">
         <v>17.8</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="25">
         <v>19.600000000000001</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="25">
         <v>20.2</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="25">
         <v>20.7</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="75">
         <f>SUM(P13:S13)</f>
         <v>78.300000000000011</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="25">
         <v>21.6</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="25">
         <v>23.4</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="25">
         <v>21.9</v>
       </c>
-      <c r="Y13" s="68">
+      <c r="X13" s="25"/>
+      <c r="Y13" s="75">
         <f>SUM(U13:X13)</f>
         <v>66.900000000000006</v>
       </c>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="75">
+        <f>SUM(Z13:AC13)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>118</v>
       </c>
       <c r="F14" s="43">
-        <f t="shared" ref="F14:R14" si="8">F13/F15</f>
+        <f t="shared" ref="F14:R14" si="12">F13/F15</f>
         <v>5.2309574793514835E-2</v>
       </c>
       <c r="G14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5639534883720925E-2</v>
       </c>
       <c r="H14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3593130779392336E-2</v>
       </c>
       <c r="I14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4662576687116567E-2</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="68">
         <f>J13/J15</f>
         <v>4.6331251286979208E-2</v>
       </c>
       <c r="K14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.398510242085661E-2</v>
       </c>
       <c r="L14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3099070505554294E-2</v>
       </c>
       <c r="M14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6014140521431731E-2</v>
       </c>
       <c r="N14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4925310330317691E-2</v>
       </c>
-      <c r="O14" s="70">
+      <c r="O14" s="68">
         <f>O13/O15</f>
         <v>3.4526854219948853E-2</v>
       </c>
       <c r="P14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5493519441674976E-2</v>
       </c>
       <c r="Q14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8552321007081038E-2</v>
       </c>
       <c r="R14" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8883541867179981E-2</v>
       </c>
       <c r="S14" s="43">
         <f>S13/S15</f>
         <v>3.8778568752341695E-2</v>
       </c>
-      <c r="T14" s="70">
+      <c r="T14" s="68">
         <f>T13/T15</f>
         <v>3.7950756107018223E-2</v>
       </c>
@@ -10176,105 +10472,145 @@
         <v>4.1466692263390288E-2</v>
       </c>
       <c r="V14" s="43">
-        <f t="shared" ref="V14:X14" si="9">V13/V15</f>
+        <f t="shared" ref="V14:X14" si="13">V13/V15</f>
         <v>4.4630936486744231E-2</v>
       </c>
       <c r="W14" s="43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.3178233438485807E-2</v>
       </c>
       <c r="X14" s="43" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="70">
+      <c r="Y14" s="68">
         <f>Y13/Y15</f>
         <v>4.3094563256892558E-2</v>
       </c>
+      <c r="Z14" s="43" t="e">
+        <f>Z13/Z15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="43" t="e">
+        <f t="shared" ref="AA14:AC14" si="14">AA13/AA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="43" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="43" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="68" t="e">
+        <f>AD13/AD15</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E15" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:R15" si="10">F5+F7+F9+F11+F13</f>
+      <c r="F15" s="26">
+        <f t="shared" ref="F15:R15" si="15">F5+F7+F9+F11+F13</f>
         <v>326.90000000000003</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="10"/>
+      <c r="G15" s="26">
+        <f t="shared" si="15"/>
         <v>344</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="10"/>
+      <c r="H15" s="26">
+        <f t="shared" si="15"/>
         <v>378.5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="26">
         <f>I5+I7+I9+I11+I13</f>
         <v>407.49999999999994</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="76">
         <f>J5+J7+J9+J11+J13</f>
         <v>1456.8999999999999</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="10"/>
+      <c r="K15" s="26">
+        <f t="shared" si="15"/>
         <v>429.6</v>
       </c>
-      <c r="L15" s="6">
-        <f t="shared" si="10"/>
+      <c r="L15" s="26">
+        <f t="shared" si="15"/>
         <v>441.1</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="10"/>
+      <c r="M15" s="26">
+        <f t="shared" si="15"/>
         <v>452.59999999999997</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" si="10"/>
+      <c r="N15" s="26">
+        <f t="shared" si="15"/>
         <v>475.30000000000007</v>
       </c>
-      <c r="O15" s="71">
-        <f t="shared" si="10"/>
+      <c r="O15" s="76">
+        <f t="shared" si="15"/>
         <v>1798.5999999999997</v>
       </c>
-      <c r="P15" s="6">
-        <f t="shared" si="10"/>
+      <c r="P15" s="26">
+        <f t="shared" si="15"/>
         <v>501.50000000000006</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="10"/>
+      <c r="Q15" s="26">
+        <f t="shared" si="15"/>
         <v>508.40000000000003</v>
       </c>
-      <c r="R15" s="6">
-        <f t="shared" si="10"/>
+      <c r="R15" s="26">
+        <f t="shared" si="15"/>
         <v>519.5</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="26">
         <f>S5+S7+S9+S11+S13</f>
         <v>533.80000000000007</v>
       </c>
-      <c r="T15" s="71">
-        <f t="shared" ref="T15:Y15" si="11">T5+T7+T9+T11+T13</f>
+      <c r="T15" s="76">
+        <f t="shared" ref="T15:Y15" si="16">T5+T7+T9+T11+T13</f>
         <v>2063.2000000000003</v>
       </c>
-      <c r="U15" s="6">
-        <f t="shared" si="11"/>
+      <c r="U15" s="26">
+        <f t="shared" si="16"/>
         <v>520.9</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="26">
         <f>V5+V7+V9+V11+V13</f>
         <v>524.29999999999995</v>
       </c>
-      <c r="W15" s="6">
-        <f t="shared" si="11"/>
+      <c r="W15" s="26">
+        <f t="shared" si="16"/>
         <v>507.19999999999993</v>
       </c>
-      <c r="X15" s="6">
-        <f t="shared" si="11"/>
+      <c r="X15" s="26">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="71">
-        <f t="shared" si="11"/>
+      <c r="Y15" s="76">
+        <f t="shared" si="16"/>
         <v>1552.3999999999999</v>
+      </c>
+      <c r="Z15" s="26">
+        <f t="shared" ref="Z15" si="17">Z5+Z7+Z9+Z11+Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <f>AA5+AA7+AA9+AA11+AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="26">
+        <f t="shared" ref="AB15:AD15" si="18">AB5+AB7+AB9+AB11+AB13</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="76">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.25">
@@ -10322,7 +10658,9 @@
       <c r="V17" s="10">
         <v>0.44</v>
       </c>
-      <c r="W17" s="10"/>
+      <c r="W17" s="10">
+        <v>0.46</v>
+      </c>
       <c r="X17" s="10"/>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.25">
@@ -10331,32 +10669,32 @@
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="J20" s="59"/>
-      <c r="O20" s="61" t="s">
+      <c r="J20" s="58"/>
+      <c r="O20" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="T20" s="61" t="s">
+      <c r="T20" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="Y20" s="61" t="s">
+      <c r="Y20" s="60" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29">
-        <f t="shared" ref="G21:R21" si="12">(G5-F5)/F5</f>
+        <f t="shared" ref="G21:R21" si="19">(G5-F5)/F5</f>
         <v>-3.2808398950131233E-3</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4.8057932850559468E-2</v>
       </c>
       <c r="I21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.7839195979899569E-2</v>
       </c>
       <c r="J21" s="29"/>
@@ -10365,18 +10703,18 @@
         <v>2.1764705882352874E-2</v>
       </c>
       <c r="L21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8.6355785837651123E-3</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>-5.7077625570773011E-4</v>
       </c>
       <c r="N21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6.1107938320959551E-2</v>
       </c>
-      <c r="O21" s="62">
+      <c r="O21" s="61">
         <f>(O5-J5)/J5</f>
         <v>0.12044198895027618</v>
       </c>
@@ -10385,18 +10723,18 @@
         <v>2.7987082884822326E-2</v>
       </c>
       <c r="Q21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.5706806282723108E-3</v>
       </c>
       <c r="R21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.8818609513852558E-2</v>
       </c>
       <c r="S21" s="29">
         <f>(S5-R5)/R5</f>
         <v>3.540277065161624E-2</v>
       </c>
-      <c r="T21" s="62">
+      <c r="T21" s="61">
         <f>(T5-O5)/O5</f>
         <v>9.749225133840525E-2</v>
       </c>
@@ -10405,7 +10743,7 @@
         <v>-5.9960356788900007E-2</v>
       </c>
       <c r="V21" s="29">
-        <f t="shared" ref="V21" si="13">(V5-U5)/U5</f>
+        <f t="shared" ref="V21" si="20">(V5-U5)/U5</f>
         <v>-5.0079072219293627E-2</v>
       </c>
       <c r="W21" s="29">
@@ -10416,66 +10754,66 @@
         <f>(X5-W5)/W5</f>
         <v>-1</v>
       </c>
-      <c r="Y21" s="62">
+      <c r="Y21" s="61">
         <f>(Y5-T5)/T5</f>
         <v>-0.29127086007702196</v>
       </c>
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54">
-        <f t="shared" ref="G22:R22" si="14">(G7-F7)/F7</f>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53">
+        <f t="shared" ref="G22:R22" si="21">(G7-F7)/F7</f>
         <v>7.2533849129593805E-2</v>
       </c>
-      <c r="H22" s="54">
-        <f t="shared" si="14"/>
+      <c r="H22" s="53">
+        <f t="shared" si="21"/>
         <v>0.15238954012623976</v>
       </c>
-      <c r="I22" s="54">
-        <f t="shared" si="14"/>
+      <c r="I22" s="53">
+        <f t="shared" si="21"/>
         <v>6.5727699530516367E-2</v>
       </c>
       <c r="J22" s="29"/>
-      <c r="K22" s="54">
+      <c r="K22" s="53">
         <f>(K7-I7)/I7</f>
         <v>0.13069016152716603</v>
       </c>
-      <c r="L22" s="54">
-        <f t="shared" si="14"/>
+      <c r="L22" s="53">
+        <f t="shared" si="21"/>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="M22" s="54">
-        <f t="shared" si="14"/>
+      <c r="M22" s="53">
+        <f t="shared" si="21"/>
         <v>4.620060790273553E-2</v>
       </c>
-      <c r="N22" s="54">
-        <f t="shared" si="14"/>
+      <c r="N22" s="53">
+        <f t="shared" si="21"/>
         <v>5.5781522370714667E-2</v>
       </c>
-      <c r="O22" s="62">
+      <c r="O22" s="61">
         <f>(O7-J7)/J7</f>
         <v>0.40560317792180628</v>
       </c>
-      <c r="P22" s="54">
+      <c r="P22" s="53">
         <f>(P7-N7)/N7</f>
         <v>8.7506879471656612E-2</v>
       </c>
-      <c r="Q22" s="54">
-        <f t="shared" si="14"/>
+      <c r="Q22" s="53">
+        <f t="shared" si="21"/>
         <v>1.5688259109311712E-2</v>
       </c>
-      <c r="R22" s="54">
-        <f t="shared" si="14"/>
+      <c r="R22" s="53">
+        <f t="shared" si="21"/>
         <v>7.4738415545590438E-3</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="53">
         <f>(S7-R7)/R7</f>
         <v>0</v>
       </c>
-      <c r="T22" s="62">
+      <c r="T22" s="61">
         <f>(T7-O7)/O7</f>
         <v>0.19396102930239492</v>
       </c>
@@ -10483,78 +10821,78 @@
         <f>(U7-S7)/S7</f>
         <v>-1.4836795252224676E-3</v>
       </c>
-      <c r="V22" s="54">
-        <f t="shared" ref="V22:W22" si="15">(V7-U7)/U7</f>
+      <c r="V22" s="53">
+        <f t="shared" ref="V22:W22" si="22">(V7-U7)/U7</f>
         <v>3.5661218424962796E-2</v>
       </c>
-      <c r="W22" s="54">
-        <f t="shared" si="15"/>
+      <c r="W22" s="53">
+        <f t="shared" si="22"/>
         <v>-9.5648015303682457E-2</v>
       </c>
-      <c r="X22" s="54">
+      <c r="X22" s="53">
         <f>(X7-W7)/W7</f>
         <v>-1</v>
       </c>
-      <c r="Y22" s="62">
+      <c r="Y22" s="61">
         <f>(Y7-T7)/T7</f>
         <v>-0.25239815622274825</v>
       </c>
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53">
         <f>(G9-F9)/F9</f>
         <v>0.25271739130434795</v>
       </c>
-      <c r="H23" s="54">
-        <f t="shared" ref="H23:R23" si="16">(H9-G9)/G9</f>
+      <c r="H23" s="53">
+        <f t="shared" ref="H23:R23" si="23">(H9-G9)/G9</f>
         <v>8.8937093275488099E-2</v>
       </c>
-      <c r="I23" s="54">
-        <f t="shared" si="16"/>
+      <c r="I23" s="53">
+        <f t="shared" si="23"/>
         <v>0.1195219123505976</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54">
+      <c r="J23" s="53"/>
+      <c r="K23" s="53">
         <f>(K9-I9)/I9</f>
         <v>1.9572953736654703E-2</v>
       </c>
-      <c r="L23" s="54">
-        <f t="shared" si="16"/>
+      <c r="L23" s="53">
+        <f t="shared" si="23"/>
         <v>-3.1413612565444976E-2</v>
       </c>
-      <c r="M23" s="54">
-        <f t="shared" si="16"/>
+      <c r="M23" s="53">
+        <f t="shared" si="23"/>
         <v>-1.4414414414414363E-2</v>
       </c>
-      <c r="N23" s="54">
-        <f t="shared" si="16"/>
+      <c r="N23" s="53">
+        <f t="shared" si="23"/>
         <v>8.0438756855575833E-2</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="62">
         <f>(O9-J9)/J9</f>
         <v>0.1970417326994188</v>
       </c>
-      <c r="P23" s="54">
+      <c r="P23" s="53">
         <f>(P9-N9)/N9</f>
         <v>5.0761421319796954E-2</v>
       </c>
-      <c r="Q23" s="54">
-        <f t="shared" si="16"/>
+      <c r="Q23" s="53">
+        <f t="shared" si="23"/>
         <v>-3.0595813204508833E-2</v>
       </c>
-      <c r="R23" s="54">
-        <f t="shared" si="16"/>
+      <c r="R23" s="53">
+        <f t="shared" si="23"/>
         <v>7.6411960132890269E-2</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="53">
         <f>(S9-R9)/R9</f>
         <v>8.9506172839506126E-2</v>
       </c>
-      <c r="T23" s="63">
+      <c r="T23" s="62">
         <f>(T9-O9)/O9</f>
         <v>0.13724624889673456</v>
       </c>
@@ -10562,78 +10900,78 @@
         <f>(U9-S9)/S9</f>
         <v>1.274787535410773E-2</v>
       </c>
-      <c r="V23" s="54">
-        <f t="shared" ref="V23:X23" si="17">(V9-U9)/U9</f>
+      <c r="V23" s="53">
+        <f t="shared" ref="V23:X23" si="24">(V9-U9)/U9</f>
         <v>3.4965034965034968E-2</v>
       </c>
-      <c r="W23" s="54">
-        <f t="shared" si="17"/>
+      <c r="W23" s="53">
+        <f t="shared" si="24"/>
         <v>2.702702702702741E-3</v>
       </c>
-      <c r="X23" s="54">
-        <f t="shared" si="17"/>
+      <c r="X23" s="53">
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="Y23" s="63">
+      <c r="Y23" s="62">
         <f>(Y9-T9)/T9</f>
         <v>-0.14745828482731879</v>
       </c>
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54">
-        <f t="shared" ref="G24:R24" si="18">(G11-F11)/F11</f>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53">
+        <f t="shared" ref="G24:R24" si="25">(G11-F11)/F11</f>
         <v>0.12790697674418602</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <f>(H11-G11)/G11</f>
         <v>0.27835051546391765</v>
       </c>
-      <c r="I24" s="54">
-        <f t="shared" si="18"/>
+      <c r="I24" s="53">
+        <f t="shared" si="25"/>
         <v>8.4677419354838621E-2</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54">
+      <c r="J24" s="53"/>
+      <c r="K24" s="53">
         <f>(K11-I11)/I11</f>
         <v>0.11524163568773241</v>
       </c>
-      <c r="L24" s="54">
-        <f t="shared" si="18"/>
+      <c r="L24" s="53">
+        <f t="shared" si="25"/>
         <v>4.3333333333333356E-2</v>
       </c>
-      <c r="M24" s="54">
-        <f t="shared" si="18"/>
+      <c r="M24" s="53">
+        <f t="shared" si="25"/>
         <v>9.9041533546325805E-2</v>
       </c>
-      <c r="N24" s="54">
-        <f t="shared" si="18"/>
+      <c r="N24" s="53">
+        <f t="shared" si="25"/>
         <v>-6.6860465116278994E-2</v>
       </c>
-      <c r="O24" s="63">
+      <c r="O24" s="62">
         <f>(O11-J11)/J11</f>
         <v>0.44733861834654598</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="53">
         <f>(P11-N11)/N11</f>
         <v>2.8037383177570048E-2</v>
       </c>
-      <c r="Q24" s="54">
-        <f t="shared" si="18"/>
+      <c r="Q24" s="53">
+        <f t="shared" si="25"/>
         <v>0.10909090909090913</v>
       </c>
-      <c r="R24" s="54">
-        <f t="shared" si="18"/>
+      <c r="R24" s="53">
+        <f t="shared" si="25"/>
         <v>2.185792349726768E-2</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="53">
         <f>(S11-R11)/R11</f>
         <v>2.9411764705882391E-2</v>
       </c>
-      <c r="T24" s="63">
+      <c r="T24" s="62">
         <f>(T11-O11)/O11</f>
         <v>0.13849765258215976</v>
       </c>
@@ -10641,19 +10979,19 @@
         <f>(U11-S11)/S11</f>
         <v>-5.9740259740259663E-2</v>
       </c>
-      <c r="V24" s="54">
-        <f t="shared" ref="V24:X24" si="19">(V11-U11)/U11</f>
+      <c r="V24" s="53">
+        <f t="shared" ref="V24:X24" si="26">(V11-U11)/U11</f>
         <v>3.8674033149171227E-2</v>
       </c>
-      <c r="W24" s="54">
-        <f t="shared" si="19"/>
+      <c r="W24" s="53">
+        <f t="shared" si="26"/>
         <v>5.8510638297872224E-2</v>
       </c>
-      <c r="X24" s="54">
-        <f t="shared" si="19"/>
+      <c r="X24" s="53">
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
-      <c r="Y24" s="63">
+      <c r="Y24" s="62">
         <f>(Y11-T11)/T11</f>
         <v>-0.21924398625429548</v>
       </c>
@@ -10664,15 +11002,15 @@
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="45">
-        <f t="shared" ref="G25:R25" si="20">(G13-F13)/F13</f>
+        <f t="shared" ref="G25:R25" si="27">(G13-F13)/F13</f>
         <v>-8.1871345029239886E-2</v>
       </c>
       <c r="H25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>5.0955414012738898E-2</v>
       </c>
       <c r="I25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.10303030303030299</v>
       </c>
       <c r="J25" s="45"/>
@@ -10681,18 +11019,18 @@
         <v>-0.19780219780219779</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.11643835616438364</v>
       </c>
       <c r="N25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.8404907975460166E-2</v>
       </c>
-      <c r="O25" s="64">
+      <c r="O25" s="63">
         <f>(O13-J13)/J13</f>
         <v>-7.9999999999999974E-2</v>
       </c>
@@ -10701,38 +11039,38 @@
         <v>7.2289156626505979E-2</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.10112359550561802</v>
       </c>
       <c r="R25" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.0612244897959072E-2</v>
       </c>
       <c r="S25" s="45">
         <f>(S13-R13)/R13</f>
         <v>2.4752475247524754E-2</v>
       </c>
-      <c r="T25" s="64">
+      <c r="T25" s="63">
         <f>(T13-O13)/O13</f>
         <v>0.26086956521739146</v>
       </c>
-      <c r="U25" s="58">
+      <c r="U25" s="57">
         <f>(U13-S13)/S13</f>
         <v>4.347826086956532E-2</v>
       </c>
       <c r="V25" s="45">
-        <f t="shared" ref="V25:X25" si="21">(V13-U13)/U13</f>
+        <f t="shared" ref="V25:X25" si="28">(V13-U13)/U13</f>
         <v>8.333333333333319E-2</v>
       </c>
       <c r="W25" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>-6.4102564102564111E-2</v>
       </c>
       <c r="X25" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
-      <c r="Y25" s="64">
+      <c r="Y25" s="63">
         <f>(Y13-T13)/T13</f>
         <v>-0.14559386973180083</v>
       </c>
@@ -10757,66 +11095,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55">
         <v>2025</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="55">
         <v>2026</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>2027</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="56">
         <f>Modell!$B$9/(Modell!AF10*Modell!$B$11)</f>
-        <v>7.2793362715273915</v>
-      </c>
-      <c r="E4" s="57">
+        <v>7.0469232576073013</v>
+      </c>
+      <c r="E4" s="56">
         <f>Modell!$B$9/(Modell!AG10*Modell!$B$11)</f>
-        <v>6.5778803601952545</v>
-      </c>
-      <c r="F4" s="57">
+        <v>6.5202325095542717</v>
+      </c>
+      <c r="F4" s="56">
         <f>Modell!$B$9/(Modell!AH10*Modell!$B$11)</f>
-        <v>5.9620348216647709</v>
+        <v>6.0510841946057488</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <f>Modell!$B$9/(Modell!AF13*Modell!$B$11)</f>
-        <v>8.1102572928753727</v>
-      </c>
-      <c r="E5" s="57">
+        <v>7.8513148191669764</v>
+      </c>
+      <c r="E5" s="56">
         <f>Modell!$B$9/(Modell!AG13*Modell!$B$11)</f>
-        <v>7.3540381725974315</v>
-      </c>
-      <c r="F5" s="57">
+        <v>7.3102276258657213</v>
+      </c>
+      <c r="F5" s="56">
         <f>Modell!$B$9/(Modell!AH13*Modell!$B$11)</f>
-        <v>6.6631781421201683</v>
+        <v>6.8014204415981876</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <f>Modell!$B$4/Modell!AF18</f>
-        <v>10.043425963332918</v>
-      </c>
-      <c r="E6" s="57">
+        <v>9.8812597141843952</v>
+      </c>
+      <c r="E6" s="56">
         <f>Modell!$B$4/Modell!AG18</f>
-        <v>9.1069537316516556</v>
-      </c>
-      <c r="F6" s="57">
+        <v>9.2002752920623347</v>
+      </c>
+      <c r="F6" s="56">
         <f>Modell!$B$4/Modell!AH18</f>
-        <v>8.2514196448083599</v>
+        <v>8.5599168237053362</v>
       </c>
     </row>
   </sheetData>
@@ -10828,11 +11166,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9330B9-F168-794A-8189-B98D1E9BE2AB}">
   <dimension ref="A3:XEL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10850,19 +11188,19 @@
   <sheetData>
     <row r="3" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>162</v>
@@ -27260,7 +27598,7 @@
     </row>
     <row r="4" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -27341,9 +27679,9 @@
       </c>
     </row>
     <row r="5" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <f>AA25</f>
-        <v>610.26555271787743</v>
+        <v>601.53187754481303</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -27426,7 +27764,7 @@
     <row r="6" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <f>AA26</f>
-        <v>-3.925448249704442E-2</v>
+        <v>-2.3487211777900929E-2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
@@ -28767,87 +29105,87 @@
       </c>
       <c r="D18" s="16">
         <f>(D17*Modell!$B$11)/D19</f>
-        <v>6.1988207685451817</v>
+        <v>6.1101077700686863</v>
       </c>
       <c r="E18" s="16">
         <f>(E17*Modell!$B$11)/E19</f>
-        <v>9.9036915848838554</v>
+        <v>9.7619571793756794</v>
       </c>
       <c r="F18" s="16">
         <f>(F17*Modell!$B$11)/F19</f>
-        <v>19.33961214807395</v>
+        <v>19.062837734505806</v>
       </c>
       <c r="G18" s="16">
         <f>(G17*Modell!$B$11)/G19</f>
-        <v>25.967974147171152</v>
+        <v>25.596339454546161</v>
       </c>
       <c r="H18" s="16">
         <f>(H17*Modell!$B$11)/H19</f>
-        <v>9.2617109677495755</v>
+        <v>9.1291641202683653</v>
       </c>
       <c r="I18" s="16">
         <f>(I17*Modell!$B$11)/I19</f>
-        <v>17.289108942489779</v>
+        <v>17.041679834189388</v>
       </c>
       <c r="J18" s="16">
         <f>(J17*Modell!$B$11)/J19</f>
-        <v>31.674907372742531</v>
+        <v>31.221599217139776</v>
       </c>
       <c r="K18" s="16">
         <f>(K17*Modell!$B$11)/K19</f>
-        <v>44.192106157759618</v>
+        <v>43.559660989133356</v>
       </c>
       <c r="L18" s="16">
         <f>(L17*Modell!$B$11)/L19</f>
-        <v>56.013467056054836</v>
+        <v>55.211843198365315</v>
       </c>
       <c r="M18" s="16">
         <f>(M17*Modell!$B$11)/M19</f>
-        <v>67.587711932076289</v>
+        <v>66.620445929470534</v>
       </c>
       <c r="N18" s="18">
         <f>(N17*Modell!$B$11)/N19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="O18" s="16">
         <f>(O17*Modell!$B$11)/O19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="P18" s="16">
         <f>(P17*Modell!$B$11)/P19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="Q18" s="16">
         <f>(Q17*Modell!$B$11)/Q19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="R18" s="16">
         <f>(R17*Modell!$B$11)/R19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="S18" s="16">
         <f>(S17*Modell!$B$11)/S19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="T18" s="16">
         <f>(T17*Modell!$B$11)/T19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="U18" s="16">
         <f>(U17*Modell!$B$11)/U19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="V18" s="16">
         <f>(V17*Modell!$B$11)/V19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="W18" s="16">
         <f>(W17*Modell!$B$11)/W19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="X18" s="16">
         <f>(X17*Modell!$B$11)/X19</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
     </row>
     <row r="19" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29112,7 +29450,7 @@
       </c>
       <c r="AA24" s="23">
         <f>AA23*Modell!B11</f>
-        <v>125476.97613435262</v>
+        <v>123681.24123439766</v>
       </c>
     </row>
     <row r="25" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29191,9 +29529,9 @@
       <c r="Z25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA25" s="75">
+      <c r="AA25" s="72">
         <f>AA24/X19</f>
-        <v>610.26555271787743</v>
+        <v>601.53187754481303</v>
       </c>
     </row>
     <row r="26" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29289,7 +29627,7 @@
       </c>
       <c r="AA26" s="33">
         <f>(AA25-Modell!B4)/Modell!B4</f>
-        <v>-3.925448249704442E-2</v>
+        <v>-2.3487211777900929E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29382,9 +29720,9 @@
       </c>
     </row>
     <row r="28" spans="1:16366" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="29">
         <v>0.45700000000000002</v>
@@ -29416,7 +29754,7 @@
       <c r="M28" s="35">
         <v>0.313</v>
       </c>
-      <c r="N28" s="73"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
@@ -29433,19 +29771,19 @@
     </row>
     <row r="30" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>162</v>
@@ -45843,7 +46181,7 @@
     </row>
     <row r="31" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -45924,9 +46262,9 @@
       </c>
     </row>
     <row r="32" spans="1:16366" x14ac:dyDescent="0.25">
-      <c r="A32" s="74">
+      <c r="A32" s="71">
         <f>AA52</f>
-        <v>756.49901002736112</v>
+        <v>745.6725483453954</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -46009,7 +46347,7 @@
     <row r="33" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <f>AA53</f>
-        <v>0.19096191754937197</v>
+        <v>0.21050738367758992</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>159</v>
@@ -47350,87 +47688,87 @@
       </c>
       <c r="D45" s="16">
         <f>(D44*Modell!$B$11)/D46</f>
-        <v>6.1988207685451817</v>
+        <v>6.1101077700686863</v>
       </c>
       <c r="E45" s="16">
         <f>(E44*Modell!$B$11)/E46</f>
-        <v>9.9036915848838554</v>
+        <v>9.7619571793756794</v>
       </c>
       <c r="F45" s="16">
         <f>(F44*Modell!$B$11)/F46</f>
-        <v>19.33961214807395</v>
+        <v>19.062837734505806</v>
       </c>
       <c r="G45" s="16">
         <f>(G44*Modell!$B$11)/G46</f>
-        <v>25.967974147171152</v>
+        <v>25.596339454546161</v>
       </c>
       <c r="H45" s="16">
         <f>(H44*Modell!$B$11)/H46</f>
-        <v>9.2617109677495755</v>
+        <v>9.1291641202683653</v>
       </c>
       <c r="I45" s="16">
         <f>(I44*Modell!$B$11)/I46</f>
-        <v>17.289108942489779</v>
+        <v>17.041679834189388</v>
       </c>
       <c r="J45" s="16">
         <f>(J44*Modell!$B$11)/J46</f>
-        <v>31.674907372742531</v>
+        <v>31.221599217139776</v>
       </c>
       <c r="K45" s="16">
         <f>(K44*Modell!$B$11)/K46</f>
-        <v>44.192106157759618</v>
+        <v>43.559660989133356</v>
       </c>
       <c r="L45" s="16">
         <f>(L44*Modell!$B$11)/L46</f>
-        <v>56.013467056054836</v>
+        <v>55.211843198365315</v>
       </c>
       <c r="M45" s="16">
         <f>(M44*Modell!$B$11)/M46</f>
-        <v>67.587711932076289</v>
+        <v>66.620445929470534</v>
       </c>
       <c r="N45" s="18">
         <f>(N44*Modell!$B$11)/N46</f>
-        <v>63.245350970776556</v>
+        <v>62.340229668869192</v>
       </c>
       <c r="O45" s="16">
         <f>(O44*Modell!$B$11)/O46</f>
-        <v>65.458938254753704</v>
+        <v>64.522137707279597</v>
       </c>
       <c r="P45" s="16">
         <f>(P44*Modell!$B$11)/P46</f>
-        <v>67.750001093670079</v>
+        <v>66.780412527034372</v>
       </c>
       <c r="Q45" s="16">
         <f>(Q44*Modell!$B$11)/Q46</f>
-        <v>70.121251131948512</v>
+        <v>69.117726965480557</v>
       </c>
       <c r="R45" s="16">
         <f>(R44*Modell!$B$11)/R46</f>
-        <v>72.57549492156673</v>
+        <v>71.536847409272397</v>
       </c>
       <c r="S45" s="16">
         <f>(S44*Modell!$B$11)/S46</f>
-        <v>75.115637243821553</v>
+        <v>74.040637068596908</v>
       </c>
       <c r="T45" s="16">
         <f>(T44*Modell!$B$11)/T46</f>
-        <v>77.744684547355305</v>
+        <v>76.632059365997804</v>
       </c>
       <c r="U45" s="16">
         <f>(U44*Modell!$B$11)/U46</f>
-        <v>80.46574850651271</v>
+        <v>79.314181443807698</v>
       </c>
       <c r="V45" s="16">
         <f>(V44*Modell!$B$11)/V46</f>
-        <v>83.282049704240634</v>
+        <v>82.09017779434096</v>
       </c>
       <c r="W45" s="16">
         <f>(W44*Modell!$B$11)/W46</f>
-        <v>86.196921443889039</v>
+        <v>84.96333401714287</v>
       </c>
       <c r="X45" s="16">
         <f>(X44*Modell!$B$11)/X46</f>
-        <v>89.213813694425156</v>
+        <v>87.93705070774287</v>
       </c>
     </row>
     <row r="46" spans="1:111" x14ac:dyDescent="0.25">
@@ -47695,7 +48033,7 @@
       </c>
       <c r="AA51" s="23">
         <f>AA50*Modell!B11</f>
-        <v>155544.10338927826</v>
+        <v>153318.0697092886</v>
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.25">
@@ -47774,9 +48112,9 @@
       <c r="Z52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA52" s="75">
+      <c r="AA52" s="72">
         <f>AA51/X46</f>
-        <v>756.49901002736112</v>
+        <v>745.6725483453954</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
@@ -47872,7 +48210,7 @@
       </c>
       <c r="AA53" s="33">
         <f>(AA52-Modell!B4)/Modell!B4</f>
-        <v>0.19096191754937197</v>
+        <v>0.21050738367758992</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
@@ -47965,9 +48303,9 @@
       </c>
     </row>
     <row r="55" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="29">
         <v>0.45700000000000002</v>
@@ -47999,7 +48337,7 @@
       <c r="M55" s="35">
         <v>0.313</v>
       </c>
-      <c r="N55" s="73"/>
+      <c r="N55" s="70"/>
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
       <c r="Q55" s="35"/>

--- a/Evolution modell.xlsx
+++ b/Evolution modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A110ABC-F4E2-FD43-B9C6-DEE5DFA4DA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A528B2-09C4-5643-952C-1C62D4DDE9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="500" windowWidth="26740" windowHeight="26740" activeTab="4" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
+    <workbookView xWindow="24320" yWindow="500" windowWidth="26880" windowHeight="26740" activeTab="1" xr2:uid="{50A86B1A-47F5-9146-A8C8-01D61AEEF5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1052,6 +1052,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1990,11 +1991,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB789C83-AC26-2D4C-BECF-527C3F0DF123}">
   <dimension ref="A3:DY109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="73">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2225,48 +2226,48 @@
         <v>1776</v>
       </c>
       <c r="AF4" s="5">
-        <f>AE4*1.11</f>
-        <v>1971.3600000000001</v>
+        <f>AE4*1.02</f>
+        <v>1811.52</v>
       </c>
       <c r="AG4" s="2">
         <f>AF4*1.08</f>
-        <v>2129.0688000000005</v>
+        <v>1956.4416000000001</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" ref="AH4:AP4" si="0">AG4*1.08</f>
-        <v>2299.3943040000008</v>
+        <v>2112.9569280000001</v>
       </c>
       <c r="AI4" s="2">
         <f t="shared" si="0"/>
-        <v>2483.3458483200011</v>
+        <v>2281.99348224</v>
       </c>
       <c r="AJ4" s="2">
         <f t="shared" si="0"/>
-        <v>2682.0135161856015</v>
+        <v>2464.5529608192001</v>
       </c>
       <c r="AK4" s="2">
         <f t="shared" si="0"/>
-        <v>2896.5745974804499</v>
+        <v>2661.7171976847362</v>
       </c>
       <c r="AL4" s="2">
         <f t="shared" si="0"/>
-        <v>3128.3005652788861</v>
+        <v>2874.6545734995152</v>
       </c>
       <c r="AM4" s="2">
         <f t="shared" si="0"/>
-        <v>3378.5646105011974</v>
+        <v>3104.6269393794764</v>
       </c>
       <c r="AN4" s="2">
         <f t="shared" si="0"/>
-        <v>3648.8497793412935</v>
+        <v>3352.9970945298346</v>
       </c>
       <c r="AO4" s="2">
         <f t="shared" si="0"/>
-        <v>3940.7577616885974</v>
+        <v>3621.2368620922216</v>
       </c>
       <c r="AP4" s="2">
         <f t="shared" si="0"/>
-        <v>4256.0183826236853</v>
+        <v>3910.9358110595995</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -2407,7 +2408,7 @@
       </c>
       <c r="B6" s="73">
         <f>B4*B5</f>
-        <v>125625.005968</v>
+        <v>119302.96833</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
@@ -2629,47 +2630,47 @@
       </c>
       <c r="AF7" s="15">
         <f>SUM(AF4:AF5)</f>
-        <v>2287.0600000000004</v>
+        <v>2127.2200000000003</v>
       </c>
       <c r="AG7" s="26">
         <f>SUM(AG4:AG5)</f>
-        <v>2463.7108000000007</v>
+        <v>2291.0835999999999</v>
       </c>
       <c r="AH7" s="26">
         <f t="shared" ref="AH7:AP7" si="6">SUM(AH4:AH5)</f>
-        <v>2654.1148240000011</v>
+        <v>2467.6774480000004</v>
       </c>
       <c r="AI7" s="26">
         <f t="shared" si="6"/>
-        <v>2859.349599520001</v>
+        <v>2657.9972334399999</v>
       </c>
       <c r="AJ7" s="26">
         <f t="shared" si="6"/>
-        <v>3080.5774924576017</v>
+        <v>2863.1169370912003</v>
       </c>
       <c r="AK7" s="26">
         <f t="shared" si="6"/>
-        <v>3319.0524123287701</v>
+        <v>3084.1950125330563</v>
       </c>
       <c r="AL7" s="26">
         <f t="shared" si="6"/>
-        <v>3576.1270490181055</v>
+        <v>3322.4810572387346</v>
       </c>
       <c r="AM7" s="26">
         <f t="shared" si="6"/>
-        <v>3853.2606832647698</v>
+        <v>3579.3230121430488</v>
       </c>
       <c r="AN7" s="26">
         <f t="shared" si="6"/>
-        <v>4152.0276164706802</v>
+        <v>3856.1749316592213</v>
       </c>
       <c r="AO7" s="26">
         <f t="shared" si="6"/>
-        <v>4474.1262690457479</v>
+        <v>4154.6053694493721</v>
       </c>
       <c r="AP7" s="26">
         <f t="shared" si="6"/>
-        <v>4821.3890004222649</v>
+        <v>4476.3064288581791</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2811,7 +2812,7 @@
       </c>
       <c r="B9" s="15">
         <f>B6-B7+B8</f>
-        <v>118396.005968</v>
+        <v>112073.96833</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3050,47 +3051,47 @@
       </c>
       <c r="AF10" s="15">
         <f>SUM(AF7:AF9)</f>
-        <v>1524.6000000000004</v>
+        <v>1364.7600000000002</v>
       </c>
       <c r="AG10" s="26">
         <f t="shared" ref="AG10:AO10" si="15">SUM(AG7:AG9)</f>
-        <v>1647.7540000000008</v>
+        <v>1475.1268</v>
       </c>
       <c r="AH10" s="26">
         <f t="shared" si="15"/>
-        <v>1775.5064800000009</v>
+        <v>1589.0691040000004</v>
       </c>
       <c r="AI10" s="26">
         <f t="shared" si="15"/>
-        <v>1913.2613380000007</v>
+        <v>1711.9089719199997</v>
       </c>
       <c r="AJ10" s="26">
         <f t="shared" si="15"/>
-        <v>2061.8075325160016</v>
+        <v>1844.3469771496002</v>
       </c>
       <c r="AK10" s="26">
         <f t="shared" si="15"/>
-        <v>2221.9965934668417</v>
+        <v>1987.1391936711279</v>
       </c>
       <c r="AL10" s="26">
         <f t="shared" si="15"/>
-        <v>2402.2773228358419</v>
+        <v>2148.631331056471</v>
       </c>
       <c r="AM10" s="26">
         <f t="shared" si="15"/>
-        <v>2589.1846772810131</v>
+        <v>2315.2470061592921</v>
       </c>
       <c r="AN10" s="26">
         <f t="shared" si="15"/>
-        <v>2790.7649471818268</v>
+        <v>2494.9122623703679</v>
       </c>
       <c r="AO10" s="26">
         <f t="shared" si="15"/>
-        <v>3008.1777625895415</v>
+        <v>2688.6568629931658</v>
       </c>
       <c r="AP10" s="26">
         <f>SUM(AP7:AP8)</f>
-        <v>3400.494512471807</v>
+        <v>3055.4119409077211</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -3484,47 +3485,47 @@
       </c>
       <c r="AF13" s="15">
         <f t="shared" si="24"/>
-        <v>1368.4000000000005</v>
+        <v>1208.5600000000004</v>
       </c>
       <c r="AG13" s="26">
         <f t="shared" si="24"/>
-        <v>1469.6860000000008</v>
+        <v>1297.0588</v>
       </c>
       <c r="AH13" s="26">
         <f t="shared" si="24"/>
-        <v>1579.6316800000011</v>
+        <v>1393.1943040000003</v>
       </c>
       <c r="AI13" s="26">
         <f t="shared" si="24"/>
-        <v>1697.799058000001</v>
+        <v>1496.4466919199999</v>
       </c>
       <c r="AJ13" s="26">
         <f t="shared" si="24"/>
-        <v>1824.7990245160015</v>
+        <v>1607.3384691496001</v>
       </c>
       <c r="AK13" s="26">
         <f t="shared" si="24"/>
-        <v>1961.2872346668419</v>
+        <v>1726.4298348711282</v>
       </c>
       <c r="AL13" s="26">
         <f t="shared" si="24"/>
-        <v>2115.4970281558421</v>
+        <v>1861.8510363764713</v>
       </c>
       <c r="AM13" s="26">
         <f t="shared" si="24"/>
-        <v>2273.7263531330127</v>
+        <v>1999.7886820112917</v>
       </c>
       <c r="AN13" s="26">
         <f t="shared" si="24"/>
-        <v>2443.760790619026</v>
+        <v>2147.9081058075672</v>
       </c>
       <c r="AO13" s="26">
         <f t="shared" si="24"/>
-        <v>2626.4731903704615</v>
+        <v>2306.9522907740857</v>
       </c>
       <c r="AP13" s="26">
         <f t="shared" si="24"/>
-        <v>2767.8989692115165</v>
+        <v>2422.8163976474307</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -3759,47 +3760,47 @@
       </c>
       <c r="AF15" s="5">
         <f t="shared" si="27"/>
-        <v>1368.4000000000005</v>
+        <v>1208.5600000000004</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="27"/>
-        <v>1469.6860000000008</v>
+        <v>1297.0588</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="27"/>
-        <v>1579.6316800000011</v>
+        <v>1393.1943040000003</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="27"/>
-        <v>1697.799058000001</v>
+        <v>1496.4466919199999</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" si="27"/>
-        <v>1824.7990245160015</v>
+        <v>1607.3384691496001</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="27"/>
-        <v>1961.2872346668419</v>
+        <v>1726.4298348711282</v>
       </c>
       <c r="AL15" s="2">
         <f t="shared" si="27"/>
-        <v>2115.4970281558421</v>
+        <v>1861.8510363764713</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="27"/>
-        <v>2273.7263531330127</v>
+        <v>1999.7886820112917</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="27"/>
-        <v>2443.760790619026</v>
+        <v>2147.9081058075672</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="27"/>
-        <v>2626.4731903704615</v>
+        <v>2306.9522907740857</v>
       </c>
       <c r="AP15" s="2">
         <f t="shared" si="27"/>
-        <v>2767.8989692115165</v>
+        <v>2422.8163976474307</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -3885,47 +3886,47 @@
       </c>
       <c r="AF16" s="5">
         <f>AF15*-0.15</f>
-        <v>-205.26000000000008</v>
+        <v>-181.28400000000005</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" ref="AG16:AP16" si="28">AG15*-0.15</f>
-        <v>-220.45290000000011</v>
+        <v>-194.55882</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="28"/>
-        <v>-236.94475200000016</v>
+        <v>-208.97914560000004</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="28"/>
-        <v>-254.66985870000013</v>
+        <v>-224.46700378799997</v>
       </c>
       <c r="AJ16" s="2">
         <f t="shared" si="28"/>
-        <v>-273.71985367740024</v>
+        <v>-241.10077037244</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="28"/>
-        <v>-294.19308520002625</v>
+        <v>-258.96447523066922</v>
       </c>
       <c r="AL16" s="2">
         <f t="shared" si="28"/>
-        <v>-317.32455422337631</v>
+        <v>-279.27765545647065</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="28"/>
-        <v>-341.05895296995192</v>
+        <v>-299.96830230169377</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="28"/>
-        <v>-366.5641185928539</v>
+        <v>-322.18621587113506</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="28"/>
-        <v>-393.97097855556922</v>
+        <v>-346.04284361611286</v>
       </c>
       <c r="AP16" s="2">
         <f t="shared" si="28"/>
-        <v>-415.18484538172748</v>
+        <v>-363.42245964711458</v>
       </c>
     </row>
     <row r="17" spans="3:129" x14ac:dyDescent="0.25">
@@ -4039,395 +4040,395 @@
       </c>
       <c r="AF17" s="15">
         <f>SUM(AF15:AF16)</f>
-        <v>1163.1400000000006</v>
+        <v>1027.2760000000003</v>
       </c>
       <c r="AG17" s="26">
         <f t="shared" si="31"/>
-        <v>1249.2331000000008</v>
+        <v>1102.4999800000001</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="31"/>
-        <v>1342.686928000001</v>
+        <v>1184.2151584000003</v>
       </c>
       <c r="AI17" s="26">
         <f t="shared" si="31"/>
-        <v>1443.1291993000009</v>
+        <v>1271.9796881319999</v>
       </c>
       <c r="AJ17" s="26">
         <f t="shared" si="31"/>
-        <v>1551.0791708386014</v>
+        <v>1366.2376987771602</v>
       </c>
       <c r="AK17" s="26">
         <f t="shared" si="31"/>
-        <v>1667.0941494668157</v>
+        <v>1467.4653596404589</v>
       </c>
       <c r="AL17" s="26">
         <f t="shared" si="31"/>
-        <v>1798.1724739324659</v>
+        <v>1582.5733809200005</v>
       </c>
       <c r="AM17" s="26">
         <f t="shared" si="31"/>
-        <v>1932.6674001630608</v>
+        <v>1699.820379709598</v>
       </c>
       <c r="AN17" s="26">
         <f t="shared" si="31"/>
-        <v>2077.1966720261721</v>
+        <v>1825.721889936432</v>
       </c>
       <c r="AO17" s="26">
         <f t="shared" si="31"/>
-        <v>2232.5022118148922</v>
+        <v>1960.9094471579729</v>
       </c>
       <c r="AP17" s="26">
         <f t="shared" si="31"/>
-        <v>2352.7141238297891</v>
+        <v>2059.3939380003162</v>
       </c>
       <c r="AQ17" s="26">
         <f>AP17*(1+$AS$22)</f>
-        <v>2329.186982591491</v>
+        <v>2038.7999986203131</v>
       </c>
       <c r="AR17" s="26">
         <f t="shared" ref="AR17:BV17" si="32">AQ17*(1+$AS$22)</f>
-        <v>2305.895112765576</v>
+        <v>2018.41199863411</v>
       </c>
       <c r="AS17" s="26">
         <f t="shared" si="32"/>
-        <v>2282.8361616379202</v>
+        <v>1998.2278786477689</v>
       </c>
       <c r="AT17" s="26">
         <f t="shared" si="32"/>
-        <v>2260.0078000215408</v>
+        <v>1978.2455998612911</v>
       </c>
       <c r="AU17" s="26">
         <f t="shared" si="32"/>
-        <v>2237.4077220213253</v>
+        <v>1958.4631438626782</v>
       </c>
       <c r="AV17" s="26">
         <f t="shared" si="32"/>
-        <v>2215.0336448011121</v>
+        <v>1938.8785124240515</v>
       </c>
       <c r="AW17" s="26">
         <f t="shared" si="32"/>
-        <v>2192.8833083531008</v>
+        <v>1919.489727299811</v>
       </c>
       <c r="AX17" s="26">
         <f t="shared" si="32"/>
-        <v>2170.9544752695697</v>
+        <v>1900.2948300268129</v>
       </c>
       <c r="AY17" s="26">
         <f t="shared" si="32"/>
-        <v>2149.2449305168739</v>
+        <v>1881.2918817265447</v>
       </c>
       <c r="AZ17" s="26">
         <f t="shared" si="32"/>
-        <v>2127.7524812117049</v>
+        <v>1862.4789629092793</v>
       </c>
       <c r="BA17" s="26">
         <f t="shared" si="32"/>
-        <v>2106.4749563995879</v>
+        <v>1843.8541732801864</v>
       </c>
       <c r="BB17" s="26">
         <f t="shared" si="32"/>
-        <v>2085.4102068355919</v>
+        <v>1825.4156315473845</v>
       </c>
       <c r="BC17" s="26">
         <f t="shared" si="32"/>
-        <v>2064.5561047672359</v>
+        <v>1807.1614752319106</v>
       </c>
       <c r="BD17" s="26">
         <f t="shared" si="32"/>
-        <v>2043.9105437195635</v>
+        <v>1789.0898604795914</v>
       </c>
       <c r="BE17" s="26">
         <f t="shared" si="32"/>
-        <v>2023.4714382823679</v>
+        <v>1771.1989618747955</v>
       </c>
       <c r="BF17" s="26">
         <f t="shared" si="32"/>
-        <v>2003.2367238995441</v>
+        <v>1753.4869722560475</v>
       </c>
       <c r="BG17" s="26">
         <f t="shared" si="32"/>
-        <v>1983.2043566605487</v>
+        <v>1735.9521025334871</v>
       </c>
       <c r="BH17" s="26">
         <f t="shared" si="32"/>
-        <v>1963.3723130939431</v>
+        <v>1718.5925815081521</v>
       </c>
       <c r="BI17" s="26">
         <f t="shared" si="32"/>
-        <v>1943.7385899630037</v>
+        <v>1701.4066556930704</v>
       </c>
       <c r="BJ17" s="26">
         <f t="shared" si="32"/>
-        <v>1924.3012040633737</v>
+        <v>1684.3925891361398</v>
       </c>
       <c r="BK17" s="26">
         <f t="shared" si="32"/>
-        <v>1905.0581920227398</v>
+        <v>1667.5486632447785</v>
       </c>
       <c r="BL17" s="26">
         <f t="shared" si="32"/>
-        <v>1886.0076101025124</v>
+        <v>1650.8731766123308</v>
       </c>
       <c r="BM17" s="26">
         <f t="shared" si="32"/>
-        <v>1867.1475340014872</v>
+        <v>1634.3644448462076</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="32"/>
-        <v>1848.4760586614723</v>
+        <v>1618.0208003977455</v>
       </c>
       <c r="BO17" s="26">
         <f t="shared" si="32"/>
-        <v>1829.9912980748575</v>
+        <v>1601.840592393768</v>
       </c>
       <c r="BP17" s="26">
         <f t="shared" si="32"/>
-        <v>1811.6913850941089</v>
+        <v>1585.8221864698303</v>
       </c>
       <c r="BQ17" s="26">
         <f t="shared" si="32"/>
-        <v>1793.5744712431679</v>
+        <v>1569.9639646051319</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="32"/>
-        <v>1775.6387265307362</v>
+        <v>1554.2643249590806</v>
       </c>
       <c r="BS17" s="26">
         <f t="shared" si="32"/>
-        <v>1757.8823392654288</v>
+        <v>1538.7216817094898</v>
       </c>
       <c r="BT17" s="26">
         <f t="shared" si="32"/>
-        <v>1740.3035158727744</v>
+        <v>1523.3344648923949</v>
       </c>
       <c r="BU17" s="26">
         <f t="shared" si="32"/>
-        <v>1722.9004807140466</v>
+        <v>1508.1011202434709</v>
       </c>
       <c r="BV17" s="26">
         <f t="shared" si="32"/>
-        <v>1705.6714759069062</v>
+        <v>1493.0201090410362</v>
       </c>
       <c r="BW17" s="26">
         <f t="shared" ref="BW17:DB17" si="33">BV17*(1+$AS$22)</f>
-        <v>1688.614761147837</v>
+        <v>1478.089907950626</v>
       </c>
       <c r="BX17" s="26">
         <f t="shared" si="33"/>
-        <v>1671.7286135363586</v>
+        <v>1463.3090088711197</v>
       </c>
       <c r="BY17" s="26">
         <f t="shared" si="33"/>
-        <v>1655.011327400995</v>
+        <v>1448.6759187824084</v>
       </c>
       <c r="BZ17" s="26">
         <f t="shared" si="33"/>
-        <v>1638.4612141269849</v>
+        <v>1434.1891595945842</v>
       </c>
       <c r="CA17" s="26">
         <f t="shared" si="33"/>
-        <v>1622.0766019857151</v>
+        <v>1419.8472679986385</v>
       </c>
       <c r="CB17" s="26">
         <f t="shared" si="33"/>
-        <v>1605.855835965858</v>
+        <v>1405.648795318652</v>
       </c>
       <c r="CC17" s="26">
         <f t="shared" si="33"/>
-        <v>1589.7972776061995</v>
+        <v>1391.5923073654656</v>
       </c>
       <c r="CD17" s="26">
         <f t="shared" si="33"/>
-        <v>1573.8993048301375</v>
+        <v>1377.6763842918108</v>
       </c>
       <c r="CE17" s="26">
         <f t="shared" si="33"/>
-        <v>1558.1603117818361</v>
+        <v>1363.8996204488926</v>
       </c>
       <c r="CF17" s="26">
         <f t="shared" si="33"/>
-        <v>1542.5787086640178</v>
+        <v>1350.2606242444037</v>
       </c>
       <c r="CG17" s="26">
         <f t="shared" si="33"/>
-        <v>1527.1529215773776</v>
+        <v>1336.7580180019597</v>
       </c>
       <c r="CH17" s="26">
         <f t="shared" si="33"/>
-        <v>1511.8813923616037</v>
+        <v>1323.3904378219402</v>
       </c>
       <c r="CI17" s="26">
         <f t="shared" si="33"/>
-        <v>1496.7625784379877</v>
+        <v>1310.1565334437207</v>
       </c>
       <c r="CJ17" s="26">
         <f t="shared" si="33"/>
-        <v>1481.7949526536079</v>
+        <v>1297.0549681092834</v>
       </c>
       <c r="CK17" s="26">
         <f t="shared" si="33"/>
-        <v>1466.9770031270718</v>
+        <v>1284.0844184281907</v>
       </c>
       <c r="CL17" s="26">
         <f t="shared" si="33"/>
-        <v>1452.3072330958012</v>
+        <v>1271.2435742439088</v>
       </c>
       <c r="CM17" s="26">
         <f t="shared" si="33"/>
-        <v>1437.7841607648431</v>
+        <v>1258.5311385014697</v>
       </c>
       <c r="CN17" s="26">
         <f t="shared" si="33"/>
-        <v>1423.4063191571947</v>
+        <v>1245.9458271164551</v>
       </c>
       <c r="CO17" s="26">
         <f t="shared" si="33"/>
-        <v>1409.1722559656228</v>
+        <v>1233.4863688452906</v>
       </c>
       <c r="CP17" s="26">
         <f t="shared" si="33"/>
-        <v>1395.0805334059664</v>
+        <v>1221.1515051568376</v>
       </c>
       <c r="CQ17" s="26">
         <f t="shared" si="33"/>
-        <v>1381.1297280719068</v>
+        <v>1208.9399901052693</v>
       </c>
       <c r="CR17" s="26">
         <f t="shared" si="33"/>
-        <v>1367.3184307911877</v>
+        <v>1196.8505902042166</v>
       </c>
       <c r="CS17" s="26">
         <f t="shared" si="33"/>
-        <v>1353.6452464832757</v>
+        <v>1184.8820843021745</v>
       </c>
       <c r="CT17" s="26">
         <f t="shared" si="33"/>
-        <v>1340.1087940184429</v>
+        <v>1173.0332634591527</v>
       </c>
       <c r="CU17" s="26">
         <f t="shared" si="33"/>
-        <v>1326.7077060782585</v>
+        <v>1161.3029308245611</v>
       </c>
       <c r="CV17" s="26">
         <f t="shared" si="33"/>
-        <v>1313.4406290174759</v>
+        <v>1149.6899015163156</v>
       </c>
       <c r="CW17" s="26">
         <f t="shared" si="33"/>
-        <v>1300.306222727301</v>
+        <v>1138.1930025011525</v>
       </c>
       <c r="CX17" s="26">
         <f t="shared" si="33"/>
-        <v>1287.3031605000281</v>
+        <v>1126.8110724761409</v>
       </c>
       <c r="CY17" s="26">
         <f t="shared" si="33"/>
-        <v>1274.4301288950278</v>
+        <v>1115.5429617513794</v>
       </c>
       <c r="CZ17" s="26">
         <f t="shared" si="33"/>
-        <v>1261.6858276060775</v>
+        <v>1104.3875321338655</v>
       </c>
       <c r="DA17" s="26">
         <f t="shared" si="33"/>
-        <v>1249.0689693300167</v>
+        <v>1093.3436568125269</v>
       </c>
       <c r="DB17" s="26">
         <f t="shared" si="33"/>
-        <v>1236.5782796367164</v>
+        <v>1082.4102202444017</v>
       </c>
       <c r="DC17" s="26">
         <f t="shared" ref="DC17:DY17" si="34">DB17*(1+$AS$22)</f>
-        <v>1224.2124968403491</v>
+        <v>1071.5861180419577</v>
       </c>
       <c r="DD17" s="26">
         <f t="shared" si="34"/>
-        <v>1211.9703718719456</v>
+        <v>1060.8702568615381</v>
       </c>
       <c r="DE17" s="26">
         <f t="shared" si="34"/>
-        <v>1199.8506681532263</v>
+        <v>1050.2615542929227</v>
       </c>
       <c r="DF17" s="26">
         <f t="shared" si="34"/>
-        <v>1187.852161471694</v>
+        <v>1039.7589387499934</v>
       </c>
       <c r="DG17" s="26">
         <f t="shared" si="34"/>
-        <v>1175.9736398569771</v>
+        <v>1029.3613493624935</v>
       </c>
       <c r="DH17" s="26">
         <f t="shared" si="34"/>
-        <v>1164.2139034584072</v>
+        <v>1019.0677358688686</v>
       </c>
       <c r="DI17" s="26">
         <f t="shared" si="34"/>
-        <v>1152.5717644238232</v>
+        <v>1008.8770585101798</v>
       </c>
       <c r="DJ17" s="26">
         <f t="shared" si="34"/>
-        <v>1141.0460467795849</v>
+        <v>998.78828792507807</v>
       </c>
       <c r="DK17" s="26">
         <f t="shared" si="34"/>
-        <v>1129.635586311789</v>
+        <v>988.80040504582723</v>
       </c>
       <c r="DL17" s="26">
         <f t="shared" si="34"/>
-        <v>1118.3392304486711</v>
+        <v>978.9124009953689</v>
       </c>
       <c r="DM17" s="26">
         <f t="shared" si="34"/>
-        <v>1107.1558381441844</v>
+        <v>969.12327698541515</v>
       </c>
       <c r="DN17" s="26">
         <f t="shared" si="34"/>
-        <v>1096.0842797627424</v>
+        <v>959.43204421556095</v>
       </c>
       <c r="DO17" s="26">
         <f t="shared" si="34"/>
-        <v>1085.1234369651149</v>
+        <v>949.83772377340529</v>
       </c>
       <c r="DP17" s="26">
         <f t="shared" si="34"/>
-        <v>1074.2722025954638</v>
+        <v>940.33934653567121</v>
       </c>
       <c r="DQ17" s="26">
         <f t="shared" si="34"/>
-        <v>1063.5294805695091</v>
+        <v>930.93595307031444</v>
       </c>
       <c r="DR17" s="26">
         <f t="shared" si="34"/>
-        <v>1052.894185763814</v>
+        <v>921.62659353961124</v>
       </c>
       <c r="DS17" s="26">
         <f t="shared" si="34"/>
-        <v>1042.3652439061759</v>
+        <v>912.41032760421513</v>
       </c>
       <c r="DT17" s="26">
         <f t="shared" si="34"/>
-        <v>1031.9415914671142</v>
+        <v>903.28622432817292</v>
       </c>
       <c r="DU17" s="26">
         <f t="shared" si="34"/>
-        <v>1021.6221755524431</v>
+        <v>894.25336208489114</v>
       </c>
       <c r="DV17" s="26">
         <f t="shared" si="34"/>
-        <v>1011.4059537969187</v>
+        <v>885.31082846404217</v>
       </c>
       <c r="DW17" s="26">
         <f t="shared" si="34"/>
-        <v>1001.2918942589495</v>
+        <v>876.45772017940169</v>
       </c>
       <c r="DX17" s="26">
         <f t="shared" si="34"/>
-        <v>991.27897531635995</v>
+        <v>867.69314297760764</v>
       </c>
       <c r="DY17" s="26">
         <f t="shared" si="34"/>
-        <v>981.36618556319638</v>
+        <v>859.01621154783152</v>
       </c>
     </row>
     <row r="18" spans="3:129" x14ac:dyDescent="0.25">
@@ -4499,6 +4500,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="16">
         <f t="shared" ref="V18:AA18" si="38">(V17*$B$11)/V19</f>
         <v>6.1101077700686863</v>
@@ -4541,47 +4543,47 @@
       </c>
       <c r="AF18" s="18">
         <f>(AF17*$B$11)/AF19</f>
-        <v>62.340229668869192</v>
+        <v>55.058395183139829</v>
       </c>
       <c r="AG18" s="16">
         <f t="shared" si="40"/>
-        <v>66.954518255715954</v>
+        <v>59.090137011128206</v>
       </c>
       <c r="AH18" s="16">
         <f t="shared" si="40"/>
-        <v>71.963316079670932</v>
+        <v>63.469784335516188</v>
       </c>
       <c r="AI18" s="16">
         <f t="shared" si="40"/>
-        <v>77.346669984879995</v>
+        <v>68.173655701192843</v>
       </c>
       <c r="AJ18" s="16">
         <f t="shared" si="40"/>
-        <v>83.13241032436126</v>
+        <v>73.225554897979137</v>
       </c>
       <c r="AK18" s="16">
         <f t="shared" si="40"/>
-        <v>89.350406793154207</v>
+        <v>78.651002932661498</v>
       </c>
       <c r="AL18" s="16">
         <f t="shared" si="40"/>
-        <v>96.375745833853685</v>
+        <v>84.820389664521556</v>
       </c>
       <c r="AM18" s="16">
         <f t="shared" si="40"/>
-        <v>103.5842027612338</v>
+        <v>91.104418098355069</v>
       </c>
       <c r="AN18" s="16">
         <f t="shared" si="40"/>
-        <v>111.33046546548333</v>
+        <v>97.852298029574285</v>
       </c>
       <c r="AO18" s="16">
         <f t="shared" si="40"/>
-        <v>119.6542983826528</v>
+        <v>105.09787755187105</v>
       </c>
       <c r="AP18" s="16">
         <f t="shared" si="40"/>
-        <v>126.09723577964934</v>
+        <v>110.37630128240505</v>
       </c>
     </row>
     <row r="19" spans="3:129" x14ac:dyDescent="0.25">
@@ -4822,54 +4824,54 @@
       </c>
       <c r="AF23" s="20">
         <f>(AF7-AE7)/AE7</f>
-        <v>3.2999096657633425E-2</v>
+        <v>-3.9196025293586151E-2</v>
       </c>
       <c r="AG23" s="19">
         <f t="shared" si="50"/>
-        <v>7.723925039133224E-2</v>
+        <v>7.7031806771278785E-2</v>
       </c>
       <c r="AH23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7283431155962104E-2</v>
+        <v>7.7078744747682032E-2</v>
       </c>
       <c r="AI23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7327014515028297E-2</v>
+        <v>7.7125065755352135E-2</v>
       </c>
       <c r="AJ23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7370005044062551E-2</v>
+        <v>7.7170773946116142E-2</v>
       </c>
       <c r="AK23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7412407399276129E-2</v>
+        <v>7.7215873573945465E-2</v>
       </c>
       <c r="AL23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7454226313034433E-2</v>
+        <v>7.7260368990083206E-2</v>
       </c>
       <c r="AM23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7495466589408979E-2</v>
+        <v>7.7304264638237488E-2</v>
       </c>
       <c r="AN23" s="19">
         <f t="shared" si="50"/>
-        <v>7.753613309981737E-2</v>
+        <v>7.7347565049853642E-2</v>
       </c>
       <c r="AO23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7576230778748784E-2</v>
+        <v>7.7390274839462009E-2</v>
       </c>
       <c r="AP23" s="19">
         <f t="shared" si="50"/>
-        <v>7.7615764619576103E-2</v>
+        <v>7.7432398700106472E-2</v>
       </c>
       <c r="AR23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AS23" s="3">
         <f>NPV(AS21,AF17:DY17)</f>
-        <v>17799.765367123691</v>
+        <v>15632.974160805172</v>
       </c>
     </row>
     <row r="24" spans="3:129" x14ac:dyDescent="0.25">
@@ -4951,54 +4953,54 @@
       </c>
       <c r="AF24" s="11">
         <f t="shared" si="56"/>
-        <v>0.11000000000000007</v>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="AG24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000168E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AH24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000154E-2</v>
+        <v>7.9999999999999974E-2</v>
       </c>
       <c r="AI24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000085E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="AJ24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000113E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AK24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000127E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AL24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000057E-2</v>
+        <v>8.0000000000000029E-2</v>
       </c>
       <c r="AM24" s="10">
         <f t="shared" si="56"/>
-        <v>8.000000000000014E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AN24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000071E-2</v>
+        <v>8.0000000000000029E-2</v>
       </c>
       <c r="AO24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000127E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AP24" s="10">
         <f t="shared" si="56"/>
-        <v>8.0000000000000029E-2</v>
+        <v>8.0000000000000043E-2</v>
       </c>
       <c r="AR24" s="22" t="s">
         <v>92</v>
       </c>
       <c r="AS24" s="23">
         <f>AS23*B11</f>
-        <v>196153.41434570306</v>
+        <v>172275.37525207299</v>
       </c>
     </row>
     <row r="25" spans="3:129" x14ac:dyDescent="0.25">
@@ -5133,7 +5135,7 @@
       </c>
       <c r="AS25" s="59">
         <f>AS24/AP19</f>
-        <v>954.00507336904764</v>
+        <v>837.87265470372574</v>
       </c>
     </row>
     <row r="26" spans="3:129" x14ac:dyDescent="0.25">
@@ -5248,47 +5250,47 @@
       </c>
       <c r="AF26" s="34">
         <f t="shared" si="63"/>
-        <v>0.66662002745883364</v>
+        <v>0.64156974831000091</v>
       </c>
       <c r="AG26" s="33">
         <f t="shared" si="63"/>
-        <v>0.66880982946537404</v>
+        <v>0.64385551011757058</v>
       </c>
       <c r="AH26" s="33">
         <f t="shared" si="63"/>
-        <v>0.66896370267965477</v>
+        <v>0.64395332756633439</v>
       </c>
       <c r="AI26" s="33">
         <f t="shared" si="63"/>
-        <v>0.66912466328747622</v>
+        <v>0.64405972676820067</v>
       </c>
       <c r="AJ26" s="33">
         <f t="shared" si="63"/>
-        <v>0.66929253932552335</v>
+        <v>0.64417451947435123</v>
       </c>
       <c r="AK26" s="33">
         <f t="shared" si="63"/>
-        <v>0.66946716032959741</v>
+        <v>0.64429751867054796</v>
       </c>
       <c r="AL26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67175390860216599</v>
+        <v>0.64669483257856919</v>
       </c>
       <c r="AM26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67194640853814824</v>
+        <v>0.64683935993054842</v>
       </c>
       <c r="AN26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67214508307004994</v>
+        <v>0.64699146345439928</v>
       </c>
       <c r="AO26" s="33">
         <f t="shared" si="63"/>
-        <v>0.67234976880326913</v>
+        <v>0.64715096234266534</v>
       </c>
       <c r="AP26" s="33">
         <f t="shared" si="63"/>
-        <v>0.70529353930454197</v>
+        <v>0.68257434772782055</v>
       </c>
       <c r="AS26" s="16"/>
     </row>
@@ -5402,54 +5404,54 @@
       </c>
       <c r="AF27" s="32">
         <f t="shared" si="68"/>
-        <v>0.59832273748830389</v>
+        <v>0.56814057784338257</v>
       </c>
       <c r="AG27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59653348923907801</v>
+        <v>0.56613333533529731</v>
       </c>
       <c r="AH27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59516327843696959</v>
+        <v>0.56457715133278641</v>
       </c>
       <c r="AI27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59377106537969704</v>
+        <v>0.56299783652644642</v>
       </c>
       <c r="AJ27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59235615042432388</v>
+        <v>0.56139462846480337</v>
       </c>
       <c r="AK27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59091782563648343</v>
+        <v>0.55976675529774866</v>
       </c>
       <c r="AL27" s="31">
         <f t="shared" si="68"/>
-        <v>0.59156092587277975</v>
+        <v>0.56037972957589366</v>
       </c>
       <c r="AM27" s="31">
         <f t="shared" si="68"/>
-        <v>0.5900785179181135</v>
+        <v>0.55870584331922524</v>
       </c>
       <c r="AN27" s="31">
         <f t="shared" si="68"/>
-        <v>0.58857045673898467</v>
+        <v>0.55700484129317573</v>
       </c>
       <c r="AO27" s="31">
         <f t="shared" si="68"/>
-        <v>0.58703600042352888</v>
+        <v>0.55527591326437731</v>
       </c>
       <c r="AP27" s="31">
         <f t="shared" si="68"/>
-        <v>0.57408746088919593</v>
+        <v>0.5412534722886353</v>
       </c>
       <c r="AR27" s="6" t="s">
         <v>95</v>
       </c>
       <c r="AS27" s="33">
         <f>(AS25-B4)/B4</f>
-        <v>0.54870953469001238</v>
+        <v>0.43226094821149702</v>
       </c>
     </row>
     <row r="28" spans="3:129" x14ac:dyDescent="0.25">
@@ -9503,10 +9505,10 @@
   <dimension ref="A2:AD25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -11077,24 +11079,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Y6 Y8 Y10 Y12" formula="1"/>
+    <ignoredError sqref="X6 Z6" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAC204C-C5AC-9448-8DAA-59DF960E04B4}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+    <row r="3" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C3" s="55"/>
       <c r="D3" s="55">
         <v>2025</v>
@@ -11105,56 +11111,71 @@
       <c r="F3" s="55">
         <v>2027</v>
       </c>
+      <c r="G3" s="77">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+    <row r="4" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C4" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="56">
         <f>Modell!$B$9/(Modell!AF10*Modell!$B$11)</f>
-        <v>7.0469232576073013</v>
+        <v>7.4518974563991334</v>
       </c>
       <c r="E4" s="56">
         <f>Modell!$B$9/(Modell!AG10*Modell!$B$11)</f>
-        <v>6.5202325095542717</v>
+        <v>6.8943575376674611</v>
       </c>
       <c r="F4" s="56">
         <f>Modell!$B$9/(Modell!AH10*Modell!$B$11)</f>
-        <v>6.0510841946057488</v>
+        <v>6.4000058568851763</v>
+      </c>
+      <c r="G4" s="56">
+        <f>Modell!$B$9/(Modell!AI10*Modell!$B$11)</f>
+        <v>5.9407665590939764</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+    <row r="5" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C5" s="55" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="56">
         <f>Modell!$B$9/(Modell!AF13*Modell!$B$11)</f>
-        <v>7.8513148191669764</v>
+        <v>8.4150158639995354</v>
       </c>
       <c r="E5" s="56">
         <f>Modell!$B$9/(Modell!AG13*Modell!$B$11)</f>
-        <v>7.3102276258657213</v>
+        <v>7.8408562299529381</v>
       </c>
       <c r="F5" s="56">
         <f>Modell!$B$9/(Modell!AH13*Modell!$B$11)</f>
-        <v>6.8014204415981876</v>
+        <v>7.2998084641862562</v>
+      </c>
+      <c r="G5" s="56">
+        <f>Modell!$B$9/(Modell!AI13*Modell!$B$11)</f>
+        <v>6.7961335525736004</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
+    <row r="6" spans="3:7" ht="62" x14ac:dyDescent="0.7">
       <c r="C6" s="55" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="56">
         <f>Modell!$B$4/Modell!AF18</f>
-        <v>9.8812597141843952</v>
+        <v>10.625082660947966</v>
       </c>
       <c r="E6" s="56">
         <f>Modell!$B$4/Modell!AG18</f>
-        <v>9.2002752920623347</v>
+        <v>9.9001293547488185</v>
       </c>
       <c r="F6" s="56">
         <f>Modell!$B$4/Modell!AH18</f>
-        <v>8.5599168237053362</v>
+        <v>9.2169842094870305</v>
+      </c>
+      <c r="G6" s="56">
+        <f>Modell!$B$4/Modell!AI18</f>
+        <v>8.5810272895452808</v>
       </c>
     </row>
   </sheetData>
@@ -11166,11 +11187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9330B9-F168-794A-8189-B98D1E9BE2AB}">
   <dimension ref="A3:XEL55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
+      <selection pane="bottomRight" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -27681,7 +27702,7 @@
     <row r="5" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A5" s="71">
         <f>AA25</f>
-        <v>601.53187754481303</v>
+        <v>581.12714112622405</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -27764,7 +27785,7 @@
     <row r="6" spans="1:16366" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <f>AA26</f>
-        <v>-2.3487211777900929E-2</v>
+        <v>-6.6202715791041948E-3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
@@ -27961,44 +27982,44 @@
         <v>-512.45999999999992</v>
       </c>
       <c r="O8" s="2">
-        <f>N8*1</f>
-        <v>-512.45999999999992</v>
+        <f>N8*1.1</f>
+        <v>-563.70600000000002</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:X8" si="4">O8*1</f>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="4"/>
-        <v>-512.45999999999992</v>
+        <v>-563.70600000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28129,43 +28150,43 @@
       </c>
       <c r="O10" s="26">
         <f t="shared" ref="O10:W10" si="7">SUM(O7:O9)</f>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="S10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="U10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="V10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="W10" s="26">
         <f t="shared" si="7"/>
-        <v>1524.6000000000004</v>
+        <v>1473.3540000000003</v>
       </c>
       <c r="X10" s="26">
         <f>SUM(X7:X8)</f>
-        <v>1774.6000000000004</v>
+        <v>1723.3540000000003</v>
       </c>
     </row>
     <row r="11" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28294,43 +28315,43 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="10"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:W12" si="11">P8+P9+P11</f>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="11"/>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
       <c r="X12" s="2">
         <f>X8+X9+X11</f>
-        <v>-918.66</v>
+        <v>-969.90600000000006</v>
       </c>
     </row>
     <row r="13" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28383,43 +28404,43 @@
       </c>
       <c r="O13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="S13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="U13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="V13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="X13" s="26">
         <f t="shared" si="12"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
     </row>
     <row r="14" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28544,43 +28565,43 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="13"/>
-        <v>1368.4000000000005</v>
+        <v>1317.1540000000005</v>
       </c>
     </row>
     <row r="16" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28623,43 +28644,43 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" ref="O16:X16" si="14">O15*-0.15</f>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="14"/>
-        <v>-205.26000000000008</v>
+        <v>-197.57310000000007</v>
       </c>
     </row>
     <row r="17" spans="1:16366" x14ac:dyDescent="0.25">
@@ -28712,391 +28733,391 @@
       </c>
       <c r="O17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="P17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="Q17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="S17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="T17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="U17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="V17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="W17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="X17" s="26">
         <f t="shared" si="15"/>
-        <v>1163.1400000000006</v>
+        <v>1119.5809000000004</v>
       </c>
       <c r="Y17" s="26">
         <f>X17*(1+$AA$22)</f>
-        <v>1151.5086000000006</v>
+        <v>1108.3850910000003</v>
       </c>
       <c r="Z17" s="26">
         <f>Y17*(1+$AA$22)</f>
-        <v>1139.9935140000005</v>
+        <v>1097.3012400900004</v>
       </c>
       <c r="AA17" s="26">
         <f t="shared" ref="AA17:CL17" si="16">Z17*(1+$AA$22)</f>
-        <v>1128.5935788600004</v>
+        <v>1086.3282276891005</v>
       </c>
       <c r="AB17" s="26">
         <f t="shared" si="16"/>
-        <v>1117.3076430714004</v>
+        <v>1075.4649454122095</v>
       </c>
       <c r="AC17" s="26">
         <f t="shared" si="16"/>
-        <v>1106.1345666406864</v>
+        <v>1064.7102959580875</v>
       </c>
       <c r="AD17" s="26">
         <f t="shared" si="16"/>
-        <v>1095.0732209742796</v>
+        <v>1054.0631929985066</v>
       </c>
       <c r="AE17" s="26">
         <f t="shared" si="16"/>
-        <v>1084.1224887645367</v>
+        <v>1043.5225610685216</v>
       </c>
       <c r="AF17" s="26">
         <f t="shared" si="16"/>
-        <v>1073.2812638768912</v>
+        <v>1033.0873354578364</v>
       </c>
       <c r="AG17" s="26">
         <f t="shared" si="16"/>
-        <v>1062.5484512381222</v>
+        <v>1022.7564621032581</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="16"/>
-        <v>1051.9229667257409</v>
+        <v>1012.5288974822255</v>
       </c>
       <c r="AI17" s="26">
         <f t="shared" si="16"/>
-        <v>1041.4037370584836</v>
+        <v>1002.4036085074032</v>
       </c>
       <c r="AJ17" s="26">
         <f t="shared" si="16"/>
-        <v>1030.9896996878988</v>
+        <v>992.37957242232915</v>
       </c>
       <c r="AK17" s="26">
         <f t="shared" si="16"/>
-        <v>1020.6798026910197</v>
+        <v>982.45577669810586</v>
       </c>
       <c r="AL17" s="26">
         <f t="shared" si="16"/>
-        <v>1010.4730046641096</v>
+        <v>972.63121893112475</v>
       </c>
       <c r="AM17" s="26">
         <f t="shared" si="16"/>
-        <v>1000.3682746174685</v>
+        <v>962.90490674181353</v>
       </c>
       <c r="AN17" s="26">
         <f t="shared" si="16"/>
-        <v>990.36459187129378</v>
+        <v>953.27585767439541</v>
       </c>
       <c r="AO17" s="26">
         <f t="shared" si="16"/>
-        <v>980.4609459525808</v>
+        <v>943.74309909765145</v>
       </c>
       <c r="AP17" s="26">
         <f t="shared" si="16"/>
-        <v>970.65633649305494</v>
+        <v>934.30566810667494</v>
       </c>
       <c r="AQ17" s="26">
         <f t="shared" si="16"/>
-        <v>960.94977312812443</v>
+        <v>924.9626114256082</v>
       </c>
       <c r="AR17" s="26">
         <f t="shared" si="16"/>
-        <v>951.34027539684314</v>
+        <v>915.7129853113521</v>
       </c>
       <c r="AS17" s="26">
         <f t="shared" si="16"/>
-        <v>941.82687264287472</v>
+        <v>906.55585545823863</v>
       </c>
       <c r="AT17" s="26">
         <f t="shared" si="16"/>
-        <v>932.40860391644594</v>
+        <v>897.49029690365626</v>
       </c>
       <c r="AU17" s="26">
         <f t="shared" si="16"/>
-        <v>923.08451787728143</v>
+        <v>888.51539393461974</v>
       </c>
       <c r="AV17" s="26">
         <f t="shared" si="16"/>
-        <v>913.8536726985086</v>
+        <v>879.63023999527354</v>
       </c>
       <c r="AW17" s="26">
         <f t="shared" si="16"/>
-        <v>904.71513597152352</v>
+        <v>870.83393759532078</v>
       </c>
       <c r="AX17" s="26">
         <f t="shared" si="16"/>
-        <v>895.66798461180827</v>
+        <v>862.12559821936759</v>
       </c>
       <c r="AY17" s="26">
         <f t="shared" si="16"/>
-        <v>886.71130476569022</v>
+        <v>853.50434223717389</v>
       </c>
       <c r="AZ17" s="26">
         <f t="shared" si="16"/>
-        <v>877.84419171803336</v>
+        <v>844.96929881480219</v>
       </c>
       <c r="BA17" s="26">
         <f t="shared" si="16"/>
-        <v>869.06574980085304</v>
+        <v>836.51960582665413</v>
       </c>
       <c r="BB17" s="26">
         <f t="shared" si="16"/>
-        <v>860.37509230284445</v>
+        <v>828.15440976838761</v>
       </c>
       <c r="BC17" s="26">
         <f t="shared" si="16"/>
-        <v>851.77134137981602</v>
+        <v>819.87286567070373</v>
       </c>
       <c r="BD17" s="26">
         <f t="shared" si="16"/>
-        <v>843.2536279660178</v>
+        <v>811.67413701399664</v>
       </c>
       <c r="BE17" s="26">
         <f t="shared" si="16"/>
-        <v>834.82109168635759</v>
+        <v>803.55739564385669</v>
       </c>
       <c r="BF17" s="26">
         <f t="shared" si="16"/>
-        <v>826.47288076949405</v>
+        <v>795.52182168741808</v>
       </c>
       <c r="BG17" s="26">
         <f t="shared" si="16"/>
-        <v>818.2081519617991</v>
+        <v>787.5666034705439</v>
       </c>
       <c r="BH17" s="26">
         <f t="shared" si="16"/>
-        <v>810.02607044218109</v>
+        <v>779.69093743583846</v>
       </c>
       <c r="BI17" s="26">
         <f t="shared" si="16"/>
-        <v>801.92580973775932</v>
+        <v>771.89402806148007</v>
       </c>
       <c r="BJ17" s="26">
         <f t="shared" si="16"/>
-        <v>793.90655164038174</v>
+        <v>764.17508778086528</v>
       </c>
       <c r="BK17" s="26">
         <f t="shared" si="16"/>
-        <v>785.96748612397789</v>
+        <v>756.53333690305658</v>
       </c>
       <c r="BL17" s="26">
         <f t="shared" si="16"/>
-        <v>778.1078112627381</v>
+        <v>748.96800353402602</v>
       </c>
       <c r="BM17" s="26">
         <f t="shared" si="16"/>
-        <v>770.32673315011073</v>
+        <v>741.47832349868577</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="16"/>
-        <v>762.62346581860959</v>
+        <v>734.06354026369888</v>
       </c>
       <c r="BO17" s="26">
         <f t="shared" si="16"/>
-        <v>754.99723116042344</v>
+        <v>726.72290486106192</v>
       </c>
       <c r="BP17" s="26">
         <f t="shared" si="16"/>
-        <v>747.44725884881916</v>
+        <v>719.45567581245132</v>
       </c>
       <c r="BQ17" s="26">
         <f t="shared" si="16"/>
-        <v>739.97278626033096</v>
+        <v>712.26111905432685</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="16"/>
-        <v>732.57305839772766</v>
+        <v>705.13850786378362</v>
       </c>
       <c r="BS17" s="26">
         <f t="shared" si="16"/>
-        <v>725.24732781375042</v>
+        <v>698.08712278514577</v>
       </c>
       <c r="BT17" s="26">
         <f t="shared" si="16"/>
-        <v>717.99485453561294</v>
+        <v>691.10625155729429</v>
       </c>
       <c r="BU17" s="26">
         <f t="shared" si="16"/>
-        <v>710.81490599025676</v>
+        <v>684.19518904172139</v>
       </c>
       <c r="BV17" s="26">
         <f t="shared" si="16"/>
-        <v>703.70675693035423</v>
+        <v>677.35323715130414</v>
       </c>
       <c r="BW17" s="26">
         <f t="shared" si="16"/>
-        <v>696.6696893610507</v>
+        <v>670.57970477979109</v>
       </c>
       <c r="BX17" s="26">
         <f t="shared" si="16"/>
-        <v>689.70299246744014</v>
+        <v>663.8739077319932</v>
       </c>
       <c r="BY17" s="26">
         <f t="shared" si="16"/>
-        <v>682.80596254276577</v>
+        <v>657.23516865467332</v>
       </c>
       <c r="BZ17" s="26">
         <f t="shared" si="16"/>
-        <v>675.97790291733816</v>
+        <v>650.66281696812655</v>
       </c>
       <c r="CA17" s="26">
         <f t="shared" si="16"/>
-        <v>669.21812388816477</v>
+        <v>644.15618879844533</v>
       </c>
       <c r="CB17" s="26">
         <f t="shared" si="16"/>
-        <v>662.52594264928314</v>
+        <v>637.71462691046088</v>
       </c>
       <c r="CC17" s="26">
         <f t="shared" si="16"/>
-        <v>655.90068322279035</v>
+        <v>631.33748064135625</v>
       </c>
       <c r="CD17" s="26">
         <f t="shared" si="16"/>
-        <v>649.34167639056238</v>
+        <v>625.0241058349427</v>
       </c>
       <c r="CE17" s="26">
         <f t="shared" si="16"/>
-        <v>642.84825962665673</v>
+        <v>618.77386477659331</v>
       </c>
       <c r="CF17" s="26">
         <f t="shared" si="16"/>
-        <v>636.41977703039015</v>
+        <v>612.58612612882735</v>
       </c>
       <c r="CG17" s="26">
         <f t="shared" si="16"/>
-        <v>630.05557926008623</v>
+        <v>606.46026486753908</v>
       </c>
       <c r="CH17" s="26">
         <f t="shared" si="16"/>
-        <v>623.75502346748533</v>
+        <v>600.39566221886366</v>
       </c>
       <c r="CI17" s="26">
         <f t="shared" si="16"/>
-        <v>617.51747323281052</v>
+        <v>594.39170559667502</v>
       </c>
       <c r="CJ17" s="26">
         <f t="shared" si="16"/>
-        <v>611.34229850048246</v>
+        <v>588.4477885407083</v>
       </c>
       <c r="CK17" s="26">
         <f t="shared" si="16"/>
-        <v>605.22887551547763</v>
+        <v>582.56331065530117</v>
       </c>
       <c r="CL17" s="26">
         <f t="shared" si="16"/>
-        <v>599.17658676032283</v>
+        <v>576.73767754874814</v>
       </c>
       <c r="CM17" s="26">
         <f t="shared" ref="CM17:DG17" si="17">CL17*(1+$AA$22)</f>
-        <v>593.18482089271959</v>
+        <v>570.97030077326065</v>
       </c>
       <c r="CN17" s="26">
         <f t="shared" si="17"/>
-        <v>587.25297268379234</v>
+        <v>565.26059776552802</v>
       </c>
       <c r="CO17" s="26">
         <f t="shared" si="17"/>
-        <v>581.38044295695443</v>
+        <v>559.60799178787272</v>
       </c>
       <c r="CP17" s="26">
         <f t="shared" si="17"/>
-        <v>575.56663852738484</v>
+        <v>554.01191186999404</v>
       </c>
       <c r="CQ17" s="26">
         <f t="shared" si="17"/>
-        <v>569.81097214211104</v>
+        <v>548.47179275129406</v>
       </c>
       <c r="CR17" s="26">
         <f t="shared" si="17"/>
-        <v>564.11286242068991</v>
+        <v>542.98707482378109</v>
       </c>
       <c r="CS17" s="26">
         <f t="shared" si="17"/>
-        <v>558.47173379648302</v>
+        <v>537.55720407554327</v>
       </c>
       <c r="CT17" s="26">
         <f t="shared" si="17"/>
-        <v>552.88701645851813</v>
+        <v>532.18163203478787</v>
       </c>
       <c r="CU17" s="26">
         <f t="shared" si="17"/>
-        <v>547.35814629393292</v>
+        <v>526.85981571443995</v>
       </c>
       <c r="CV17" s="26">
         <f t="shared" si="17"/>
-        <v>541.88456483099355</v>
+        <v>521.59121755729552</v>
       </c>
       <c r="CW17" s="26">
         <f t="shared" si="17"/>
-        <v>536.46571918268364</v>
+        <v>516.37530538172257</v>
       </c>
       <c r="CX17" s="26">
         <f t="shared" si="17"/>
-        <v>531.10106199085681</v>
+        <v>511.21155232790534</v>
       </c>
       <c r="CY17" s="26">
         <f t="shared" si="17"/>
-        <v>525.79005137094828</v>
+        <v>506.09943680462629</v>
       </c>
       <c r="CZ17" s="26">
         <f t="shared" si="17"/>
-        <v>520.53215085723878</v>
+        <v>501.03844243658</v>
       </c>
       <c r="DA17" s="26">
         <f t="shared" si="17"/>
-        <v>515.32682934866637</v>
+        <v>496.02805801221422</v>
       </c>
       <c r="DB17" s="26">
         <f t="shared" si="17"/>
-        <v>510.17356105517968</v>
+        <v>491.06777743209204</v>
       </c>
       <c r="DC17" s="26">
         <f t="shared" si="17"/>
-        <v>505.07182544462785</v>
+        <v>486.15709965777114</v>
       </c>
       <c r="DD17" s="26">
         <f t="shared" si="17"/>
-        <v>500.02110719018157</v>
+        <v>481.29552866119343</v>
       </c>
       <c r="DE17" s="26">
         <f t="shared" si="17"/>
-        <v>495.02089611827972</v>
+        <v>476.48257337458148</v>
       </c>
       <c r="DF17" s="26">
         <f t="shared" si="17"/>
-        <v>490.07068715709693</v>
+        <v>471.71774764083568</v>
       </c>
       <c r="DG17" s="26">
         <f t="shared" si="17"/>
-        <v>485.16998028552598</v>
+        <v>467.0005701644273</v>
       </c>
     </row>
     <row r="18" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29149,43 +29170,43 @@
       </c>
       <c r="O18" s="16">
         <f>(O17*Modell!$B$11)/O19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="P18" s="16">
         <f>(P17*Modell!$B$11)/P19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="Q18" s="16">
         <f>(Q17*Modell!$B$11)/Q19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="R18" s="16">
         <f>(R17*Modell!$B$11)/R19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="S18" s="16">
         <f>(S17*Modell!$B$11)/S19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="T18" s="16">
         <f>(T17*Modell!$B$11)/T19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="U18" s="16">
         <f>(U17*Modell!$B$11)/U19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="V18" s="16">
         <f>(V17*Modell!$B$11)/V19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="W18" s="16">
         <f>(W17*Modell!$B$11)/W19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
       <c r="X18" s="16">
         <f>(X17*Modell!$B$11)/X19</f>
-        <v>62.340229668869192</v>
+        <v>60.005614490843115</v>
       </c>
     </row>
     <row r="19" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29373,7 +29394,7 @@
       </c>
       <c r="AA23" s="3">
         <f>NPV(AA21,N17:DG17)</f>
-        <v>11223.343124718482</v>
+        <v>10842.632863559957</v>
       </c>
     </row>
     <row r="24" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29450,7 +29471,7 @@
       </c>
       <c r="AA24" s="23">
         <f>AA23*Modell!B11</f>
-        <v>123681.24123439766</v>
+        <v>119485.81415643072</v>
       </c>
     </row>
     <row r="25" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29531,7 +29552,7 @@
       </c>
       <c r="AA25" s="72">
         <f>AA24/X19</f>
-        <v>601.53187754481303</v>
+        <v>581.12714112622405</v>
       </c>
     </row>
     <row r="26" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29584,50 +29605,50 @@
       </c>
       <c r="O26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="P26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="Q26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="R26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="S26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="T26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="U26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="V26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="W26" s="33">
         <f t="shared" si="20"/>
-        <v>0.66662002745883364</v>
+        <v>0.64421309454058928</v>
       </c>
       <c r="X26" s="33">
         <f>X10/X7</f>
-        <v>0.77593067081755618</v>
+        <v>0.75352373789931182</v>
       </c>
       <c r="Z26" s="6" t="s">
         <v>95</v>
       </c>
       <c r="AA26" s="33">
         <f>(AA25-Modell!B4)/Modell!B4</f>
-        <v>-2.3487211777900929E-2</v>
+        <v>-6.6202715791041948E-3</v>
       </c>
     </row>
     <row r="27" spans="1:16366" x14ac:dyDescent="0.25">
@@ -29680,43 +29701,43 @@
       </c>
       <c r="O27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="P27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="Q27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="R27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="S27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="T27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="U27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="V27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="W27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
       <c r="X27" s="31">
         <f t="shared" si="21"/>
-        <v>0.59832273748830389</v>
+        <v>0.57591580457005942</v>
       </c>
     </row>
     <row r="28" spans="1:16366" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -46347,7 +46368,7 @@
     <row r="33" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <f>AA53</f>
-        <v>0.21050738367758992</v>
+        <v>0.27465392879554767</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>159</v>
@@ -48210,7 +48231,7 @@
       </c>
       <c r="AA53" s="33">
         <f>(AA52-Modell!B4)/Modell!B4</f>
-        <v>0.21050738367758992</v>
+        <v>0.27465392879554767</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
